--- a/InputData/fuels/BFPIaE/BAU Fuel Production Imports and Exports.xlsx
+++ b/InputData/fuels/BFPIaE/BAU Fuel Production Imports and Exports.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27909"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shigu\Documents\_swj\_Talanoa\CPSA Fletcher\dados\InputData (BR) 2024\d10 fuels\BFPIaE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anima\OneDrive\Desktop\Models\eps-brazil-cpl2\InputData\fuels\BFPIaE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{281ACA3A-E49C-4E63-A4D6-9F96DC1E3690}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D2FA4798-FDAC-4289-9286-498ED82B4D5D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D8FEDC-5682-4F70-BF0E-FE1A1942F2C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2760" yWindow="3180" windowWidth="20316" windowHeight="8988" tabRatio="986" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="986" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="4" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="158">
   <si>
     <t>BFPIaE BAU Fuel Production</t>
   </si>
@@ -520,6 +520,9 @@
   <si>
     <t>municipal solid waste</t>
   </si>
+  <si>
+    <t>x</t>
+  </si>
 </sst>
 </file>
 
@@ -533,7 +536,7 @@
     <numFmt numFmtId="168" formatCode="0.000"/>
     <numFmt numFmtId="169" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -930,8 +933,8 @@
     <cellStyle name="Header: bottom row 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
     <cellStyle name="Header: bottom row 3" xfId="22" xr:uid="{AE126B05-B4CF-4974-9AFE-DDCD45802937}"/>
     <cellStyle name="Header: top rows" xfId="16" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Hiperlink 2" xfId="29" xr:uid="{33EA1847-7C53-4B7D-80A3-ACCE05962832}"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
     <cellStyle name="Normal 2 2" xfId="28" xr:uid="{4FB238CE-9FB0-415F-815A-5E8D0C8C4F19}"/>
@@ -1264,30 +1267,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B69"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="82.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.73046875" customWidth="1"/>
+    <col min="2" max="2" width="82.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -1295,57 +1300,57 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B9" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B12" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B14" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B16" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -1353,7 +1358,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -1361,7 +1366,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1369,7 +1374,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1377,7 +1382,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1385,7 +1390,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -1393,7 +1398,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -1401,7 +1406,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -1409,7 +1414,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -1417,7 +1422,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -1425,7 +1430,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>27</v>
       </c>
@@ -1433,157 +1438,157 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B29" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B30" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B31" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B32" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B33" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A50" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A55" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A64" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>55</v>
       </c>
@@ -1591,7 +1596,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>57</v>
       </c>
@@ -1599,7 +1604,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>59</v>
       </c>
@@ -1607,7 +1612,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>61</v>
       </c>
@@ -1615,7 +1620,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>63</v>
       </c>
@@ -1638,35 +1643,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38977FC2-8940-4B3D-8875-9D3ABAD52CA3}">
   <dimension ref="A2:Q60"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A29" workbookViewId="0">
       <selection activeCell="P48" sqref="P48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="11.65" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="9"/>
-    <col min="2" max="2" width="10.28515625" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="15" width="8.85546875" style="9"/>
-    <col min="16" max="16" width="7.42578125" style="9" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.85546875" style="9"/>
+    <col min="1" max="1" width="8.86328125" style="9"/>
+    <col min="2" max="2" width="10.265625" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="15" width="8.86328125" style="9"/>
+    <col min="16" max="16" width="7.3984375" style="9" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.86328125" style="9"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B2" s="9" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B3" s="9" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B4" s="9" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
       <c r="D5" s="9">
         <v>2021</v>
       </c>
@@ -1715,7 +1720,7 @@
         <v>2032</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B6" s="11" t="s">
         <v>68</v>
       </c>
@@ -1771,7 +1776,7 @@
         <v>286700.6333333333</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A7" s="15">
         <f>BEN!M53</f>
         <v>175531</v>
@@ -1832,7 +1837,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
       <c r="C8" s="9" t="s">
         <v>71</v>
       </c>
@@ -1882,7 +1887,7 @@
         <v>1788.5000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B9" s="11" t="s">
         <v>72</v>
       </c>
@@ -1924,7 +1929,7 @@
         <v>4.9000000000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B10" s="11" t="s">
         <v>74</v>
       </c>
@@ -1977,7 +1982,7 @@
         <v>10488.849557522126</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B11" s="9"/>
       <c r="C11" s="11" t="s">
         <v>70</v>
@@ -2028,7 +2033,7 @@
         <v>9633.0413796283192</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
       <c r="C12" s="9" t="s">
         <v>73</v>
       </c>
@@ -2078,7 +2083,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B13" s="11" t="s">
         <v>75</v>
       </c>
@@ -2131,7 +2136,7 @@
         <v>174887.3863333333</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="14.45">
+    <row r="14" spans="1:17" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C14" s="11" t="s">
         <v>76</v>
       </c>
@@ -2177,11 +2182,11 @@
         <v>0.61</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
     </row>
-    <row r="16" spans="1:17">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B16" s="11" t="s">
         <v>77</v>
       </c>
@@ -2240,7 +2245,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="2:17">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B17" s="11" t="s">
         <v>72</v>
       </c>
@@ -2284,7 +2289,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="18" spans="2:17">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B18" s="11" t="s">
         <v>74</v>
       </c>
@@ -2336,7 +2341,7 @@
         <v>17520</v>
       </c>
     </row>
-    <row r="19" spans="2:17">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.45">
       <c r="E19" s="9">
         <v>116</v>
       </c>
@@ -2371,7 +2376,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="21" spans="2:17">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B21" s="11" t="s">
         <v>80</v>
       </c>
@@ -2423,7 +2428,7 @@
         <v>29682.332695984704</v>
       </c>
     </row>
-    <row r="22" spans="2:17">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B22" s="9"/>
       <c r="C22" s="11" t="s">
         <v>70</v>
@@ -2477,7 +2482,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="2:17">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B23" s="11" t="s">
         <v>81</v>
       </c>
@@ -2519,7 +2524,7 @@
       </c>
       <c r="P23" s="22"/>
     </row>
-    <row r="24" spans="2:17">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B24" s="11" t="s">
         <v>72</v>
       </c>
@@ -2571,7 +2576,7 @@
         <v>26565.073548387092</v>
       </c>
     </row>
-    <row r="25" spans="2:17">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.45">
       <c r="C25" s="11" t="s">
         <v>70</v>
       </c>
@@ -2620,7 +2625,7 @@
         <v>26207</v>
       </c>
     </row>
-    <row r="26" spans="2:17">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B26" s="9"/>
       <c r="C26" s="9" t="s">
         <v>79</v>
@@ -2659,7 +2664,7 @@
         <v>71.8</v>
       </c>
     </row>
-    <row r="27" spans="2:17">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B27" s="11" t="s">
         <v>82</v>
       </c>
@@ -2712,7 +2717,7 @@
       </c>
       <c r="P27" s="21"/>
     </row>
-    <row r="28" spans="2:17" ht="14.45">
+    <row r="28" spans="2:17" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B28" s="11" t="s">
         <v>83</v>
       </c>
@@ -2765,7 +2770,7 @@
         <v>0.76959183232030448</v>
       </c>
     </row>
-    <row r="29" spans="2:17" ht="14.45">
+    <row r="29" spans="2:17" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B29" s="11" t="s">
         <v>84</v>
       </c>
@@ -2818,7 +2823,7 @@
         <v>0.23040816767969544</v>
       </c>
     </row>
-    <row r="30" spans="2:17">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B30" s="9"/>
       <c r="E30" s="22"/>
       <c r="F30" s="22"/>
@@ -2832,7 +2837,7 @@
       <c r="N30" s="22"/>
       <c r="O30" s="22"/>
     </row>
-    <row r="32" spans="2:17">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B32" s="11" t="s">
         <v>85</v>
       </c>
@@ -2884,7 +2889,7 @@
         <v>72254.375000000015</v>
       </c>
     </row>
-    <row r="33" spans="1:17">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A33" s="15"/>
       <c r="B33" s="9"/>
       <c r="C33" s="11" t="s">
@@ -2938,7 +2943,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:17">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B34" s="11" t="s">
         <v>81</v>
       </c>
@@ -2992,7 +2997,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="35" spans="1:17">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B35" s="11" t="s">
         <v>72</v>
       </c>
@@ -3045,7 +3050,7 @@
       </c>
       <c r="P35" s="21"/>
     </row>
-    <row r="36" spans="1:17">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B36" s="9"/>
       <c r="C36" s="9" t="s">
         <v>79</v>
@@ -3085,7 +3090,7 @@
       </c>
       <c r="P36" s="21"/>
     </row>
-    <row r="37" spans="1:17">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B37" s="11" t="s">
         <v>82</v>
       </c>
@@ -3138,7 +3143,7 @@
       </c>
       <c r="P37" s="21"/>
     </row>
-    <row r="38" spans="1:17" ht="14.45">
+    <row r="38" spans="1:17" ht="14.25" x14ac:dyDescent="0.45">
       <c r="E38" s="15">
         <f>$P38*E37</f>
         <v>13297.155859390801</v>
@@ -3188,7 +3193,7 @@
         <v>0.93149953480846237</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="14.45">
+    <row r="39" spans="1:17" ht="14.25" x14ac:dyDescent="0.45">
       <c r="E39" s="15">
         <f>$P39*E37</f>
         <v>977.84414060919869</v>
@@ -3238,7 +3243,7 @@
         <v>6.850046519153756E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:17">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B40" s="9"/>
       <c r="E40" s="22"/>
       <c r="F40" s="22"/>
@@ -3253,7 +3258,7 @@
       <c r="O40" s="22"/>
       <c r="P40" s="21"/>
     </row>
-    <row r="41" spans="1:17">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B41" s="11" t="s">
         <v>24</v>
       </c>
@@ -3313,7 +3318,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.45">
       <c r="C42" s="11" t="s">
         <v>70</v>
       </c>
@@ -3368,7 +3373,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="43" spans="1:17">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B43" s="11" t="s">
         <v>81</v>
       </c>
@@ -3419,7 +3424,7 @@
       </c>
       <c r="P43" s="21"/>
     </row>
-    <row r="44" spans="1:17">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B44" s="11" t="s">
         <v>72</v>
       </c>
@@ -3476,7 +3481,7 @@
       </c>
       <c r="P44" s="21"/>
     </row>
-    <row r="45" spans="1:17">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.45">
       <c r="C45" s="11" t="s">
         <v>70</v>
       </c>
@@ -3526,7 +3531,7 @@
       </c>
       <c r="P45" s="21"/>
     </row>
-    <row r="46" spans="1:17">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B46" s="9"/>
       <c r="C46" s="9" t="s">
         <v>79</v>
@@ -3572,7 +3577,7 @@
         <v>19.8</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="14.45">
+    <row r="47" spans="1:17" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B47" s="11" t="s">
         <v>83</v>
       </c>
@@ -3626,7 +3631,7 @@
       </c>
       <c r="P47" s="19"/>
     </row>
-    <row r="48" spans="1:17">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.45">
       <c r="B48" s="11" t="s">
         <v>84</v>
       </c>
@@ -3683,10 +3688,10 @@
         <v>1.6708950520012606</v>
       </c>
     </row>
-    <row r="49" spans="2:17">
+    <row r="49" spans="2:17" x14ac:dyDescent="0.45">
       <c r="P49" s="21"/>
     </row>
-    <row r="50" spans="2:17">
+    <row r="50" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B50" s="11" t="s">
         <v>26</v>
       </c>
@@ -3742,7 +3747,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="51" spans="2:17">
+    <row r="51" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B51" s="11" t="s">
         <v>81</v>
       </c>
@@ -3796,7 +3801,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="52" spans="2:17">
+    <row r="52" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B52" s="11" t="s">
         <v>72</v>
       </c>
@@ -3848,7 +3853,7 @@
         <v>15585.500000000002</v>
       </c>
     </row>
-    <row r="53" spans="2:17">
+    <row r="53" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B53" s="9"/>
       <c r="C53" s="9" t="s">
         <v>79</v>
@@ -3887,7 +3892,7 @@
         <v>42.7</v>
       </c>
     </row>
-    <row r="55" spans="2:17">
+    <row r="55" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B55" s="11" t="s">
         <v>88</v>
       </c>
@@ -3942,7 +3947,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="56" spans="2:17">
+    <row r="56" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B56" s="11" t="s">
         <v>81</v>
       </c>
@@ -3996,7 +4001,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="57" spans="2:17">
+    <row r="57" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B57" s="11" t="s">
         <v>72</v>
       </c>
@@ -4048,7 +4053,7 @@
         <v>15658.5</v>
       </c>
     </row>
-    <row r="58" spans="2:17">
+    <row r="58" spans="2:17" x14ac:dyDescent="0.45">
       <c r="B58" s="9"/>
       <c r="C58" s="9" t="s">
         <v>79</v>
@@ -4087,7 +4092,7 @@
         <v>42.9</v>
       </c>
     </row>
-    <row r="59" spans="2:17">
+    <row r="59" spans="2:17" x14ac:dyDescent="0.45">
       <c r="C59" s="11" t="s">
         <v>89</v>
       </c>
@@ -4136,7 +4141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:17" ht="14.45">
+    <row r="60" spans="2:17" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C60" s="11" t="s">
         <v>90</v>
       </c>
@@ -4193,29 +4198,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4A0C7EF-3A9D-41C5-A0C5-9F66A63C160E}">
   <dimension ref="B2:P32"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="11.65" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="3" width="8.85546875" style="9"/>
-    <col min="4" max="4" width="7.140625" style="15" customWidth="1"/>
-    <col min="5" max="16" width="8.85546875" style="15"/>
-    <col min="17" max="16384" width="8.85546875" style="9"/>
+    <col min="1" max="3" width="8.86328125" style="9"/>
+    <col min="4" max="4" width="7.1328125" style="15" customWidth="1"/>
+    <col min="5" max="16" width="8.86328125" style="15"/>
+    <col min="17" max="16384" width="8.86328125" style="9"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B2" s="9" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="2:16">
+    <row r="3" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B3" s="9" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="2:16">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.45">
       <c r="C5" s="9" t="s">
         <v>69</v>
       </c>
@@ -4268,7 +4273,7 @@
       </c>
       <c r="P5" s="22"/>
     </row>
-    <row r="6" spans="2:16">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B6" s="24" t="s">
         <v>92</v>
       </c>
@@ -4324,7 +4329,7 @@
         <v>47146.999780717277</v>
       </c>
     </row>
-    <row r="7" spans="2:16">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B7" s="11"/>
       <c r="C7" s="11" t="s">
         <v>74</v>
@@ -4368,7 +4373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:16">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B8" s="11"/>
       <c r="C8" s="11" t="s">
         <v>75</v>
@@ -4422,7 +4427,7 @@
         <v>-1403.1044039793778</v>
       </c>
     </row>
-    <row r="9" spans="2:16">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.45">
       <c r="C9" s="11" t="s">
         <v>93</v>
       </c>
@@ -4475,7 +4480,7 @@
         <v>48550.104184696655</v>
       </c>
     </row>
-    <row r="10" spans="2:16" ht="14.45">
+    <row r="10" spans="2:16" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C10" s="11"/>
       <c r="D10" s="25">
         <f>4.1%</f>
@@ -4526,7 +4531,7 @@
         <v>0.97109986832074302</v>
       </c>
     </row>
-    <row r="11" spans="2:16" ht="14.45">
+    <row r="11" spans="2:16" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C11" s="11"/>
       <c r="D11" s="26"/>
       <c r="E11" s="25">
@@ -4574,7 +4579,7 @@
         <v>0.96170212765957452</v>
       </c>
     </row>
-    <row r="12" spans="2:16" ht="14.45">
+    <row r="12" spans="2:16" ht="14.25" x14ac:dyDescent="0.45">
       <c r="D12" s="19" t="s">
         <v>94</v>
       </c>
@@ -4612,7 +4617,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="2:16">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.45">
       <c r="D13" s="15" t="s">
         <v>95</v>
       </c>
@@ -4650,7 +4655,7 @@
         <v>36.1</v>
       </c>
     </row>
-    <row r="14" spans="2:16">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.45">
       <c r="D14" s="15" t="s">
         <v>96</v>
       </c>
@@ -4688,7 +4693,7 @@
         <v>9.1</v>
       </c>
     </row>
-    <row r="15" spans="2:16">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.45">
       <c r="D15" s="15" t="s">
         <v>83</v>
       </c>
@@ -4737,7 +4742,7 @@
         <v>1.7999999999999972</v>
       </c>
     </row>
-    <row r="16" spans="2:16">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.45">
       <c r="D16" s="27"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
@@ -4751,7 +4756,7 @@
       <c r="N16" s="9"/>
       <c r="O16" s="9"/>
     </row>
-    <row r="17" spans="2:16">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.45">
       <c r="C17" s="9" t="s">
         <v>97</v>
       </c>
@@ -4803,7 +4808,7 @@
         <v>2032</v>
       </c>
     </row>
-    <row r="18" spans="2:16">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B18" s="28" t="s">
         <v>15</v>
       </c>
@@ -4856,7 +4861,7 @@
         <v>398672.88405612396</v>
       </c>
     </row>
-    <row r="19" spans="2:16" ht="14.45">
+    <row r="19" spans="2:16" ht="14.25" x14ac:dyDescent="0.45">
       <c r="B19" s="28" t="s">
         <v>17</v>
       </c>
@@ -4913,11 +4918,11 @@
         <v>0.64606079395091365</v>
       </c>
     </row>
-    <row r="20" spans="2:16" ht="14.45">
+    <row r="20" spans="2:16" ht="14.25" x14ac:dyDescent="0.45">
       <c r="D20" s="19"/>
       <c r="E20" s="19"/>
     </row>
-    <row r="21" spans="2:16">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.45">
       <c r="C21" s="9" t="s">
         <v>97</v>
       </c>
@@ -4966,7 +4971,7 @@
         <v>251370.04906771498</v>
       </c>
     </row>
-    <row r="22" spans="2:16" ht="14.45">
+    <row r="22" spans="2:16" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C22" s="9" t="s">
         <v>98</v>
       </c>
@@ -5017,7 +5022,7 @@
         <v>0.15999999999999998</v>
       </c>
     </row>
-    <row r="23" spans="2:16">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B23" s="23">
         <f>B24/B25/1000</f>
         <v>0.14288098416341088</v>
@@ -5029,7 +5034,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="2:16">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B24" s="9">
         <v>40</v>
       </c>
@@ -5040,7 +5045,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="25" spans="2:16">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B25" s="30">
         <v>0.27995327883696958</v>
       </c>
@@ -5051,17 +5056,17 @@
         <v>104</v>
       </c>
     </row>
-    <row r="26" spans="2:16">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B26" s="30"/>
       <c r="C26" s="31"/>
       <c r="E26" s="32"/>
     </row>
-    <row r="27" spans="2:16">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B27" s="30"/>
       <c r="C27" s="31"/>
       <c r="E27" s="32"/>
     </row>
-    <row r="28" spans="2:16">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.45">
       <c r="C28" s="9" t="s">
         <v>69</v>
       </c>
@@ -5113,7 +5118,7 @@
         <v>2032</v>
       </c>
     </row>
-    <row r="29" spans="2:16">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.45">
       <c r="B29" s="28" t="s">
         <v>105</v>
       </c>
@@ -5166,7 +5171,7 @@
         <v>14450.875000000004</v>
       </c>
     </row>
-    <row r="30" spans="2:16">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.45">
       <c r="C30" s="9" t="s">
         <v>85</v>
       </c>
@@ -5219,7 +5224,7 @@
         <v>72254.375000000015</v>
       </c>
     </row>
-    <row r="31" spans="2:16" ht="14.45">
+    <row r="31" spans="2:16" ht="14.25" x14ac:dyDescent="0.45">
       <c r="C31" s="9" t="s">
         <v>106</v>
       </c>
@@ -5268,7 +5273,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="32" spans="2:16">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.45">
       <c r="E32" s="15" t="s">
         <v>107</v>
       </c>
@@ -5283,28 +5288,28 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1234FAA1-B348-4587-B120-01D5BFC1F0ED}">
-  <dimension ref="A1:X66"/>
+  <dimension ref="A1:BI66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView topLeftCell="AB1" workbookViewId="0">
+      <selection activeCell="AS15" sqref="AS15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="11.65" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="19.5703125" style="15" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="11"/>
-    <col min="4" max="9" width="8.85546875" style="12" customWidth="1"/>
-    <col min="10" max="13" width="8.85546875" style="12"/>
-    <col min="14" max="16384" width="8.85546875" style="9"/>
+    <col min="1" max="1" width="19.59765625" style="15" customWidth="1"/>
+    <col min="2" max="2" width="9.265625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="8.86328125" style="11"/>
+    <col min="4" max="9" width="8.86328125" style="12" customWidth="1"/>
+    <col min="10" max="13" width="8.86328125" style="12"/>
+    <col min="14" max="16384" width="8.86328125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A1" s="15" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:61" x14ac:dyDescent="0.45">
       <c r="D3" s="13">
         <v>2013</v>
       </c>
@@ -5375,8 +5380,160 @@
         <f t="shared" si="0"/>
         <v>2032</v>
       </c>
-    </row>
-    <row r="4" spans="1:23">
+      <c r="X3" s="14">
+        <f t="shared" ref="X3" si="1">1+W3</f>
+        <v>2033</v>
+      </c>
+      <c r="Y3" s="14">
+        <f t="shared" ref="Y3" si="2">1+X3</f>
+        <v>2034</v>
+      </c>
+      <c r="Z3" s="14">
+        <f t="shared" ref="Z3" si="3">1+Y3</f>
+        <v>2035</v>
+      </c>
+      <c r="AA3" s="14">
+        <f t="shared" ref="AA3" si="4">1+Z3</f>
+        <v>2036</v>
+      </c>
+      <c r="AB3" s="14">
+        <f t="shared" ref="AB3" si="5">1+AA3</f>
+        <v>2037</v>
+      </c>
+      <c r="AC3" s="14">
+        <f t="shared" ref="AC3" si="6">1+AB3</f>
+        <v>2038</v>
+      </c>
+      <c r="AD3" s="14">
+        <f t="shared" ref="AD3" si="7">1+AC3</f>
+        <v>2039</v>
+      </c>
+      <c r="AE3" s="14">
+        <f t="shared" ref="AE3" si="8">1+AD3</f>
+        <v>2040</v>
+      </c>
+      <c r="AF3" s="14">
+        <f t="shared" ref="AF3" si="9">1+AE3</f>
+        <v>2041</v>
+      </c>
+      <c r="AG3" s="14">
+        <f t="shared" ref="AG3" si="10">1+AF3</f>
+        <v>2042</v>
+      </c>
+      <c r="AH3" s="14">
+        <f t="shared" ref="AH3" si="11">1+AG3</f>
+        <v>2043</v>
+      </c>
+      <c r="AI3" s="14">
+        <f t="shared" ref="AI3" si="12">1+AH3</f>
+        <v>2044</v>
+      </c>
+      <c r="AJ3" s="14">
+        <f t="shared" ref="AJ3" si="13">1+AI3</f>
+        <v>2045</v>
+      </c>
+      <c r="AK3" s="14">
+        <f t="shared" ref="AK3" si="14">1+AJ3</f>
+        <v>2046</v>
+      </c>
+      <c r="AL3" s="14">
+        <f t="shared" ref="AL3" si="15">1+AK3</f>
+        <v>2047</v>
+      </c>
+      <c r="AM3" s="14">
+        <f t="shared" ref="AM3" si="16">1+AL3</f>
+        <v>2048</v>
+      </c>
+      <c r="AN3" s="14">
+        <f t="shared" ref="AN3" si="17">1+AM3</f>
+        <v>2049</v>
+      </c>
+      <c r="AO3" s="14">
+        <f t="shared" ref="AO3" si="18">1+AN3</f>
+        <v>2050</v>
+      </c>
+      <c r="AP3" s="14">
+        <f t="shared" ref="AP3" si="19">1+AO3</f>
+        <v>2051</v>
+      </c>
+      <c r="AQ3" s="14">
+        <f t="shared" ref="AQ3" si="20">1+AP3</f>
+        <v>2052</v>
+      </c>
+      <c r="AR3" s="14">
+        <f t="shared" ref="AR3" si="21">1+AQ3</f>
+        <v>2053</v>
+      </c>
+      <c r="AS3" s="14">
+        <f t="shared" ref="AS3" si="22">1+AR3</f>
+        <v>2054</v>
+      </c>
+      <c r="AT3" s="14">
+        <f t="shared" ref="AT3" si="23">1+AS3</f>
+        <v>2055</v>
+      </c>
+      <c r="AU3" s="14">
+        <f t="shared" ref="AU3" si="24">1+AT3</f>
+        <v>2056</v>
+      </c>
+      <c r="AV3" s="14">
+        <f t="shared" ref="AV3" si="25">1+AU3</f>
+        <v>2057</v>
+      </c>
+      <c r="AW3" s="14">
+        <f t="shared" ref="AW3" si="26">1+AV3</f>
+        <v>2058</v>
+      </c>
+      <c r="AX3" s="14">
+        <f t="shared" ref="AX3" si="27">1+AW3</f>
+        <v>2059</v>
+      </c>
+      <c r="AY3" s="14">
+        <f t="shared" ref="AY3" si="28">1+AX3</f>
+        <v>2060</v>
+      </c>
+      <c r="AZ3" s="14">
+        <f t="shared" ref="AZ3" si="29">1+AY3</f>
+        <v>2061</v>
+      </c>
+      <c r="BA3" s="14">
+        <f t="shared" ref="BA3" si="30">1+AZ3</f>
+        <v>2062</v>
+      </c>
+      <c r="BB3" s="14">
+        <f t="shared" ref="BB3" si="31">1+BA3</f>
+        <v>2063</v>
+      </c>
+      <c r="BC3" s="14">
+        <f t="shared" ref="BC3" si="32">1+BB3</f>
+        <v>2064</v>
+      </c>
+      <c r="BD3" s="14">
+        <f t="shared" ref="BD3" si="33">1+BC3</f>
+        <v>2065</v>
+      </c>
+      <c r="BE3" s="14">
+        <f t="shared" ref="BE3" si="34">1+BD3</f>
+        <v>2066</v>
+      </c>
+      <c r="BF3" s="14">
+        <f t="shared" ref="BF3" si="35">1+BE3</f>
+        <v>2067</v>
+      </c>
+      <c r="BG3" s="14">
+        <f t="shared" ref="BG3" si="36">1+BF3</f>
+        <v>2068</v>
+      </c>
+      <c r="BH3" s="14">
+        <f t="shared" ref="BH3" si="37">1+BG3</f>
+        <v>2069</v>
+      </c>
+      <c r="BI3" s="14">
+        <f t="shared" ref="BI3" si="38">1+BH3</f>
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="4" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A4" s="15" t="s">
         <v>109</v>
       </c>
@@ -5446,8 +5603,122 @@
       <c r="W4" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:23">
+      <c r="X4" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="15">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="15">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="15">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="15">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="15">
+        <v>0</v>
+      </c>
+      <c r="AO4" s="15">
+        <v>0</v>
+      </c>
+      <c r="AP4" s="15">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="15">
+        <v>0</v>
+      </c>
+      <c r="AR4" s="15">
+        <v>0</v>
+      </c>
+      <c r="AS4" s="15">
+        <v>0</v>
+      </c>
+      <c r="AT4" s="15">
+        <v>0</v>
+      </c>
+      <c r="AU4" s="15">
+        <v>0</v>
+      </c>
+      <c r="AV4" s="15">
+        <v>0</v>
+      </c>
+      <c r="AW4" s="15">
+        <v>0</v>
+      </c>
+      <c r="AX4" s="15">
+        <v>0</v>
+      </c>
+      <c r="AY4" s="15">
+        <v>0</v>
+      </c>
+      <c r="AZ4" s="15">
+        <v>0</v>
+      </c>
+      <c r="BA4" s="15">
+        <v>0</v>
+      </c>
+      <c r="BB4" s="15">
+        <v>0</v>
+      </c>
+      <c r="BC4" s="15">
+        <v>0</v>
+      </c>
+      <c r="BD4" s="15">
+        <v>0</v>
+      </c>
+      <c r="BE4" s="15">
+        <v>0</v>
+      </c>
+      <c r="BF4" s="15">
+        <v>0</v>
+      </c>
+      <c r="BG4" s="15">
+        <v>0</v>
+      </c>
+      <c r="BH4" s="15">
+        <v>0</v>
+      </c>
+      <c r="BI4" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A5" s="17">
         <f>29.37*1000000/1000</f>
         <v>29370</v>
@@ -5494,39 +5765,42 @@
         <v>10530.4</v>
       </c>
       <c r="P5" s="15">
-        <f t="shared" ref="P5:W5" si="1">$N5</f>
+        <f t="shared" ref="P5:W5" si="39">$N5</f>
         <v>10530.4</v>
       </c>
       <c r="Q5" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="39"/>
         <v>10530.4</v>
       </c>
       <c r="R5" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="39"/>
         <v>10530.4</v>
       </c>
       <c r="S5" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="39"/>
         <v>10530.4</v>
       </c>
       <c r="T5" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="39"/>
         <v>10530.4</v>
       </c>
       <c r="U5" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="39"/>
         <v>10530.4</v>
       </c>
       <c r="V5" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="39"/>
         <v>10530.4</v>
       </c>
       <c r="W5" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="39"/>
         <v>10530.4</v>
       </c>
-    </row>
-    <row r="6" spans="1:23">
+      <c r="BI5" s="9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A6" s="33" t="s">
         <v>112</v>
       </c>
@@ -5593,8 +5867,122 @@
       <c r="W6" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:23">
+      <c r="X6" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AS6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AT6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AU6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AV6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AW6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AX6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AY6" s="15">
+        <v>0</v>
+      </c>
+      <c r="AZ6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BA6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BB6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BC6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BD6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BE6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BF6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BG6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BH6" s="15">
+        <v>0</v>
+      </c>
+      <c r="BI6" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A8" s="15" t="s">
         <v>114</v>
       </c>
@@ -5605,43 +5993,43 @@
         <v>110</v>
       </c>
       <c r="D8" s="15">
-        <f t="shared" ref="D8:M8" si="2">D12+D11</f>
+        <f t="shared" ref="D8:M8" si="40">D12+D11</f>
         <v>22523</v>
       </c>
       <c r="E8" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="40"/>
         <v>23911</v>
       </c>
       <c r="F8" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="40"/>
         <v>24103</v>
       </c>
       <c r="G8" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="40"/>
         <v>25307</v>
       </c>
       <c r="H8" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="40"/>
         <v>28128</v>
       </c>
       <c r="I8" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="40"/>
         <v>26454</v>
       </c>
       <c r="J8" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="40"/>
         <v>26935</v>
       </c>
       <c r="K8" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="40"/>
         <v>24936</v>
       </c>
       <c r="L8" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="40"/>
         <v>25379</v>
       </c>
       <c r="M8" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="40"/>
         <v>24314</v>
       </c>
       <c r="N8" s="15">
@@ -5684,8 +6072,11 @@
         <f>'PDE-O&amp;G'!O16</f>
         <v>48910</v>
       </c>
-    </row>
-    <row r="9" spans="1:23">
+      <c r="BI8" s="9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A9" s="17">
         <f>39.4*1000000/1000000</f>
         <v>39.4</v>
@@ -5763,8 +6154,11 @@
         <f>'PDE-O&amp;G'!O18</f>
         <v>17520</v>
       </c>
-    </row>
-    <row r="10" spans="1:23">
+      <c r="BI9" s="9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A10" s="33" t="s">
         <v>115</v>
       </c>
@@ -5831,8 +6225,122 @@
       <c r="W10" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:23">
+      <c r="X10" s="15">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="15">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="15">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="15">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="15">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="15">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="15">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="15">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="15">
+        <v>0</v>
+      </c>
+      <c r="AO10" s="15">
+        <v>0</v>
+      </c>
+      <c r="AP10" s="15">
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="15">
+        <v>0</v>
+      </c>
+      <c r="AR10" s="15">
+        <v>0</v>
+      </c>
+      <c r="AS10" s="15">
+        <v>0</v>
+      </c>
+      <c r="AT10" s="15">
+        <v>0</v>
+      </c>
+      <c r="AU10" s="15">
+        <v>0</v>
+      </c>
+      <c r="AV10" s="15">
+        <v>0</v>
+      </c>
+      <c r="AW10" s="15">
+        <v>0</v>
+      </c>
+      <c r="AX10" s="15">
+        <v>0</v>
+      </c>
+      <c r="AY10" s="15">
+        <v>0</v>
+      </c>
+      <c r="AZ10" s="15">
+        <v>0</v>
+      </c>
+      <c r="BA10" s="15">
+        <v>0</v>
+      </c>
+      <c r="BB10" s="15">
+        <v>0</v>
+      </c>
+      <c r="BC10" s="15">
+        <v>0</v>
+      </c>
+      <c r="BD10" s="15">
+        <v>0</v>
+      </c>
+      <c r="BE10" s="15">
+        <v>0</v>
+      </c>
+      <c r="BF10" s="15">
+        <v>0</v>
+      </c>
+      <c r="BG10" s="15">
+        <v>0</v>
+      </c>
+      <c r="BH10" s="15">
+        <v>0</v>
+      </c>
+      <c r="BI10" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:61" x14ac:dyDescent="0.45">
       <c r="C11" s="11" t="s">
         <v>116</v>
       </c>
@@ -5867,7 +6375,7 @@
         <v>50338</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
+    <row r="12" spans="1:61" x14ac:dyDescent="0.45">
       <c r="C12" s="11" t="s">
         <v>117</v>
       </c>
@@ -5902,7 +6410,7 @@
         <v>-26024</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
+    <row r="14" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A14" s="15" t="s">
         <v>118</v>
       </c>
@@ -5951,39 +6459,191 @@
         <v>50.9</v>
       </c>
       <c r="P14" s="15">
-        <f t="shared" ref="P14:W15" si="3">$N14</f>
+        <f t="shared" ref="P14:AE15" si="41">$N14</f>
         <v>50.9</v>
       </c>
       <c r="Q14" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="41"/>
         <v>50.9</v>
       </c>
       <c r="R14" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="41"/>
         <v>50.9</v>
       </c>
       <c r="S14" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="41"/>
         <v>50.9</v>
       </c>
       <c r="T14" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="41"/>
         <v>50.9</v>
       </c>
       <c r="U14" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="41"/>
         <v>50.9</v>
       </c>
       <c r="V14" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="41"/>
         <v>50.9</v>
       </c>
       <c r="W14" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="41"/>
         <v>50.9</v>
       </c>
-    </row>
-    <row r="15" spans="1:23">
+      <c r="X14" s="15">
+        <f t="shared" si="41"/>
+        <v>50.9</v>
+      </c>
+      <c r="Y14" s="15">
+        <f t="shared" si="41"/>
+        <v>50.9</v>
+      </c>
+      <c r="Z14" s="15">
+        <f t="shared" si="41"/>
+        <v>50.9</v>
+      </c>
+      <c r="AA14" s="15">
+        <f t="shared" si="41"/>
+        <v>50.9</v>
+      </c>
+      <c r="AB14" s="15">
+        <f t="shared" si="41"/>
+        <v>50.9</v>
+      </c>
+      <c r="AC14" s="15">
+        <f t="shared" si="41"/>
+        <v>50.9</v>
+      </c>
+      <c r="AD14" s="15">
+        <f t="shared" si="41"/>
+        <v>50.9</v>
+      </c>
+      <c r="AE14" s="15">
+        <f t="shared" si="41"/>
+        <v>50.9</v>
+      </c>
+      <c r="AF14" s="15">
+        <f t="shared" ref="AF14:BI15" si="42">$N14</f>
+        <v>50.9</v>
+      </c>
+      <c r="AG14" s="15">
+        <f t="shared" si="42"/>
+        <v>50.9</v>
+      </c>
+      <c r="AH14" s="15">
+        <f t="shared" si="42"/>
+        <v>50.9</v>
+      </c>
+      <c r="AI14" s="15">
+        <f t="shared" si="42"/>
+        <v>50.9</v>
+      </c>
+      <c r="AJ14" s="15">
+        <f t="shared" si="42"/>
+        <v>50.9</v>
+      </c>
+      <c r="AK14" s="15">
+        <f t="shared" si="42"/>
+        <v>50.9</v>
+      </c>
+      <c r="AL14" s="15">
+        <f t="shared" si="42"/>
+        <v>50.9</v>
+      </c>
+      <c r="AM14" s="15">
+        <f t="shared" si="42"/>
+        <v>50.9</v>
+      </c>
+      <c r="AN14" s="15">
+        <f t="shared" si="42"/>
+        <v>50.9</v>
+      </c>
+      <c r="AO14" s="15">
+        <f t="shared" si="42"/>
+        <v>50.9</v>
+      </c>
+      <c r="AP14" s="15">
+        <f t="shared" si="42"/>
+        <v>50.9</v>
+      </c>
+      <c r="AQ14" s="15">
+        <f t="shared" si="42"/>
+        <v>50.9</v>
+      </c>
+      <c r="AR14" s="15">
+        <f t="shared" si="42"/>
+        <v>50.9</v>
+      </c>
+      <c r="AS14" s="15">
+        <f t="shared" si="42"/>
+        <v>50.9</v>
+      </c>
+      <c r="AT14" s="15">
+        <f t="shared" si="42"/>
+        <v>50.9</v>
+      </c>
+      <c r="AU14" s="15">
+        <f t="shared" si="42"/>
+        <v>50.9</v>
+      </c>
+      <c r="AV14" s="15">
+        <f t="shared" si="42"/>
+        <v>50.9</v>
+      </c>
+      <c r="AW14" s="15">
+        <f t="shared" si="42"/>
+        <v>50.9</v>
+      </c>
+      <c r="AX14" s="15">
+        <f t="shared" si="42"/>
+        <v>50.9</v>
+      </c>
+      <c r="AY14" s="15">
+        <f t="shared" si="42"/>
+        <v>50.9</v>
+      </c>
+      <c r="AZ14" s="15">
+        <f t="shared" si="42"/>
+        <v>50.9</v>
+      </c>
+      <c r="BA14" s="15">
+        <f t="shared" si="42"/>
+        <v>50.9</v>
+      </c>
+      <c r="BB14" s="15">
+        <f t="shared" si="42"/>
+        <v>50.9</v>
+      </c>
+      <c r="BC14" s="15">
+        <f t="shared" si="42"/>
+        <v>50.9</v>
+      </c>
+      <c r="BD14" s="15">
+        <f t="shared" si="42"/>
+        <v>50.9</v>
+      </c>
+      <c r="BE14" s="15">
+        <f t="shared" si="42"/>
+        <v>50.9</v>
+      </c>
+      <c r="BF14" s="15">
+        <f t="shared" si="42"/>
+        <v>50.9</v>
+      </c>
+      <c r="BG14" s="15">
+        <f t="shared" si="42"/>
+        <v>50.9</v>
+      </c>
+      <c r="BH14" s="15">
+        <f t="shared" si="42"/>
+        <v>50.9</v>
+      </c>
+      <c r="BI14" s="15">
+        <f t="shared" si="42"/>
+        <v>50.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A15" s="17">
         <f>137985.406215726</f>
         <v>137985.40621572599</v>
@@ -6029,43 +6689,195 @@
         <v>311.60000000000002</v>
       </c>
       <c r="O15" s="15">
-        <f t="shared" ref="O15" si="4">$N15</f>
+        <f t="shared" ref="O15" si="43">$N15</f>
         <v>311.60000000000002</v>
       </c>
       <c r="P15" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="41"/>
         <v>311.60000000000002</v>
       </c>
       <c r="Q15" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="41"/>
         <v>311.60000000000002</v>
       </c>
       <c r="R15" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="41"/>
         <v>311.60000000000002</v>
       </c>
       <c r="S15" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="41"/>
         <v>311.60000000000002</v>
       </c>
       <c r="T15" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="41"/>
         <v>311.60000000000002</v>
       </c>
       <c r="U15" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="41"/>
         <v>311.60000000000002</v>
       </c>
       <c r="V15" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="41"/>
         <v>311.60000000000002</v>
       </c>
       <c r="W15" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="41"/>
         <v>311.60000000000002</v>
       </c>
-    </row>
-    <row r="16" spans="1:23">
+      <c r="X15" s="15">
+        <f t="shared" si="41"/>
+        <v>311.60000000000002</v>
+      </c>
+      <c r="Y15" s="15">
+        <f t="shared" si="41"/>
+        <v>311.60000000000002</v>
+      </c>
+      <c r="Z15" s="15">
+        <f t="shared" si="41"/>
+        <v>311.60000000000002</v>
+      </c>
+      <c r="AA15" s="15">
+        <f t="shared" si="41"/>
+        <v>311.60000000000002</v>
+      </c>
+      <c r="AB15" s="15">
+        <f t="shared" si="41"/>
+        <v>311.60000000000002</v>
+      </c>
+      <c r="AC15" s="15">
+        <f t="shared" si="41"/>
+        <v>311.60000000000002</v>
+      </c>
+      <c r="AD15" s="15">
+        <f t="shared" si="41"/>
+        <v>311.60000000000002</v>
+      </c>
+      <c r="AE15" s="15">
+        <f t="shared" si="41"/>
+        <v>311.60000000000002</v>
+      </c>
+      <c r="AF15" s="15">
+        <f t="shared" si="42"/>
+        <v>311.60000000000002</v>
+      </c>
+      <c r="AG15" s="15">
+        <f t="shared" si="42"/>
+        <v>311.60000000000002</v>
+      </c>
+      <c r="AH15" s="15">
+        <f t="shared" si="42"/>
+        <v>311.60000000000002</v>
+      </c>
+      <c r="AI15" s="15">
+        <f t="shared" si="42"/>
+        <v>311.60000000000002</v>
+      </c>
+      <c r="AJ15" s="15">
+        <f t="shared" si="42"/>
+        <v>311.60000000000002</v>
+      </c>
+      <c r="AK15" s="15">
+        <f t="shared" si="42"/>
+        <v>311.60000000000002</v>
+      </c>
+      <c r="AL15" s="15">
+        <f t="shared" si="42"/>
+        <v>311.60000000000002</v>
+      </c>
+      <c r="AM15" s="15">
+        <f t="shared" si="42"/>
+        <v>311.60000000000002</v>
+      </c>
+      <c r="AN15" s="15">
+        <f t="shared" si="42"/>
+        <v>311.60000000000002</v>
+      </c>
+      <c r="AO15" s="15">
+        <f t="shared" si="42"/>
+        <v>311.60000000000002</v>
+      </c>
+      <c r="AP15" s="15">
+        <f t="shared" si="42"/>
+        <v>311.60000000000002</v>
+      </c>
+      <c r="AQ15" s="15">
+        <f t="shared" si="42"/>
+        <v>311.60000000000002</v>
+      </c>
+      <c r="AR15" s="15">
+        <f t="shared" si="42"/>
+        <v>311.60000000000002</v>
+      </c>
+      <c r="AS15" s="15">
+        <f t="shared" si="42"/>
+        <v>311.60000000000002</v>
+      </c>
+      <c r="AT15" s="15">
+        <f t="shared" si="42"/>
+        <v>311.60000000000002</v>
+      </c>
+      <c r="AU15" s="15">
+        <f t="shared" si="42"/>
+        <v>311.60000000000002</v>
+      </c>
+      <c r="AV15" s="15">
+        <f t="shared" si="42"/>
+        <v>311.60000000000002</v>
+      </c>
+      <c r="AW15" s="15">
+        <f t="shared" si="42"/>
+        <v>311.60000000000002</v>
+      </c>
+      <c r="AX15" s="15">
+        <f t="shared" si="42"/>
+        <v>311.60000000000002</v>
+      </c>
+      <c r="AY15" s="15">
+        <f t="shared" si="42"/>
+        <v>311.60000000000002</v>
+      </c>
+      <c r="AZ15" s="15">
+        <f t="shared" si="42"/>
+        <v>311.60000000000002</v>
+      </c>
+      <c r="BA15" s="15">
+        <f t="shared" si="42"/>
+        <v>311.60000000000002</v>
+      </c>
+      <c r="BB15" s="15">
+        <f t="shared" si="42"/>
+        <v>311.60000000000002</v>
+      </c>
+      <c r="BC15" s="15">
+        <f t="shared" si="42"/>
+        <v>311.60000000000002</v>
+      </c>
+      <c r="BD15" s="15">
+        <f t="shared" si="42"/>
+        <v>311.60000000000002</v>
+      </c>
+      <c r="BE15" s="15">
+        <f t="shared" si="42"/>
+        <v>311.60000000000002</v>
+      </c>
+      <c r="BF15" s="15">
+        <f t="shared" si="42"/>
+        <v>311.60000000000002</v>
+      </c>
+      <c r="BG15" s="15">
+        <f t="shared" si="42"/>
+        <v>311.60000000000002</v>
+      </c>
+      <c r="BH15" s="15">
+        <f t="shared" si="42"/>
+        <v>311.60000000000002</v>
+      </c>
+      <c r="BI15" s="15">
+        <f t="shared" si="42"/>
+        <v>311.60000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A16" s="33" t="s">
         <v>121</v>
       </c>
@@ -6132,8 +6944,122 @@
       <c r="W16" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:23">
+      <c r="X16" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="9">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="9">
+        <v>0</v>
+      </c>
+      <c r="AL16" s="9">
+        <v>0</v>
+      </c>
+      <c r="AM16" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN16" s="9">
+        <v>0</v>
+      </c>
+      <c r="AO16" s="9">
+        <v>0</v>
+      </c>
+      <c r="AP16" s="9">
+        <v>0</v>
+      </c>
+      <c r="AQ16" s="9">
+        <v>0</v>
+      </c>
+      <c r="AR16" s="9">
+        <v>0</v>
+      </c>
+      <c r="AS16" s="9">
+        <v>0</v>
+      </c>
+      <c r="AT16" s="9">
+        <v>0</v>
+      </c>
+      <c r="AU16" s="9">
+        <v>0</v>
+      </c>
+      <c r="AV16" s="9">
+        <v>0</v>
+      </c>
+      <c r="AW16" s="9">
+        <v>0</v>
+      </c>
+      <c r="AX16" s="9">
+        <v>0</v>
+      </c>
+      <c r="AY16" s="9">
+        <v>0</v>
+      </c>
+      <c r="AZ16" s="9">
+        <v>0</v>
+      </c>
+      <c r="BA16" s="9">
+        <v>0</v>
+      </c>
+      <c r="BB16" s="9">
+        <v>0</v>
+      </c>
+      <c r="BC16" s="9">
+        <v>0</v>
+      </c>
+      <c r="BD16" s="9">
+        <v>0</v>
+      </c>
+      <c r="BE16" s="9">
+        <v>0</v>
+      </c>
+      <c r="BF16" s="9">
+        <v>0</v>
+      </c>
+      <c r="BG16" s="9">
+        <v>0</v>
+      </c>
+      <c r="BH16" s="9">
+        <v>0</v>
+      </c>
+      <c r="BI16" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A17" s="33"/>
       <c r="C17" s="11" t="s">
         <v>122</v>
@@ -6179,7 +7105,7 @@
       <c r="V17" s="15"/>
       <c r="W17" s="15"/>
     </row>
-    <row r="19" spans="1:23">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A19" s="15" t="s">
         <v>123</v>
       </c>
@@ -6190,27 +7116,27 @@
         <v>110</v>
       </c>
       <c r="D19" s="15">
-        <f t="shared" ref="D19:I19" si="5">SUM(D22:D24)</f>
+        <f t="shared" ref="D19:I19" si="44">SUM(D22:D24)</f>
         <v>249890</v>
       </c>
       <c r="E19" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="44"/>
         <v>249326</v>
       </c>
       <c r="F19" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="44"/>
         <v>250149</v>
       </c>
       <c r="G19" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="44"/>
         <v>251168</v>
       </c>
       <c r="H19" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="44"/>
         <v>252605</v>
       </c>
       <c r="I19" s="15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="44"/>
         <v>249228</v>
       </c>
       <c r="J19" s="15">
@@ -6218,59 +7144,59 @@
         <v>254208</v>
       </c>
       <c r="K19" s="15">
-        <f t="shared" ref="K19:W19" si="6">SUM(K22:K24)</f>
+        <f t="shared" ref="K19:W19" si="45">SUM(K22:K24)</f>
         <v>273754</v>
       </c>
       <c r="L19" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="45"/>
         <v>255119</v>
       </c>
       <c r="M19" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="45"/>
         <v>251852</v>
       </c>
       <c r="N19" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="45"/>
         <v>167104.39200000005</v>
       </c>
       <c r="O19" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="45"/>
         <v>177155.78399999999</v>
       </c>
       <c r="P19" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="45"/>
         <v>187207.17600000001</v>
       </c>
       <c r="Q19" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="45"/>
         <v>197258.56799999997</v>
       </c>
       <c r="R19" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="45"/>
         <v>207309.96</v>
       </c>
       <c r="S19" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="45"/>
         <v>217361.35199999998</v>
       </c>
       <c r="T19" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="45"/>
         <v>227412.74399999998</v>
       </c>
       <c r="U19" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="45"/>
         <v>237464.13599999994</v>
       </c>
       <c r="V19" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="45"/>
         <v>247515.52799999993</v>
       </c>
       <c r="W19" s="15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="45"/>
         <v>257566.91999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:23">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A20" s="17">
         <f>8.45*1000000/1000</f>
         <v>8450</v>
@@ -6339,7 +7265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:23">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A21" s="33" t="s">
         <v>112</v>
       </c>
@@ -6407,7 +7333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:23">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A22" s="15" t="s">
         <v>124</v>
       </c>
@@ -6445,7 +7371,7 @@
         <v>88011</v>
       </c>
     </row>
-    <row r="23" spans="1:23">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A23" s="15" t="s">
         <v>17</v>
       </c>
@@ -6523,7 +7449,7 @@
         <v>257566.91999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:23">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A24" s="15" t="s">
         <v>125</v>
       </c>
@@ -6561,7 +7487,7 @@
         <v>6788</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="14.45">
+    <row r="25" spans="1:23" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A25" s="15" t="s">
         <v>126</v>
       </c>
@@ -6573,7 +7499,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="27" spans="1:23">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A27" s="15" t="s">
         <v>128</v>
       </c>
@@ -6654,7 +7580,7 @@
         <v>26565.073548387092</v>
       </c>
     </row>
-    <row r="28" spans="1:23">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A28" s="17">
         <f>30.556*1000000/1000</f>
         <v>30556</v>
@@ -6733,7 +7659,7 @@
         <v>2399.0171792168762</v>
       </c>
     </row>
-    <row r="29" spans="1:23">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A29" s="33" t="s">
         <v>129</v>
       </c>
@@ -6801,7 +7727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:23">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.45">
       <c r="D30" s="15"/>
       <c r="E30" s="15"/>
       <c r="F30" s="15"/>
@@ -6823,7 +7749,7 @@
       <c r="V30" s="15"/>
       <c r="W30" s="15"/>
     </row>
-    <row r="31" spans="1:23">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A31" s="15" t="s">
         <v>130</v>
       </c>
@@ -6904,7 +7830,7 @@
         <v>51392.000000000007</v>
       </c>
     </row>
-    <row r="32" spans="1:23">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A32" s="17">
         <f>33651100/1000</f>
         <v>33651.1</v>
@@ -6983,7 +7909,7 @@
         <v>19433.292607499701</v>
       </c>
     </row>
-    <row r="33" spans="1:24">
+    <row r="33" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A33" s="33" t="s">
         <v>129</v>
       </c>
@@ -7051,7 +7977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:24">
+    <row r="34" spans="1:61" x14ac:dyDescent="0.45">
       <c r="D34" s="15"/>
       <c r="E34" s="15"/>
       <c r="F34" s="15"/>
@@ -7073,7 +7999,7 @@
       <c r="V34" s="15"/>
       <c r="W34" s="15"/>
     </row>
-    <row r="35" spans="1:24">
+    <row r="35" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A35" s="15" t="s">
         <v>131</v>
       </c>
@@ -7154,7 +8080,7 @@
         <v>47146.999780717277</v>
       </c>
     </row>
-    <row r="36" spans="1:24">
+    <row r="36" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A36" s="17">
         <f>21552100/1000</f>
         <v>21552.1</v>
@@ -7233,7 +8159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:24">
+    <row r="37" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A37" s="33" t="s">
         <v>129</v>
       </c>
@@ -7301,7 +8227,7 @@
         <v>-48550.104184696655</v>
       </c>
     </row>
-    <row r="38" spans="1:24">
+    <row r="38" spans="1:61" x14ac:dyDescent="0.45">
       <c r="D38" s="15"/>
       <c r="E38" s="15"/>
       <c r="F38" s="15"/>
@@ -7323,7 +8249,7 @@
       <c r="V38" s="15"/>
       <c r="W38" s="15"/>
     </row>
-    <row r="39" spans="1:24">
+    <row r="39" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A39" s="15" t="s">
         <v>132</v>
       </c>
@@ -7404,7 +8330,7 @@
         <v>14450.875000000004</v>
       </c>
     </row>
-    <row r="40" spans="1:24">
+    <row r="40" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A40" s="33">
         <f>29252892.5581395/1000</f>
         <v>29252.892558139498</v>
@@ -7473,7 +8399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:24">
+    <row r="41" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A41" s="33" t="s">
         <v>129</v>
       </c>
@@ -7541,7 +8467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:24">
+    <row r="43" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A43" s="15" t="s">
         <v>133</v>
       </c>
@@ -7632,7 +8558,7 @@
         <v>5622.0845070422547</v>
       </c>
     </row>
-    <row r="44" spans="1:24" ht="14.45">
+    <row r="44" spans="1:61" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A44" s="15" t="s">
         <v>135</v>
       </c>
@@ -7648,39 +8574,39 @@
         <v>1424</v>
       </c>
       <c r="E44" s="15">
-        <f t="shared" ref="E44:M44" si="7">E46+E45-E43</f>
+        <f t="shared" ref="E44:M44" si="46">E46+E45-E43</f>
         <v>1159</v>
       </c>
       <c r="F44" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="46"/>
         <v>1398</v>
       </c>
       <c r="G44" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="46"/>
         <v>833</v>
       </c>
       <c r="H44" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="46"/>
         <v>557</v>
       </c>
       <c r="I44" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="46"/>
         <v>947</v>
       </c>
       <c r="J44" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="46"/>
         <v>790</v>
       </c>
       <c r="K44" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="46"/>
         <v>317</v>
       </c>
       <c r="L44" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="46"/>
         <v>249</v>
       </c>
       <c r="M44" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="46"/>
         <v>841</v>
       </c>
       <c r="N44" s="15">
@@ -7725,7 +8651,7 @@
       </c>
       <c r="X44" s="19"/>
     </row>
-    <row r="45" spans="1:24">
+    <row r="45" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A45" s="15" t="s">
         <v>136</v>
       </c>
@@ -7815,8 +8741,122 @@
         <f>'PDE-O&amp;G'!O48</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:24">
+      <c r="X45" s="9">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="9">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="9">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="9">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="9">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="9">
+        <v>0</v>
+      </c>
+      <c r="AE45" s="9">
+        <v>0</v>
+      </c>
+      <c r="AF45" s="9">
+        <v>0</v>
+      </c>
+      <c r="AG45" s="9">
+        <v>0</v>
+      </c>
+      <c r="AH45" s="9">
+        <v>0</v>
+      </c>
+      <c r="AI45" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ45" s="9">
+        <v>0</v>
+      </c>
+      <c r="AK45" s="9">
+        <v>0</v>
+      </c>
+      <c r="AL45" s="9">
+        <v>0</v>
+      </c>
+      <c r="AM45" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN45" s="9">
+        <v>0</v>
+      </c>
+      <c r="AO45" s="9">
+        <v>0</v>
+      </c>
+      <c r="AP45" s="9">
+        <v>0</v>
+      </c>
+      <c r="AQ45" s="9">
+        <v>0</v>
+      </c>
+      <c r="AR45" s="9">
+        <v>0</v>
+      </c>
+      <c r="AS45" s="9">
+        <v>0</v>
+      </c>
+      <c r="AT45" s="9">
+        <v>0</v>
+      </c>
+      <c r="AU45" s="9">
+        <v>0</v>
+      </c>
+      <c r="AV45" s="9">
+        <v>0</v>
+      </c>
+      <c r="AW45" s="9">
+        <v>0</v>
+      </c>
+      <c r="AX45" s="9">
+        <v>0</v>
+      </c>
+      <c r="AY45" s="9">
+        <v>0</v>
+      </c>
+      <c r="AZ45" s="9">
+        <v>0</v>
+      </c>
+      <c r="BA45" s="9">
+        <v>0</v>
+      </c>
+      <c r="BB45" s="9">
+        <v>0</v>
+      </c>
+      <c r="BC45" s="9">
+        <v>0</v>
+      </c>
+      <c r="BD45" s="9">
+        <v>0</v>
+      </c>
+      <c r="BE45" s="9">
+        <v>0</v>
+      </c>
+      <c r="BF45" s="9">
+        <v>0</v>
+      </c>
+      <c r="BG45" s="9">
+        <v>0</v>
+      </c>
+      <c r="BH45" s="9">
+        <v>0</v>
+      </c>
+      <c r="BI45" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A46" s="15" t="s">
         <v>138</v>
       </c>
@@ -7894,7 +8934,7 @@
         <v>7500.7499999999991</v>
       </c>
     </row>
-    <row r="47" spans="1:24">
+    <row r="47" spans="1:61" x14ac:dyDescent="0.45">
       <c r="D47" s="15"/>
       <c r="E47" s="15"/>
       <c r="F47" s="15"/>
@@ -7906,7 +8946,7 @@
       <c r="L47" s="15"/>
       <c r="M47" s="15"/>
     </row>
-    <row r="48" spans="1:24">
+    <row r="48" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A48" s="17"/>
       <c r="B48" s="16"/>
       <c r="D48" s="15"/>
@@ -7920,7 +8960,7 @@
       <c r="L48" s="15"/>
       <c r="M48" s="15"/>
     </row>
-    <row r="49" spans="1:23">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A49" s="15" t="s">
         <v>140</v>
       </c>
@@ -7969,39 +9009,39 @@
         <v>5555.833333333333</v>
       </c>
       <c r="P49" s="15">
-        <f t="shared" ref="P49:W49" si="8">$N49</f>
+        <f t="shared" ref="P49:W49" si="47">$N49</f>
         <v>5555.833333333333</v>
       </c>
       <c r="Q49" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="47"/>
         <v>5555.833333333333</v>
       </c>
       <c r="R49" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="47"/>
         <v>5555.833333333333</v>
       </c>
       <c r="S49" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="47"/>
         <v>5555.833333333333</v>
       </c>
       <c r="T49" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="47"/>
         <v>5555.833333333333</v>
       </c>
       <c r="U49" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="47"/>
         <v>5555.833333333333</v>
       </c>
       <c r="V49" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="47"/>
         <v>5555.833333333333</v>
       </c>
       <c r="W49" s="15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="47"/>
         <v>5555.833333333333</v>
       </c>
     </row>
-    <row r="50" spans="1:23">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A50" s="17">
         <f>23.86*1000000/1000</f>
         <v>23860</v>
@@ -8048,39 +9088,39 @@
         <v>8370.1666666666661</v>
       </c>
       <c r="P50" s="15">
-        <f t="shared" ref="P50:W50" si="9">$N50</f>
+        <f t="shared" ref="P50:W50" si="48">$N50</f>
         <v>8370.1666666666661</v>
       </c>
       <c r="Q50" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="48"/>
         <v>8370.1666666666661</v>
       </c>
       <c r="R50" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="48"/>
         <v>8370.1666666666661</v>
       </c>
       <c r="S50" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="48"/>
         <v>8370.1666666666661</v>
       </c>
       <c r="T50" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="48"/>
         <v>8370.1666666666661</v>
       </c>
       <c r="U50" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="48"/>
         <v>8370.1666666666661</v>
       </c>
       <c r="V50" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="48"/>
         <v>8370.1666666666661</v>
       </c>
       <c r="W50" s="15">
-        <f t="shared" si="9"/>
+        <f t="shared" si="48"/>
         <v>8370.1666666666661</v>
       </c>
     </row>
-    <row r="51" spans="1:23">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A51" s="33" t="s">
         <v>112</v>
       </c>
@@ -8151,7 +9191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:23">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A53" s="15" t="s">
         <v>142</v>
       </c>
@@ -8232,7 +9272,7 @@
         <v>286700.6333333333</v>
       </c>
     </row>
-    <row r="54" spans="1:23">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A54" s="17">
         <f>35.318*1000000/1000</f>
         <v>35318</v>
@@ -8311,7 +9351,7 @@
         <v>10488.849557522126</v>
       </c>
     </row>
-    <row r="55" spans="1:23">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A55" s="33" t="s">
         <v>129</v>
       </c>
@@ -8379,7 +9419,7 @@
         <v>0.61250000000000004</v>
       </c>
     </row>
-    <row r="56" spans="1:23">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.45">
       <c r="D56" s="15"/>
       <c r="E56" s="15"/>
       <c r="F56" s="15"/>
@@ -8401,7 +9441,7 @@
       <c r="V56" s="15"/>
       <c r="W56" s="15"/>
     </row>
-    <row r="57" spans="1:23">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A57" s="15" t="s">
         <v>145</v>
       </c>
@@ -8482,7 +9522,7 @@
         <v>16151.25</v>
       </c>
     </row>
-    <row r="58" spans="1:23">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A58" s="17">
         <f>37.977*1000000/1000</f>
         <v>37977</v>
@@ -8551,7 +9591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:23">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A59" s="33" t="s">
         <v>129</v>
       </c>
@@ -8619,7 +9659,7 @@
         <v>-26</v>
       </c>
     </row>
-    <row r="60" spans="1:23">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.45">
       <c r="D60" s="15"/>
       <c r="E60" s="15"/>
       <c r="F60" s="15"/>
@@ -8641,7 +9681,7 @@
       <c r="V60" s="15"/>
       <c r="W60" s="15"/>
     </row>
-    <row r="61" spans="1:23">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A61" s="15" t="s">
         <v>146</v>
       </c>
@@ -8722,7 +9762,7 @@
         <v>15658.5</v>
       </c>
     </row>
-    <row r="62" spans="1:23">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A62" s="17">
         <f>25.58*1000000/1000</f>
         <v>25580</v>
@@ -8801,7 +9841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:23">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A63" s="33" t="s">
         <v>129</v>
       </c>
@@ -8869,7 +9909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:23">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.45">
       <c r="D64" s="15"/>
       <c r="E64" s="15"/>
       <c r="F64" s="15"/>
@@ -8891,7 +9931,7 @@
       <c r="V64" s="15"/>
       <c r="W64" s="15"/>
     </row>
-    <row r="65" spans="1:23">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A65" s="15" t="s">
         <v>61</v>
       </c>
@@ -8956,7 +9996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:23">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.45">
       <c r="A66" s="15" t="s">
         <v>147</v>
       </c>
@@ -9032,17 +10072,19 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AH22"/>
+  <dimension ref="A1:BA22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
+      <selection activeCell="AW24" sqref="AW24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" customWidth="1"/>
+    <col min="1" max="1" width="36.265625" customWidth="1"/>
     <col min="2" max="35" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>148</v>
       </c>
@@ -9142,9 +10184,68 @@
       <c r="AG1">
         <v>2050</v>
       </c>
-      <c r="AH1" s="5"/>
-    </row>
-    <row r="2" spans="1:34">
+      <c r="AH1" s="5">
+        <v>2051</v>
+      </c>
+      <c r="AI1">
+        <v>2052</v>
+      </c>
+      <c r="AJ1" s="5">
+        <v>2053</v>
+      </c>
+      <c r="AK1">
+        <v>2054</v>
+      </c>
+      <c r="AL1" s="5">
+        <v>2055</v>
+      </c>
+      <c r="AM1">
+        <v>2056</v>
+      </c>
+      <c r="AN1" s="5">
+        <v>2057</v>
+      </c>
+      <c r="AO1">
+        <v>2058</v>
+      </c>
+      <c r="AP1" s="5">
+        <v>2059</v>
+      </c>
+      <c r="AQ1">
+        <v>2060</v>
+      </c>
+      <c r="AR1" s="5">
+        <v>2061</v>
+      </c>
+      <c r="AS1">
+        <v>2062</v>
+      </c>
+      <c r="AT1" s="5">
+        <v>2063</v>
+      </c>
+      <c r="AU1">
+        <v>2064</v>
+      </c>
+      <c r="AV1" s="5">
+        <v>2065</v>
+      </c>
+      <c r="AW1">
+        <v>2066</v>
+      </c>
+      <c r="AX1" s="5">
+        <v>2067</v>
+      </c>
+      <c r="AY1">
+        <v>2068</v>
+      </c>
+      <c r="AZ1" s="5">
+        <v>2069</v>
+      </c>
+      <c r="BA1">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="2" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A2" s="6" t="s">
         <v>149</v>
       </c>
@@ -9244,8 +10345,68 @@
       <c r="AG2" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:34">
+      <c r="AH2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AO2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AQ2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AR2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AS2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AT2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AU2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AV2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AW2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AX2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AY2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AZ2" s="7">
+        <v>0</v>
+      </c>
+      <c r="BA2" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>55</v>
       </c>
@@ -9377,8 +10538,88 @@
         <f>BEN!$A$5*BEN!AO4</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:34">
+      <c r="AH3" s="7">
+        <f>BEN!$A$5*BEN!AP4</f>
+        <v>0</v>
+      </c>
+      <c r="AI3" s="7">
+        <f>BEN!$A$5*BEN!AQ4</f>
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="7">
+        <f>BEN!$A$5*BEN!AR4</f>
+        <v>0</v>
+      </c>
+      <c r="AK3" s="7">
+        <f>BEN!$A$5*BEN!AS4</f>
+        <v>0</v>
+      </c>
+      <c r="AL3" s="7">
+        <f>BEN!$A$5*BEN!AT4</f>
+        <v>0</v>
+      </c>
+      <c r="AM3" s="7">
+        <f>BEN!$A$5*BEN!AU4</f>
+        <v>0</v>
+      </c>
+      <c r="AN3" s="7">
+        <f>BEN!$A$5*BEN!AV4</f>
+        <v>0</v>
+      </c>
+      <c r="AO3" s="7">
+        <f>BEN!$A$5*BEN!AW4</f>
+        <v>0</v>
+      </c>
+      <c r="AP3" s="7">
+        <f>BEN!$A$5*BEN!AX4</f>
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="7">
+        <f>BEN!$A$5*BEN!AY4</f>
+        <v>0</v>
+      </c>
+      <c r="AR3" s="7">
+        <f>BEN!$A$5*BEN!AZ4</f>
+        <v>0</v>
+      </c>
+      <c r="AS3" s="7">
+        <f>BEN!$A$5*BEN!BA4</f>
+        <v>0</v>
+      </c>
+      <c r="AT3" s="7">
+        <f>BEN!$A$5*BEN!BB4</f>
+        <v>0</v>
+      </c>
+      <c r="AU3" s="7">
+        <f>BEN!$A$5*BEN!BC4</f>
+        <v>0</v>
+      </c>
+      <c r="AV3" s="7">
+        <f>BEN!$A$5*BEN!BD4</f>
+        <v>0</v>
+      </c>
+      <c r="AW3" s="7">
+        <f>BEN!$A$5*BEN!BE4</f>
+        <v>0</v>
+      </c>
+      <c r="AX3" s="7">
+        <f>BEN!$A$5*BEN!BF4</f>
+        <v>0</v>
+      </c>
+      <c r="AY3" s="7">
+        <f>BEN!$A$5*BEN!BG4</f>
+        <v>0</v>
+      </c>
+      <c r="AZ3" s="7">
+        <f>BEN!$A$5*BEN!BH4</f>
+        <v>0</v>
+      </c>
+      <c r="BA3" s="7">
+        <f>BEN!$A$5*BEN!BI4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -9511,7 +10752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>57</v>
       </c>
@@ -9573,78 +10814,158 @@
       </c>
       <c r="P5" s="7">
         <f>BEN!$A$15*BEN!X14</f>
-        <v>0</v>
+        <v>7023457.1763804527</v>
       </c>
       <c r="Q5" s="7">
         <f>BEN!$A$15*BEN!Y14</f>
-        <v>0</v>
+        <v>7023457.1763804527</v>
       </c>
       <c r="R5" s="7">
         <f>BEN!$A$15*BEN!Z14</f>
-        <v>0</v>
+        <v>7023457.1763804527</v>
       </c>
       <c r="S5" s="7">
         <f>BEN!$A$15*BEN!AA14</f>
-        <v>0</v>
+        <v>7023457.1763804527</v>
       </c>
       <c r="T5" s="7">
         <f>BEN!$A$15*BEN!AB14</f>
-        <v>0</v>
+        <v>7023457.1763804527</v>
       </c>
       <c r="U5" s="7">
         <f>BEN!$A$15*BEN!AC14</f>
-        <v>0</v>
+        <v>7023457.1763804527</v>
       </c>
       <c r="V5" s="7">
         <f>BEN!$A$15*BEN!AD14</f>
-        <v>0</v>
+        <v>7023457.1763804527</v>
       </c>
       <c r="W5" s="7">
         <f>BEN!$A$15*BEN!AE14</f>
-        <v>0</v>
+        <v>7023457.1763804527</v>
       </c>
       <c r="X5" s="7">
         <f>BEN!$A$15*BEN!AF14</f>
-        <v>0</v>
+        <v>7023457.1763804527</v>
       </c>
       <c r="Y5" s="7">
         <f>BEN!$A$15*BEN!AG14</f>
-        <v>0</v>
+        <v>7023457.1763804527</v>
       </c>
       <c r="Z5" s="7">
         <f>BEN!$A$15*BEN!AH14</f>
-        <v>0</v>
+        <v>7023457.1763804527</v>
       </c>
       <c r="AA5" s="7">
         <f>BEN!$A$15*BEN!AI14</f>
-        <v>0</v>
+        <v>7023457.1763804527</v>
       </c>
       <c r="AB5" s="7">
         <f>BEN!$A$15*BEN!AJ14</f>
-        <v>0</v>
+        <v>7023457.1763804527</v>
       </c>
       <c r="AC5" s="7">
         <f>BEN!$A$15*BEN!AK14</f>
-        <v>0</v>
+        <v>7023457.1763804527</v>
       </c>
       <c r="AD5" s="7">
         <f>BEN!$A$15*BEN!AL14</f>
-        <v>0</v>
+        <v>7023457.1763804527</v>
       </c>
       <c r="AE5" s="7">
         <f>BEN!$A$15*BEN!AM14</f>
-        <v>0</v>
+        <v>7023457.1763804527</v>
       </c>
       <c r="AF5" s="7">
         <f>BEN!$A$15*BEN!AN14</f>
-        <v>0</v>
+        <v>7023457.1763804527</v>
       </c>
       <c r="AG5" s="7">
         <f>BEN!$A$15*BEN!AO14</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34">
+        <v>7023457.1763804527</v>
+      </c>
+      <c r="AH5" s="7">
+        <f>BEN!$A$15*BEN!AP14</f>
+        <v>7023457.1763804527</v>
+      </c>
+      <c r="AI5" s="7">
+        <f>BEN!$A$15*BEN!AQ14</f>
+        <v>7023457.1763804527</v>
+      </c>
+      <c r="AJ5" s="7">
+        <f>BEN!$A$15*BEN!AR14</f>
+        <v>7023457.1763804527</v>
+      </c>
+      <c r="AK5" s="7">
+        <f>BEN!$A$15*BEN!AS14</f>
+        <v>7023457.1763804527</v>
+      </c>
+      <c r="AL5" s="7">
+        <f>BEN!$A$15*BEN!AT14</f>
+        <v>7023457.1763804527</v>
+      </c>
+      <c r="AM5" s="7">
+        <f>BEN!$A$15*BEN!AU14</f>
+        <v>7023457.1763804527</v>
+      </c>
+      <c r="AN5" s="7">
+        <f>BEN!$A$15*BEN!AV14</f>
+        <v>7023457.1763804527</v>
+      </c>
+      <c r="AO5" s="7">
+        <f>BEN!$A$15*BEN!AW14</f>
+        <v>7023457.1763804527</v>
+      </c>
+      <c r="AP5" s="7">
+        <f>BEN!$A$15*BEN!AX14</f>
+        <v>7023457.1763804527</v>
+      </c>
+      <c r="AQ5" s="7">
+        <f>BEN!$A$15*BEN!AY14</f>
+        <v>7023457.1763804527</v>
+      </c>
+      <c r="AR5" s="7">
+        <f>BEN!$A$15*BEN!AZ14</f>
+        <v>7023457.1763804527</v>
+      </c>
+      <c r="AS5" s="7">
+        <f>BEN!$A$15*BEN!BA14</f>
+        <v>7023457.1763804527</v>
+      </c>
+      <c r="AT5" s="7">
+        <f>BEN!$A$15*BEN!BB14</f>
+        <v>7023457.1763804527</v>
+      </c>
+      <c r="AU5" s="7">
+        <f>BEN!$A$15*BEN!BC14</f>
+        <v>7023457.1763804527</v>
+      </c>
+      <c r="AV5" s="7">
+        <f>BEN!$A$15*BEN!BD14</f>
+        <v>7023457.1763804527</v>
+      </c>
+      <c r="AW5" s="7">
+        <f>BEN!$A$15*BEN!BE14</f>
+        <v>7023457.1763804527</v>
+      </c>
+      <c r="AX5" s="7">
+        <f>BEN!$A$15*BEN!BF14</f>
+        <v>7023457.1763804527</v>
+      </c>
+      <c r="AY5" s="7">
+        <f>BEN!$A$15*BEN!BG14</f>
+        <v>7023457.1763804527</v>
+      </c>
+      <c r="AZ5" s="7">
+        <f>BEN!$A$15*BEN!BH14</f>
+        <v>7023457.1763804527</v>
+      </c>
+      <c r="BA5" s="7">
+        <f>BEN!$A$15*BEN!BI14</f>
+        <v>7023457.1763804527</v>
+      </c>
+    </row>
+    <row r="6" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>150</v>
       </c>
@@ -9744,8 +11065,68 @@
       <c r="AG6" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:34">
+      <c r="AH6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AS6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AT6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AU6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AV6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AW6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AX6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AY6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AZ6" s="7">
+        <v>0</v>
+      </c>
+      <c r="BA6" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>151</v>
       </c>
@@ -9845,8 +11226,68 @@
       <c r="AG7" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:34">
+      <c r="AH7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AU7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AV7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AX7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AY7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AZ7" s="7">
+        <v>0</v>
+      </c>
+      <c r="BA7" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>152</v>
       </c>
@@ -9946,8 +11387,68 @@
       <c r="AG8" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:34">
+      <c r="AH8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AU8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AV8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AW8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AX8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AY8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AZ8" s="7">
+        <v>0</v>
+      </c>
+      <c r="BA8" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -10080,7 +11581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -10213,7 +11714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -10346,7 +11847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -10479,7 +11980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -10612,7 +12113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>153</v>
       </c>
@@ -10745,271 +12246,329 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>154</v>
       </c>
       <c r="B15" s="7">
         <v>0</v>
       </c>
-      <c r="C15" s="7" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D15" s="7" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E15" s="7" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F15" s="7" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G15" s="7" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H15" s="7" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I15" s="7" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J15" s="7" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K15" s="7" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L15" s="7" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M15" s="7" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N15" s="7" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O15" s="7" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P15" s="7" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q15" s="7" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="R15" s="7" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="S15" s="7" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="T15" s="7" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U15" s="7" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V15" s="7" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="W15" s="7" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="X15" s="7" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Y15" s="7" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Z15" s="7" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AA15" s="7" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AB15" s="7" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AC15" s="7" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AD15" s="7" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AE15" s="7" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AF15" s="7" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AG15" s="7" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:34">
+      <c r="C15" s="7">
+        <v>0</v>
+      </c>
+      <c r="D15" s="7">
+        <v>0</v>
+      </c>
+      <c r="E15" s="7">
+        <v>0</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0</v>
+      </c>
+      <c r="G15" s="7">
+        <v>0</v>
+      </c>
+      <c r="H15" s="7">
+        <v>0</v>
+      </c>
+      <c r="I15" s="7">
+        <v>0</v>
+      </c>
+      <c r="J15" s="7">
+        <v>0</v>
+      </c>
+      <c r="K15" s="7">
+        <v>0</v>
+      </c>
+      <c r="L15" s="7">
+        <v>0</v>
+      </c>
+      <c r="M15" s="7">
+        <v>0</v>
+      </c>
+      <c r="N15" s="7">
+        <v>0</v>
+      </c>
+      <c r="O15" s="7">
+        <v>0</v>
+      </c>
+      <c r="P15" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="7">
+        <v>0</v>
+      </c>
+      <c r="R15" s="7">
+        <v>0</v>
+      </c>
+      <c r="S15" s="7">
+        <v>0</v>
+      </c>
+      <c r="T15" s="7">
+        <v>0</v>
+      </c>
+      <c r="U15" s="7">
+        <v>0</v>
+      </c>
+      <c r="V15" s="7">
+        <v>0</v>
+      </c>
+      <c r="W15" s="7">
+        <v>0</v>
+      </c>
+      <c r="X15" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AO15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AQ15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AR15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AS15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AT15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AU15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AV15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AW15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AX15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AY15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AZ15" s="7">
+        <v>0</v>
+      </c>
+      <c r="BA15" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B16" s="7">
         <v>0</v>
       </c>
-      <c r="C16" s="7" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D16" s="7" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E16" s="7" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F16" s="7" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G16" s="7" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H16" s="7" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I16" s="7" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J16" s="7" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K16" s="7" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L16" s="7" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M16" s="7" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="N16" s="7" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="O16" s="7" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="P16" s="7" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Q16" s="7" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="R16" s="7" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="S16" s="7" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="T16" s="7" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="U16" s="7" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="V16" s="7" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="W16" s="7" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="X16" s="7" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Y16" s="7" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="Z16" s="7" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AA16" s="7" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AB16" s="7" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AC16" s="7" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AD16" s="7" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AE16" s="7" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AF16" s="7" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="AG16" s="7" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="17" spans="1:33">
+      <c r="C16" s="7">
+        <v>0</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0</v>
+      </c>
+      <c r="E16" s="7">
+        <v>0</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0</v>
+      </c>
+      <c r="G16" s="7">
+        <v>0</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7">
+        <v>0</v>
+      </c>
+      <c r="K16" s="7">
+        <v>0</v>
+      </c>
+      <c r="L16" s="7">
+        <v>0</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7">
+        <v>0</v>
+      </c>
+      <c r="P16" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="7">
+        <v>0</v>
+      </c>
+      <c r="R16" s="7">
+        <v>0</v>
+      </c>
+      <c r="S16" s="7">
+        <v>0</v>
+      </c>
+      <c r="T16" s="7">
+        <v>0</v>
+      </c>
+      <c r="U16" s="7">
+        <v>0</v>
+      </c>
+      <c r="V16" s="7">
+        <v>0</v>
+      </c>
+      <c r="W16" s="7">
+        <v>0</v>
+      </c>
+      <c r="X16" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AO16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AQ16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AR16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AS16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AT16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AU16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AV16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AW16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AX16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AY16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AZ16" s="7">
+        <v>0</v>
+      </c>
+      <c r="BA16" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>59</v>
       </c>
@@ -11142,7 +12701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:33">
+    <row r="18" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>25</v>
       </c>
@@ -11275,7 +12834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:33">
+    <row r="19" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>26</v>
       </c>
@@ -11408,7 +12967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:33">
+    <row r="20" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>27</v>
       </c>
@@ -11541,7 +13100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:33">
+    <row r="21" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>156</v>
       </c>
@@ -11673,8 +13232,88 @@
         <f>BEN!AO65</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:33">
+      <c r="AH21" s="7">
+        <f>BEN!AP65</f>
+        <v>0</v>
+      </c>
+      <c r="AI21" s="7">
+        <f>BEN!AQ65</f>
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="7">
+        <f>BEN!AR65</f>
+        <v>0</v>
+      </c>
+      <c r="AK21" s="7">
+        <f>BEN!AS65</f>
+        <v>0</v>
+      </c>
+      <c r="AL21" s="7">
+        <f>BEN!AT65</f>
+        <v>0</v>
+      </c>
+      <c r="AM21" s="7">
+        <f>BEN!AU65</f>
+        <v>0</v>
+      </c>
+      <c r="AN21" s="7">
+        <f>BEN!AV65</f>
+        <v>0</v>
+      </c>
+      <c r="AO21" s="7">
+        <f>BEN!AW65</f>
+        <v>0</v>
+      </c>
+      <c r="AP21" s="7">
+        <f>BEN!AX65</f>
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="7">
+        <f>BEN!AY65</f>
+        <v>0</v>
+      </c>
+      <c r="AR21" s="7">
+        <f>BEN!AZ65</f>
+        <v>0</v>
+      </c>
+      <c r="AS21" s="7">
+        <f>BEN!BA65</f>
+        <v>0</v>
+      </c>
+      <c r="AT21" s="7">
+        <f>BEN!BB65</f>
+        <v>0</v>
+      </c>
+      <c r="AU21" s="7">
+        <f>BEN!BC65</f>
+        <v>0</v>
+      </c>
+      <c r="AV21" s="7">
+        <f>BEN!BD65</f>
+        <v>0</v>
+      </c>
+      <c r="AW21" s="7">
+        <f>BEN!BE65</f>
+        <v>0</v>
+      </c>
+      <c r="AX21" s="7">
+        <f>BEN!BF65</f>
+        <v>0</v>
+      </c>
+      <c r="AY21" s="7">
+        <f>BEN!BG65</f>
+        <v>0</v>
+      </c>
+      <c r="AZ21" s="7">
+        <f>BEN!BH65</f>
+        <v>0</v>
+      </c>
+      <c r="BA21" s="7">
+        <f>BEN!BI65</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>63</v>
       </c>
@@ -11804,6 +13443,86 @@
       </c>
       <c r="AG22" s="7">
         <f>BEN!AO66</f>
+        <v>0</v>
+      </c>
+      <c r="AH22" s="7">
+        <f>BEN!AP66</f>
+        <v>0</v>
+      </c>
+      <c r="AI22" s="7">
+        <f>BEN!AQ66</f>
+        <v>0</v>
+      </c>
+      <c r="AJ22" s="7">
+        <f>BEN!AR66</f>
+        <v>0</v>
+      </c>
+      <c r="AK22" s="7">
+        <f>BEN!AS66</f>
+        <v>0</v>
+      </c>
+      <c r="AL22" s="7">
+        <f>BEN!AT66</f>
+        <v>0</v>
+      </c>
+      <c r="AM22" s="7">
+        <f>BEN!AU66</f>
+        <v>0</v>
+      </c>
+      <c r="AN22" s="7">
+        <f>BEN!AV66</f>
+        <v>0</v>
+      </c>
+      <c r="AO22" s="7">
+        <f>BEN!AW66</f>
+        <v>0</v>
+      </c>
+      <c r="AP22" s="7">
+        <f>BEN!AX66</f>
+        <v>0</v>
+      </c>
+      <c r="AQ22" s="7">
+        <f>BEN!AY66</f>
+        <v>0</v>
+      </c>
+      <c r="AR22" s="7">
+        <f>BEN!AZ66</f>
+        <v>0</v>
+      </c>
+      <c r="AS22" s="7">
+        <f>BEN!BA66</f>
+        <v>0</v>
+      </c>
+      <c r="AT22" s="7">
+        <f>BEN!BB66</f>
+        <v>0</v>
+      </c>
+      <c r="AU22" s="7">
+        <f>BEN!BC66</f>
+        <v>0</v>
+      </c>
+      <c r="AV22" s="7">
+        <f>BEN!BD66</f>
+        <v>0</v>
+      </c>
+      <c r="AW22" s="7">
+        <f>BEN!BE66</f>
+        <v>0</v>
+      </c>
+      <c r="AX22" s="7">
+        <f>BEN!BF66</f>
+        <v>0</v>
+      </c>
+      <c r="AY22" s="7">
+        <f>BEN!BG66</f>
+        <v>0</v>
+      </c>
+      <c r="AZ22" s="7">
+        <f>BEN!BH66</f>
+        <v>0</v>
+      </c>
+      <c r="BA22" s="7">
+        <f>BEN!BI66</f>
         <v>0</v>
       </c>
     </row>
@@ -11818,19 +13537,36 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AH22"/>
+  <dimension ref="A1:BA22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:AG22"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="AZ25" sqref="AZ25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" customWidth="1"/>
+    <col min="1" max="1" width="36.265625" customWidth="1"/>
     <col min="2" max="35" width="13" customWidth="1"/>
+    <col min="36" max="36" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11.06640625" customWidth="1"/>
+    <col min="38" max="38" width="10.46484375" customWidth="1"/>
+    <col min="39" max="39" width="10.9296875" customWidth="1"/>
+    <col min="40" max="40" width="10.265625" customWidth="1"/>
+    <col min="41" max="41" width="10.53125" customWidth="1"/>
+    <col min="42" max="42" width="10.73046875" customWidth="1"/>
+    <col min="43" max="43" width="9.9296875" customWidth="1"/>
+    <col min="44" max="44" width="9.73046875" customWidth="1"/>
+    <col min="45" max="45" width="9.9296875" customWidth="1"/>
+    <col min="46" max="46" width="10.33203125" customWidth="1"/>
+    <col min="47" max="47" width="9.73046875" customWidth="1"/>
+    <col min="48" max="48" width="10.06640625" customWidth="1"/>
+    <col min="49" max="50" width="9.9296875" customWidth="1"/>
+    <col min="51" max="51" width="10" customWidth="1"/>
+    <col min="52" max="52" width="10.86328125" customWidth="1"/>
+    <col min="53" max="53" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>148</v>
       </c>
@@ -11930,9 +13666,68 @@
       <c r="AG1">
         <v>2050</v>
       </c>
-      <c r="AH1" s="5"/>
-    </row>
-    <row r="2" spans="1:34">
+      <c r="AH1" s="5">
+        <v>2051</v>
+      </c>
+      <c r="AI1">
+        <v>2052</v>
+      </c>
+      <c r="AJ1" s="5">
+        <v>2053</v>
+      </c>
+      <c r="AK1">
+        <v>2054</v>
+      </c>
+      <c r="AL1" s="5">
+        <v>2055</v>
+      </c>
+      <c r="AM1">
+        <v>2056</v>
+      </c>
+      <c r="AN1" s="5">
+        <v>2057</v>
+      </c>
+      <c r="AO1">
+        <v>2058</v>
+      </c>
+      <c r="AP1" s="5">
+        <v>2059</v>
+      </c>
+      <c r="AQ1">
+        <v>2060</v>
+      </c>
+      <c r="AR1" s="5">
+        <v>2061</v>
+      </c>
+      <c r="AS1">
+        <v>2062</v>
+      </c>
+      <c r="AT1" s="5">
+        <v>2063</v>
+      </c>
+      <c r="AU1">
+        <v>2064</v>
+      </c>
+      <c r="AV1" s="5">
+        <v>2065</v>
+      </c>
+      <c r="AW1">
+        <v>2066</v>
+      </c>
+      <c r="AX1" s="5">
+        <v>2067</v>
+      </c>
+      <c r="AY1">
+        <v>2068</v>
+      </c>
+      <c r="AZ1" s="5">
+        <v>2069</v>
+      </c>
+      <c r="BA1" s="5">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="2" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A2" s="6" t="s">
         <v>149</v>
       </c>
@@ -12032,8 +13827,68 @@
       <c r="AG2" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:34">
+      <c r="AH2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AO2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AQ2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AR2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AS2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AT2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AU2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AV2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AW2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AX2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AY2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AZ2" s="7">
+        <v>0</v>
+      </c>
+      <c r="BA2" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>55</v>
       </c>
@@ -12166,7 +14021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:34">
+    <row r="4" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -12299,7 +14154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>57</v>
       </c>
@@ -12361,78 +14216,158 @@
       </c>
       <c r="P5" s="7">
         <f>BEN!$A$15*BEN!X15</f>
-        <v>0</v>
+        <v>42996252.576820225</v>
       </c>
       <c r="Q5" s="7">
         <f>BEN!$A$15*BEN!Y15</f>
-        <v>0</v>
+        <v>42996252.576820225</v>
       </c>
       <c r="R5" s="7">
         <f>BEN!$A$15*BEN!Z15</f>
-        <v>0</v>
+        <v>42996252.576820225</v>
       </c>
       <c r="S5" s="7">
         <f>BEN!$A$15*BEN!AA15</f>
-        <v>0</v>
+        <v>42996252.576820225</v>
       </c>
       <c r="T5" s="7">
         <f>BEN!$A$15*BEN!AB15</f>
-        <v>0</v>
+        <v>42996252.576820225</v>
       </c>
       <c r="U5" s="7">
         <f>BEN!$A$15*BEN!AC15</f>
-        <v>0</v>
+        <v>42996252.576820225</v>
       </c>
       <c r="V5" s="7">
         <f>BEN!$A$15*BEN!AD15</f>
-        <v>0</v>
+        <v>42996252.576820225</v>
       </c>
       <c r="W5" s="7">
         <f>BEN!$A$15*BEN!AE15</f>
-        <v>0</v>
+        <v>42996252.576820225</v>
       </c>
       <c r="X5" s="7">
         <f>BEN!$A$15*BEN!AF15</f>
-        <v>0</v>
+        <v>42996252.576820225</v>
       </c>
       <c r="Y5" s="7">
         <f>BEN!$A$15*BEN!AG15</f>
-        <v>0</v>
+        <v>42996252.576820225</v>
       </c>
       <c r="Z5" s="7">
         <f>BEN!$A$15*BEN!AH15</f>
-        <v>0</v>
+        <v>42996252.576820225</v>
       </c>
       <c r="AA5" s="7">
         <f>BEN!$A$15*BEN!AI15</f>
-        <v>0</v>
+        <v>42996252.576820225</v>
       </c>
       <c r="AB5" s="7">
         <f>BEN!$A$15*BEN!AJ15</f>
-        <v>0</v>
+        <v>42996252.576820225</v>
       </c>
       <c r="AC5" s="7">
         <f>BEN!$A$15*BEN!AK15</f>
-        <v>0</v>
+        <v>42996252.576820225</v>
       </c>
       <c r="AD5" s="7">
         <f>BEN!$A$15*BEN!AL15</f>
-        <v>0</v>
+        <v>42996252.576820225</v>
       </c>
       <c r="AE5" s="7">
         <f>BEN!$A$15*BEN!AM15</f>
-        <v>0</v>
+        <v>42996252.576820225</v>
       </c>
       <c r="AF5" s="7">
         <f>BEN!$A$15*BEN!AN15</f>
-        <v>0</v>
+        <v>42996252.576820225</v>
       </c>
       <c r="AG5" s="7">
         <f>BEN!$A$15*BEN!AO15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34">
+        <v>42996252.576820225</v>
+      </c>
+      <c r="AH5" s="7">
+        <f>BEN!$A$15*BEN!AP15</f>
+        <v>42996252.576820225</v>
+      </c>
+      <c r="AI5" s="7">
+        <f>BEN!$A$15*BEN!AQ15</f>
+        <v>42996252.576820225</v>
+      </c>
+      <c r="AJ5" s="7">
+        <f>BEN!$A$15*BEN!AR15</f>
+        <v>42996252.576820225</v>
+      </c>
+      <c r="AK5" s="7">
+        <f>BEN!$A$15*BEN!AS15</f>
+        <v>42996252.576820225</v>
+      </c>
+      <c r="AL5" s="7">
+        <f>BEN!$A$15*BEN!AT15</f>
+        <v>42996252.576820225</v>
+      </c>
+      <c r="AM5" s="7">
+        <f>BEN!$A$15*BEN!AU15</f>
+        <v>42996252.576820225</v>
+      </c>
+      <c r="AN5" s="7">
+        <f t="shared" ref="AK5:BA5" si="0">$AI$5</f>
+        <v>42996252.576820225</v>
+      </c>
+      <c r="AO5" s="7">
+        <f t="shared" si="0"/>
+        <v>42996252.576820225</v>
+      </c>
+      <c r="AP5" s="7">
+        <f t="shared" si="0"/>
+        <v>42996252.576820225</v>
+      </c>
+      <c r="AQ5" s="7">
+        <f t="shared" si="0"/>
+        <v>42996252.576820225</v>
+      </c>
+      <c r="AR5" s="7">
+        <f t="shared" si="0"/>
+        <v>42996252.576820225</v>
+      </c>
+      <c r="AS5" s="7">
+        <f t="shared" si="0"/>
+        <v>42996252.576820225</v>
+      </c>
+      <c r="AT5" s="7">
+        <f t="shared" si="0"/>
+        <v>42996252.576820225</v>
+      </c>
+      <c r="AU5" s="7">
+        <f t="shared" si="0"/>
+        <v>42996252.576820225</v>
+      </c>
+      <c r="AV5" s="7">
+        <f t="shared" si="0"/>
+        <v>42996252.576820225</v>
+      </c>
+      <c r="AW5" s="7">
+        <f t="shared" si="0"/>
+        <v>42996252.576820225</v>
+      </c>
+      <c r="AX5" s="7">
+        <f t="shared" si="0"/>
+        <v>42996252.576820225</v>
+      </c>
+      <c r="AY5" s="7">
+        <f t="shared" si="0"/>
+        <v>42996252.576820225</v>
+      </c>
+      <c r="AZ5" s="7">
+        <f t="shared" si="0"/>
+        <v>42996252.576820225</v>
+      </c>
+      <c r="BA5" s="7">
+        <f t="shared" si="0"/>
+        <v>42996252.576820225</v>
+      </c>
+    </row>
+    <row r="6" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>150</v>
       </c>
@@ -12532,8 +14467,68 @@
       <c r="AG6" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:34">
+      <c r="AH6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AS6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AT6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AU6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AV6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AW6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AX6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AY6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AZ6" s="7">
+        <v>0</v>
+      </c>
+      <c r="BA6" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>151</v>
       </c>
@@ -12633,8 +14628,68 @@
       <c r="AG7" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:34">
+      <c r="AH7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AU7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AV7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AX7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AY7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AZ7" s="7">
+        <v>0</v>
+      </c>
+      <c r="BA7" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>152</v>
       </c>
@@ -12734,8 +14789,68 @@
       <c r="AG8" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:34">
+      <c r="AH8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AU8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AV8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AW8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AX8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AY8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AZ8" s="7">
+        <v>0</v>
+      </c>
+      <c r="BA8" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -12867,8 +14982,88 @@
         <f>BEN!$A$20*BEN!AO20</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:34">
+      <c r="AH9" s="7">
+        <f>BEN!$A$20*BEN!AP20</f>
+        <v>0</v>
+      </c>
+      <c r="AI9" s="7">
+        <f>BEN!$A$20*BEN!AQ20</f>
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="7">
+        <f>BEN!$A$20*BEN!AR20</f>
+        <v>0</v>
+      </c>
+      <c r="AK9" s="7">
+        <f>BEN!$A$20*BEN!AS20</f>
+        <v>0</v>
+      </c>
+      <c r="AL9" s="7">
+        <f>BEN!$A$20*BEN!AT20</f>
+        <v>0</v>
+      </c>
+      <c r="AM9" s="7">
+        <f>BEN!$A$20*BEN!AU20</f>
+        <v>0</v>
+      </c>
+      <c r="AN9" s="7">
+        <f>BEN!$A$20*BEN!AV20</f>
+        <v>0</v>
+      </c>
+      <c r="AO9" s="7">
+        <f>BEN!$A$20*BEN!AW20</f>
+        <v>0</v>
+      </c>
+      <c r="AP9" s="7">
+        <f>BEN!$A$20*BEN!AX20</f>
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="7">
+        <f>BEN!$A$20*BEN!AY20</f>
+        <v>0</v>
+      </c>
+      <c r="AR9" s="7">
+        <f>BEN!$A$20*BEN!AZ20</f>
+        <v>0</v>
+      </c>
+      <c r="AS9" s="7">
+        <f>BEN!$A$20*BEN!BA20</f>
+        <v>0</v>
+      </c>
+      <c r="AT9" s="7">
+        <f>BEN!$A$20*BEN!BB20</f>
+        <v>0</v>
+      </c>
+      <c r="AU9" s="7">
+        <f>BEN!$A$20*BEN!BC20</f>
+        <v>0</v>
+      </c>
+      <c r="AV9" s="7">
+        <f>BEN!$A$20*BEN!BD20</f>
+        <v>0</v>
+      </c>
+      <c r="AW9" s="7">
+        <f>BEN!$A$20*BEN!BE20</f>
+        <v>0</v>
+      </c>
+      <c r="AX9" s="7">
+        <f>BEN!$A$20*BEN!BF20</f>
+        <v>0</v>
+      </c>
+      <c r="AY9" s="7">
+        <f>BEN!$A$20*BEN!BG20</f>
+        <v>0</v>
+      </c>
+      <c r="AZ9" s="7">
+        <f>BEN!$A$20*BEN!BH20</f>
+        <v>0</v>
+      </c>
+      <c r="BA9" s="7">
+        <f>BEN!$A$20*BEN!BI20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -13001,7 +15196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -13134,7 +15329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -13267,7 +15462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -13399,8 +15594,88 @@
         <f>BEN!$A$40*BEN!AO40</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:34">
+      <c r="AH13" s="7">
+        <f>BEN!$A$40*BEN!AP40</f>
+        <v>0</v>
+      </c>
+      <c r="AI13" s="7">
+        <f>BEN!$A$40*BEN!AQ40</f>
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="7">
+        <f>BEN!$A$40*BEN!AR40</f>
+        <v>0</v>
+      </c>
+      <c r="AK13" s="7">
+        <f>BEN!$A$40*BEN!AS40</f>
+        <v>0</v>
+      </c>
+      <c r="AL13" s="7">
+        <f>BEN!$A$40*BEN!AT40</f>
+        <v>0</v>
+      </c>
+      <c r="AM13" s="7">
+        <f>BEN!$A$40*BEN!AU40</f>
+        <v>0</v>
+      </c>
+      <c r="AN13" s="7">
+        <f>BEN!$A$40*BEN!AV40</f>
+        <v>0</v>
+      </c>
+      <c r="AO13" s="7">
+        <f>BEN!$A$40*BEN!AW40</f>
+        <v>0</v>
+      </c>
+      <c r="AP13" s="7">
+        <f>BEN!$A$40*BEN!AX40</f>
+        <v>0</v>
+      </c>
+      <c r="AQ13" s="7">
+        <f>BEN!$A$40*BEN!AY40</f>
+        <v>0</v>
+      </c>
+      <c r="AR13" s="7">
+        <f>BEN!$A$40*BEN!AZ40</f>
+        <v>0</v>
+      </c>
+      <c r="AS13" s="7">
+        <f>BEN!$A$40*BEN!BA40</f>
+        <v>0</v>
+      </c>
+      <c r="AT13" s="7">
+        <f>BEN!$A$40*BEN!BB40</f>
+        <v>0</v>
+      </c>
+      <c r="AU13" s="7">
+        <f>BEN!$A$40*BEN!BC40</f>
+        <v>0</v>
+      </c>
+      <c r="AV13" s="7">
+        <f>BEN!$A$40*BEN!BD40</f>
+        <v>0</v>
+      </c>
+      <c r="AW13" s="7">
+        <f>BEN!$A$40*BEN!BE40</f>
+        <v>0</v>
+      </c>
+      <c r="AX13" s="7">
+        <f>BEN!$A$40*BEN!BF40</f>
+        <v>0</v>
+      </c>
+      <c r="AY13" s="7">
+        <f>BEN!$A$40*BEN!BG40</f>
+        <v>0</v>
+      </c>
+      <c r="AZ13" s="7">
+        <f>BEN!$A$40*BEN!BH40</f>
+        <v>0</v>
+      </c>
+      <c r="BA13" s="7">
+        <f>BEN!$A$40*BEN!BI40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>153</v>
       </c>
@@ -13533,7 +15808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:34">
+    <row r="15" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>154</v>
       </c>
@@ -13633,8 +15908,68 @@
       <c r="AG15" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:34">
+      <c r="AH15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AO15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AQ15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AR15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AS15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AT15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AU15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AV15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AW15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AX15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AY15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AZ15" s="7">
+        <v>0</v>
+      </c>
+      <c r="BA15" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>155</v>
       </c>
@@ -13734,8 +16069,68 @@
       <c r="AG16" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:33">
+      <c r="AH16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AO16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AQ16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AR16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AS16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AT16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AU16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AV16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AW16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AX16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AY16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AZ16" s="7">
+        <v>0</v>
+      </c>
+      <c r="BA16" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>59</v>
       </c>
@@ -13868,7 +16263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:33">
+    <row r="18" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>25</v>
       </c>
@@ -14001,7 +16396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:33">
+    <row r="19" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>26</v>
       </c>
@@ -14134,7 +16529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:33">
+    <row r="20" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>27</v>
       </c>
@@ -14267,7 +16662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:33">
+    <row r="21" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>156</v>
       </c>
@@ -14399,8 +16794,88 @@
         <f>BEN!AO65</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:33">
+      <c r="AH21" s="7">
+        <f>BEN!AP65</f>
+        <v>0</v>
+      </c>
+      <c r="AI21" s="7">
+        <f>BEN!AQ65</f>
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="7">
+        <f>BEN!AR65</f>
+        <v>0</v>
+      </c>
+      <c r="AK21" s="7">
+        <f>BEN!AS65</f>
+        <v>0</v>
+      </c>
+      <c r="AL21" s="7">
+        <f>BEN!AT65</f>
+        <v>0</v>
+      </c>
+      <c r="AM21" s="7">
+        <f>BEN!AU65</f>
+        <v>0</v>
+      </c>
+      <c r="AN21" s="7">
+        <f>BEN!AV65</f>
+        <v>0</v>
+      </c>
+      <c r="AO21" s="7">
+        <f>BEN!AW65</f>
+        <v>0</v>
+      </c>
+      <c r="AP21" s="7">
+        <f>BEN!AX65</f>
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="7">
+        <f>BEN!AY65</f>
+        <v>0</v>
+      </c>
+      <c r="AR21" s="7">
+        <f>BEN!AZ65</f>
+        <v>0</v>
+      </c>
+      <c r="AS21" s="7">
+        <f>BEN!BA65</f>
+        <v>0</v>
+      </c>
+      <c r="AT21" s="7">
+        <f>BEN!BB65</f>
+        <v>0</v>
+      </c>
+      <c r="AU21" s="7">
+        <f>BEN!BC65</f>
+        <v>0</v>
+      </c>
+      <c r="AV21" s="7">
+        <f>BEN!BD65</f>
+        <v>0</v>
+      </c>
+      <c r="AW21" s="7">
+        <f>BEN!BE65</f>
+        <v>0</v>
+      </c>
+      <c r="AX21" s="7">
+        <f>BEN!BF65</f>
+        <v>0</v>
+      </c>
+      <c r="AY21" s="7">
+        <f>BEN!BG65</f>
+        <v>0</v>
+      </c>
+      <c r="AZ21" s="7">
+        <f>BEN!BH65</f>
+        <v>0</v>
+      </c>
+      <c r="BA21" s="7">
+        <f>BEN!BI65</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>63</v>
       </c>
@@ -14530,6 +17005,86 @@
       </c>
       <c r="AG22" s="7">
         <f>BEN!AO66</f>
+        <v>0</v>
+      </c>
+      <c r="AH22" s="7">
+        <f>BEN!AP66</f>
+        <v>0</v>
+      </c>
+      <c r="AI22" s="7">
+        <f>BEN!AQ66</f>
+        <v>0</v>
+      </c>
+      <c r="AJ22" s="7">
+        <f>BEN!AR66</f>
+        <v>0</v>
+      </c>
+      <c r="AK22" s="7">
+        <f>BEN!AS66</f>
+        <v>0</v>
+      </c>
+      <c r="AL22" s="7">
+        <f>BEN!AT66</f>
+        <v>0</v>
+      </c>
+      <c r="AM22" s="7">
+        <f>BEN!AU66</f>
+        <v>0</v>
+      </c>
+      <c r="AN22" s="7">
+        <f>BEN!AV66</f>
+        <v>0</v>
+      </c>
+      <c r="AO22" s="7">
+        <f>BEN!AW66</f>
+        <v>0</v>
+      </c>
+      <c r="AP22" s="7">
+        <f>BEN!AX66</f>
+        <v>0</v>
+      </c>
+      <c r="AQ22" s="7">
+        <f>BEN!AY66</f>
+        <v>0</v>
+      </c>
+      <c r="AR22" s="7">
+        <f>BEN!AZ66</f>
+        <v>0</v>
+      </c>
+      <c r="AS22" s="7">
+        <f>BEN!BA66</f>
+        <v>0</v>
+      </c>
+      <c r="AT22" s="7">
+        <f>BEN!BB66</f>
+        <v>0</v>
+      </c>
+      <c r="AU22" s="7">
+        <f>BEN!BC66</f>
+        <v>0</v>
+      </c>
+      <c r="AV22" s="7">
+        <f>BEN!BD66</f>
+        <v>0</v>
+      </c>
+      <c r="AW22" s="7">
+        <f>BEN!BE66</f>
+        <v>0</v>
+      </c>
+      <c r="AX22" s="7">
+        <f>BEN!BF66</f>
+        <v>0</v>
+      </c>
+      <c r="AY22" s="7">
+        <f>BEN!BG66</f>
+        <v>0</v>
+      </c>
+      <c r="AZ22" s="7">
+        <f>BEN!BH66</f>
+        <v>0</v>
+      </c>
+      <c r="BA22" s="7">
+        <f>BEN!BI66</f>
         <v>0</v>
       </c>
     </row>
@@ -14544,19 +17099,19 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AH22"/>
+  <dimension ref="A1:BA22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" customWidth="1"/>
+    <col min="1" max="1" width="36.265625" customWidth="1"/>
     <col min="2" max="35" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>148</v>
       </c>
@@ -14656,9 +17211,68 @@
       <c r="AG1">
         <v>2050</v>
       </c>
-      <c r="AH1" s="5"/>
-    </row>
-    <row r="2" spans="1:34">
+      <c r="AH1" s="5">
+        <v>2051</v>
+      </c>
+      <c r="AI1">
+        <v>2052</v>
+      </c>
+      <c r="AJ1" s="5">
+        <v>2053</v>
+      </c>
+      <c r="AK1">
+        <v>2054</v>
+      </c>
+      <c r="AL1" s="5">
+        <v>2055</v>
+      </c>
+      <c r="AM1">
+        <v>2056</v>
+      </c>
+      <c r="AN1" s="5">
+        <v>2057</v>
+      </c>
+      <c r="AO1">
+        <v>2058</v>
+      </c>
+      <c r="AP1" s="5">
+        <v>2059</v>
+      </c>
+      <c r="AQ1">
+        <v>2060</v>
+      </c>
+      <c r="AR1" s="5">
+        <v>2061</v>
+      </c>
+      <c r="AS1">
+        <v>2062</v>
+      </c>
+      <c r="AT1" s="5">
+        <v>2063</v>
+      </c>
+      <c r="AU1">
+        <v>2064</v>
+      </c>
+      <c r="AV1" s="5">
+        <v>2065</v>
+      </c>
+      <c r="AW1">
+        <v>2066</v>
+      </c>
+      <c r="AX1" s="5">
+        <v>2067</v>
+      </c>
+      <c r="AY1">
+        <v>2068</v>
+      </c>
+      <c r="AZ1" s="5">
+        <v>2069</v>
+      </c>
+      <c r="BA1">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="2" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A2" s="6" t="s">
         <v>149</v>
       </c>
@@ -14758,8 +17372,68 @@
       <c r="AG2" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:34">
+      <c r="AH2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AO2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AQ2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AR2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AS2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AT2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AU2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AV2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AW2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AX2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AY2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AZ2" s="7">
+        <v>0</v>
+      </c>
+      <c r="BA2" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>55</v>
       </c>
@@ -14891,8 +17565,88 @@
         <f>BEN!$A$5*BEN!AO4</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:34">
+      <c r="AH3" s="7">
+        <f>BEN!$A$5*BEN!AP4</f>
+        <v>0</v>
+      </c>
+      <c r="AI3" s="7">
+        <f>BEN!$A$5*BEN!AQ4</f>
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="7">
+        <f>BEN!$A$5*BEN!AR4</f>
+        <v>0</v>
+      </c>
+      <c r="AK3" s="7">
+        <f>BEN!$A$5*BEN!AS4</f>
+        <v>0</v>
+      </c>
+      <c r="AL3" s="7">
+        <f>BEN!$A$5*BEN!AT4</f>
+        <v>0</v>
+      </c>
+      <c r="AM3" s="7">
+        <f>BEN!$A$5*BEN!AU4</f>
+        <v>0</v>
+      </c>
+      <c r="AN3" s="7">
+        <f>BEN!$A$5*BEN!AV4</f>
+        <v>0</v>
+      </c>
+      <c r="AO3" s="7">
+        <f>BEN!$A$5*BEN!AW4</f>
+        <v>0</v>
+      </c>
+      <c r="AP3" s="7">
+        <f>BEN!$A$5*BEN!AX4</f>
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="7">
+        <f>BEN!$A$5*BEN!AY4</f>
+        <v>0</v>
+      </c>
+      <c r="AR3" s="7">
+        <f>BEN!$A$5*BEN!AZ4</f>
+        <v>0</v>
+      </c>
+      <c r="AS3" s="7">
+        <f>BEN!$A$5*BEN!BA4</f>
+        <v>0</v>
+      </c>
+      <c r="AT3" s="7">
+        <f>BEN!$A$5*BEN!BB4</f>
+        <v>0</v>
+      </c>
+      <c r="AU3" s="7">
+        <f>BEN!$A$5*BEN!BC4</f>
+        <v>0</v>
+      </c>
+      <c r="AV3" s="7">
+        <f>BEN!$A$5*BEN!BD4</f>
+        <v>0</v>
+      </c>
+      <c r="AW3" s="7">
+        <f>BEN!$A$5*BEN!BE4</f>
+        <v>0</v>
+      </c>
+      <c r="AX3" s="7">
+        <f>BEN!$A$5*BEN!BF4</f>
+        <v>0</v>
+      </c>
+      <c r="AY3" s="7">
+        <f>BEN!$A$5*BEN!BG4</f>
+        <v>0</v>
+      </c>
+      <c r="AZ3" s="7">
+        <f>BEN!$A$5*BEN!BH4</f>
+        <v>0</v>
+      </c>
+      <c r="BA3" s="7">
+        <f>BEN!$A$5*BEN!BI4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -15025,7 +17779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:34">
+    <row r="5" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>57</v>
       </c>
@@ -15087,78 +17841,78 @@
       </c>
       <c r="P5" s="7">
         <f>BEN!$A$15*BEN!X14</f>
-        <v>0</v>
+        <v>7023457.1763804527</v>
       </c>
       <c r="Q5" s="7">
         <f>BEN!$A$15*BEN!Y14</f>
-        <v>0</v>
+        <v>7023457.1763804527</v>
       </c>
       <c r="R5" s="7">
         <f>BEN!$A$15*BEN!Z14</f>
-        <v>0</v>
+        <v>7023457.1763804527</v>
       </c>
       <c r="S5" s="7">
         <f>BEN!$A$15*BEN!AA14</f>
-        <v>0</v>
+        <v>7023457.1763804527</v>
       </c>
       <c r="T5" s="7">
         <f>BEN!$A$15*BEN!AB14</f>
-        <v>0</v>
+        <v>7023457.1763804527</v>
       </c>
       <c r="U5" s="7">
         <f>BEN!$A$15*BEN!AC14</f>
-        <v>0</v>
+        <v>7023457.1763804527</v>
       </c>
       <c r="V5" s="7">
         <f>BEN!$A$15*BEN!AD14</f>
-        <v>0</v>
+        <v>7023457.1763804527</v>
       </c>
       <c r="W5" s="7">
         <f>BEN!$A$15*BEN!AE14</f>
-        <v>0</v>
+        <v>7023457.1763804527</v>
       </c>
       <c r="X5" s="7">
         <f>BEN!$A$15*BEN!AF14</f>
-        <v>0</v>
+        <v>7023457.1763804527</v>
       </c>
       <c r="Y5" s="7">
         <f>BEN!$A$15*BEN!AG14</f>
-        <v>0</v>
+        <v>7023457.1763804527</v>
       </c>
       <c r="Z5" s="7">
         <f>BEN!$A$15*BEN!AH14</f>
-        <v>0</v>
+        <v>7023457.1763804527</v>
       </c>
       <c r="AA5" s="7">
         <f>BEN!$A$15*BEN!AI14</f>
-        <v>0</v>
+        <v>7023457.1763804527</v>
       </c>
       <c r="AB5" s="7">
         <f>BEN!$A$15*BEN!AJ14</f>
-        <v>0</v>
+        <v>7023457.1763804527</v>
       </c>
       <c r="AC5" s="7">
         <f>BEN!$A$15*BEN!AK14</f>
-        <v>0</v>
+        <v>7023457.1763804527</v>
       </c>
       <c r="AD5" s="7">
         <f>BEN!$A$15*BEN!AL14</f>
-        <v>0</v>
+        <v>7023457.1763804527</v>
       </c>
       <c r="AE5" s="7">
         <f>BEN!$A$15*BEN!AM14</f>
-        <v>0</v>
+        <v>7023457.1763804527</v>
       </c>
       <c r="AF5" s="7">
         <f>BEN!$A$15*BEN!AN14</f>
-        <v>0</v>
+        <v>7023457.1763804527</v>
       </c>
       <c r="AG5" s="7">
         <f>BEN!$A$15*BEN!AO14</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34">
+        <v>7023457.1763804527</v>
+      </c>
+    </row>
+    <row r="6" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>150</v>
       </c>
@@ -15258,8 +18012,68 @@
       <c r="AG6" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:34">
+      <c r="AH6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AS6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AT6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AU6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AV6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AW6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AX6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AY6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AZ6" s="7">
+        <v>0</v>
+      </c>
+      <c r="BA6" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>151</v>
       </c>
@@ -15359,8 +18173,68 @@
       <c r="AG7" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:34">
+      <c r="AH7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AU7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AV7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AX7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AY7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AZ7" s="7">
+        <v>0</v>
+      </c>
+      <c r="BA7" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>152</v>
       </c>
@@ -15460,8 +18334,68 @@
       <c r="AG8" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:34">
+      <c r="AH8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AU8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AV8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AW8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AX8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AY8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AZ8" s="7">
+        <v>0</v>
+      </c>
+      <c r="BA8" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
@@ -15594,7 +18528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:34">
+    <row r="10" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -15727,7 +18661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:34">
+    <row r="11" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -15860,7 +18794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:34">
+    <row r="12" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -15993,7 +18927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:34">
+    <row r="13" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -16126,7 +19060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:34">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>153</v>
       </c>
@@ -16135,131 +19069,207 @@
         <v>96388748.175182477</v>
       </c>
       <c r="C14" s="7">
-        <f>BEN!$B$44*BEN!K43</f>
-        <v>108809364.96350364</v>
+        <f>BEN!$B$44*BEN!K45</f>
+        <v>45039616.788321167</v>
       </c>
       <c r="D14" s="7">
-        <f>BEN!$B$44*BEN!L43</f>
-        <v>134602978.10218978</v>
+        <f>BEN!$B$44*BEN!L45</f>
+        <v>43214222.627737224</v>
       </c>
       <c r="E14" s="7">
-        <f>BEN!$B$44*BEN!M43</f>
-        <v>159999766.42335767</v>
+        <f>BEN!$B$44*BEN!M45</f>
+        <v>70317357.66423358</v>
       </c>
       <c r="F14" s="7">
-        <f>BEN!$B$44*BEN!N43</f>
-        <v>171267355.60810116</v>
+        <f>BEN!$B$44*BEN!N45</f>
+        <v>3788925.5021251654</v>
       </c>
       <c r="G14" s="7">
-        <f>BEN!$B$44*BEN!O43</f>
-        <v>182534944.79284465</v>
+        <f>BEN!$B$44*BEN!O45</f>
+        <v>7577851.0042502703</v>
       </c>
       <c r="H14" s="7">
-        <f>BEN!$B$44*BEN!P43</f>
-        <v>193802533.97758818</v>
+        <f>BEN!$B$44*BEN!P45</f>
+        <v>11366776.506375436</v>
       </c>
       <c r="I14" s="7">
-        <f>BEN!$B$44*BEN!Q43</f>
-        <v>208825986.22391281</v>
+        <f>BEN!$B$44*BEN!Q45</f>
+        <v>21431355.014090832</v>
       </c>
       <c r="J14" s="7">
-        <f>BEN!$B$44*BEN!R43</f>
-        <v>216337712.34707513</v>
+        <f>BEN!$B$44*BEN!R45</f>
+        <v>18944627.510625705</v>
       </c>
       <c r="K14" s="7">
-        <f>BEN!$B$44*BEN!S43</f>
-        <v>216337712.34707513</v>
+        <f>BEN!$B$44*BEN!S45</f>
+        <v>3906593.995980056</v>
       </c>
       <c r="L14" s="7">
-        <f>BEN!$B$44*BEN!T43</f>
-        <v>218027850.7247867</v>
+        <f>BEN!$B$44*BEN!T45</f>
+        <v>0</v>
       </c>
       <c r="M14" s="7">
-        <f>BEN!$B$44*BEN!U43</f>
-        <v>219717989.1024982</v>
+        <f>BEN!$B$44*BEN!U45</f>
+        <v>0</v>
       </c>
       <c r="N14" s="7">
-        <f>BEN!$B$44*BEN!V43</f>
-        <v>221408127.48020974</v>
+        <f>BEN!$B$44*BEN!V45</f>
+        <v>0</v>
       </c>
       <c r="O14" s="7">
-        <f>BEN!$B$44*BEN!W43</f>
-        <v>223098265.8579213</v>
+        <f>BEN!$B$44*BEN!W45</f>
+        <v>0</v>
       </c>
       <c r="P14" s="7">
-        <f>BEN!$B$44*BEN!X43</f>
+        <f>BEN!$B$44*BEN!X45</f>
         <v>0</v>
       </c>
       <c r="Q14" s="7">
-        <f>BEN!$B$44*BEN!Y43</f>
+        <f>BEN!$B$44*BEN!Y45</f>
         <v>0</v>
       </c>
       <c r="R14" s="7">
-        <f>BEN!$B$44*BEN!Z43</f>
+        <f>BEN!$B$44*BEN!Z45</f>
         <v>0</v>
       </c>
       <c r="S14" s="7">
-        <f>BEN!$B$44*BEN!AA43</f>
+        <f>BEN!$B$44*BEN!AA45</f>
         <v>0</v>
       </c>
       <c r="T14" s="7">
-        <f>BEN!$B$44*BEN!AB43</f>
+        <f>BEN!$B$44*BEN!AB45</f>
         <v>0</v>
       </c>
       <c r="U14" s="7">
-        <f>BEN!$B$44*BEN!AC43</f>
+        <f>BEN!$B$44*BEN!AC45</f>
         <v>0</v>
       </c>
       <c r="V14" s="7">
-        <f>BEN!$B$44*BEN!AD43</f>
+        <f>BEN!$B$44*BEN!AD45</f>
         <v>0</v>
       </c>
       <c r="W14" s="7">
-        <f>BEN!$B$44*BEN!AE43</f>
+        <f>BEN!$B$44*BEN!AE45</f>
         <v>0</v>
       </c>
       <c r="X14" s="7">
-        <f>BEN!$B$44*BEN!AF43</f>
+        <f>BEN!$B$44*BEN!AF45</f>
         <v>0</v>
       </c>
       <c r="Y14" s="7">
-        <f>BEN!$B$44*BEN!AG43</f>
+        <f>BEN!$B$44*BEN!AG45</f>
         <v>0</v>
       </c>
       <c r="Z14" s="7">
-        <f>BEN!$B$44*BEN!AH43</f>
+        <f>BEN!$B$44*BEN!AH45</f>
         <v>0</v>
       </c>
       <c r="AA14" s="7">
-        <f>BEN!$B$44*BEN!AI43</f>
+        <f>BEN!$B$44*BEN!AI45</f>
         <v>0</v>
       </c>
       <c r="AB14" s="7">
-        <f>BEN!$B$44*BEN!AJ43</f>
+        <f>BEN!$B$44*BEN!AJ45</f>
         <v>0</v>
       </c>
       <c r="AC14" s="7">
-        <f>BEN!$B$44*BEN!AK43</f>
+        <f>BEN!$B$44*BEN!AK45</f>
         <v>0</v>
       </c>
       <c r="AD14" s="7">
-        <f>BEN!$B$44*BEN!AL43</f>
+        <f>BEN!$B$44*BEN!AL45</f>
         <v>0</v>
       </c>
       <c r="AE14" s="7">
-        <f>BEN!$B$44*BEN!AM43</f>
+        <f>BEN!$B$44*BEN!AM45</f>
         <v>0</v>
       </c>
       <c r="AF14" s="7">
-        <f>BEN!$B$44*BEN!AN43</f>
+        <f>BEN!$B$44*BEN!AN45</f>
         <v>0</v>
       </c>
       <c r="AG14" s="7">
-        <f>BEN!$B$44*BEN!AO43</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:34">
+        <f>BEN!$B$44*BEN!AO45</f>
+        <v>0</v>
+      </c>
+      <c r="AH14" s="7">
+        <f>BEN!$B$44*BEN!AP45</f>
+        <v>0</v>
+      </c>
+      <c r="AI14" s="7">
+        <f>BEN!$B$44*BEN!AQ45</f>
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="7">
+        <f>BEN!$B$44*BEN!AR45</f>
+        <v>0</v>
+      </c>
+      <c r="AK14" s="7">
+        <f>BEN!$B$44*BEN!AS45</f>
+        <v>0</v>
+      </c>
+      <c r="AL14" s="7">
+        <f>BEN!$B$44*BEN!AT45</f>
+        <v>0</v>
+      </c>
+      <c r="AM14" s="7">
+        <f>BEN!$B$44*BEN!AU45</f>
+        <v>0</v>
+      </c>
+      <c r="AN14" s="7">
+        <f>BEN!$B$44*BEN!AV45</f>
+        <v>0</v>
+      </c>
+      <c r="AO14" s="7">
+        <f>BEN!$B$44*BEN!AW45</f>
+        <v>0</v>
+      </c>
+      <c r="AP14" s="7">
+        <f>BEN!$B$44*BEN!AX45</f>
+        <v>0</v>
+      </c>
+      <c r="AQ14" s="7">
+        <f>BEN!$B$44*BEN!AY45</f>
+        <v>0</v>
+      </c>
+      <c r="AR14" s="7">
+        <f>BEN!$B$44*BEN!AZ45</f>
+        <v>0</v>
+      </c>
+      <c r="AS14" s="7">
+        <f>BEN!$B$44*BEN!BA45</f>
+        <v>0</v>
+      </c>
+      <c r="AT14" s="7">
+        <f>BEN!$B$44*BEN!BB45</f>
+        <v>0</v>
+      </c>
+      <c r="AU14" s="7">
+        <f>BEN!$B$44*BEN!BC45</f>
+        <v>0</v>
+      </c>
+      <c r="AV14" s="7">
+        <f>BEN!$B$44*BEN!BD45</f>
+        <v>0</v>
+      </c>
+      <c r="AW14" s="7">
+        <f>BEN!$B$44*BEN!BE45</f>
+        <v>0</v>
+      </c>
+      <c r="AX14" s="7">
+        <f>BEN!$B$44*BEN!BF45</f>
+        <v>0</v>
+      </c>
+      <c r="AY14" s="7">
+        <f>BEN!$B$44*BEN!BG45</f>
+        <v>0</v>
+      </c>
+      <c r="AZ14" s="7">
+        <f>BEN!$B$44*BEN!BH45</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>154</v>
       </c>
@@ -16359,8 +19369,68 @@
       <c r="AG15" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:34">
+      <c r="AH15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AO15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AQ15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AR15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AS15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AT15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AU15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AV15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AW15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AX15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AY15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AZ15" s="7">
+        <v>0</v>
+      </c>
+      <c r="BA15" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>155</v>
       </c>
@@ -16460,8 +19530,68 @@
       <c r="AG16" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:33">
+      <c r="AH16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AO16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AQ16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AR16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AS16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AT16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AU16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AV16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AW16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AX16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AY16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AZ16" s="7">
+        <v>0</v>
+      </c>
+      <c r="BA16" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>59</v>
       </c>
@@ -16594,7 +19724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:33">
+    <row r="18" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>25</v>
       </c>
@@ -16727,7 +19857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:33">
+    <row r="19" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>26</v>
       </c>
@@ -16860,7 +19990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:33">
+    <row r="20" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>27</v>
       </c>
@@ -16993,7 +20123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:33">
+    <row r="21" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>156</v>
       </c>
@@ -17125,8 +20255,88 @@
         <f>BEN!AO65</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:33">
+      <c r="AH21" s="7">
+        <f>BEN!AP65</f>
+        <v>0</v>
+      </c>
+      <c r="AI21" s="7">
+        <f>BEN!AQ65</f>
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="7">
+        <f>BEN!AR65</f>
+        <v>0</v>
+      </c>
+      <c r="AK21" s="7">
+        <f>BEN!AS65</f>
+        <v>0</v>
+      </c>
+      <c r="AL21" s="7">
+        <f>BEN!AT65</f>
+        <v>0</v>
+      </c>
+      <c r="AM21" s="7">
+        <f>BEN!AU65</f>
+        <v>0</v>
+      </c>
+      <c r="AN21" s="7">
+        <f>BEN!AV65</f>
+        <v>0</v>
+      </c>
+      <c r="AO21" s="7">
+        <f>BEN!AW65</f>
+        <v>0</v>
+      </c>
+      <c r="AP21" s="7">
+        <f>BEN!AX65</f>
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="7">
+        <f>BEN!AY65</f>
+        <v>0</v>
+      </c>
+      <c r="AR21" s="7">
+        <f>BEN!AZ65</f>
+        <v>0</v>
+      </c>
+      <c r="AS21" s="7">
+        <f>BEN!BA65</f>
+        <v>0</v>
+      </c>
+      <c r="AT21" s="7">
+        <f>BEN!BB65</f>
+        <v>0</v>
+      </c>
+      <c r="AU21" s="7">
+        <f>BEN!BC65</f>
+        <v>0</v>
+      </c>
+      <c r="AV21" s="7">
+        <f>BEN!BD65</f>
+        <v>0</v>
+      </c>
+      <c r="AW21" s="7">
+        <f>BEN!BE65</f>
+        <v>0</v>
+      </c>
+      <c r="AX21" s="7">
+        <f>BEN!BF65</f>
+        <v>0</v>
+      </c>
+      <c r="AY21" s="7">
+        <f>BEN!BG65</f>
+        <v>0</v>
+      </c>
+      <c r="AZ21" s="7">
+        <f>BEN!BH65</f>
+        <v>0</v>
+      </c>
+      <c r="BA21" s="7">
+        <f>BEN!BI65</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>63</v>
       </c>
@@ -17256,6 +20466,86 @@
       </c>
       <c r="AG22" s="7">
         <f>BEN!AO66</f>
+        <v>0</v>
+      </c>
+      <c r="AH22" s="7">
+        <f>BEN!AP66</f>
+        <v>0</v>
+      </c>
+      <c r="AI22" s="7">
+        <f>BEN!AQ66</f>
+        <v>0</v>
+      </c>
+      <c r="AJ22" s="7">
+        <f>BEN!AR66</f>
+        <v>0</v>
+      </c>
+      <c r="AK22" s="7">
+        <f>BEN!AS66</f>
+        <v>0</v>
+      </c>
+      <c r="AL22" s="7">
+        <f>BEN!AT66</f>
+        <v>0</v>
+      </c>
+      <c r="AM22" s="7">
+        <f>BEN!AU66</f>
+        <v>0</v>
+      </c>
+      <c r="AN22" s="7">
+        <f>BEN!AV66</f>
+        <v>0</v>
+      </c>
+      <c r="AO22" s="7">
+        <f>BEN!AW66</f>
+        <v>0</v>
+      </c>
+      <c r="AP22" s="7">
+        <f>BEN!AX66</f>
+        <v>0</v>
+      </c>
+      <c r="AQ22" s="7">
+        <f>BEN!AY66</f>
+        <v>0</v>
+      </c>
+      <c r="AR22" s="7">
+        <f>BEN!AZ66</f>
+        <v>0</v>
+      </c>
+      <c r="AS22" s="7">
+        <f>BEN!BA66</f>
+        <v>0</v>
+      </c>
+      <c r="AT22" s="7">
+        <f>BEN!BB66</f>
+        <v>0</v>
+      </c>
+      <c r="AU22" s="7">
+        <f>BEN!BC66</f>
+        <v>0</v>
+      </c>
+      <c r="AV22" s="7">
+        <f>BEN!BD66</f>
+        <v>0</v>
+      </c>
+      <c r="AW22" s="7">
+        <f>BEN!BE66</f>
+        <v>0</v>
+      </c>
+      <c r="AX22" s="7">
+        <f>BEN!BF66</f>
+        <v>0</v>
+      </c>
+      <c r="AY22" s="7">
+        <f>BEN!BG66</f>
+        <v>0</v>
+      </c>
+      <c r="AZ22" s="7">
+        <f>BEN!BH66</f>
+        <v>0</v>
+      </c>
+      <c r="BA22" s="7">
+        <f>BEN!BI66</f>
         <v>0</v>
       </c>
     </row>

--- a/InputData/fuels/BFPIaE/BAU Fuel Production Imports and Exports.xlsx
+++ b/InputData/fuels/BFPIaE/BAU Fuel Production Imports and Exports.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anima\OneDrive\Desktop\Models\eps-brazil-cpl2\InputData\fuels\BFPIaE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D8FEDC-5682-4F70-BF0E-FE1A1942F2C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5163ECBF-7F6B-42FF-A9DB-DAF7BDF889A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="986" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" tabRatio="986" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="4" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="157">
   <si>
     <t>BFPIaE BAU Fuel Production</t>
   </si>
@@ -519,9 +519,6 @@
   </si>
   <si>
     <t>municipal solid waste</t>
-  </si>
-  <si>
-    <t>x</t>
   </si>
 </sst>
 </file>
@@ -5290,8 +5287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1234FAA1-B348-4587-B120-01D5BFC1F0ED}">
   <dimension ref="A1:BI66"/>
   <sheetViews>
-    <sheetView topLeftCell="AB1" workbookViewId="0">
-      <selection activeCell="AS15" sqref="AS15"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="84" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.86328125" defaultRowHeight="11.65" x14ac:dyDescent="0.45"/>
@@ -5380,158 +5377,44 @@
         <f t="shared" si="0"/>
         <v>2032</v>
       </c>
-      <c r="X3" s="14">
-        <f t="shared" ref="X3" si="1">1+W3</f>
-        <v>2033</v>
-      </c>
-      <c r="Y3" s="14">
-        <f t="shared" ref="Y3" si="2">1+X3</f>
-        <v>2034</v>
-      </c>
-      <c r="Z3" s="14">
-        <f t="shared" ref="Z3" si="3">1+Y3</f>
-        <v>2035</v>
-      </c>
-      <c r="AA3" s="14">
-        <f t="shared" ref="AA3" si="4">1+Z3</f>
-        <v>2036</v>
-      </c>
-      <c r="AB3" s="14">
-        <f t="shared" ref="AB3" si="5">1+AA3</f>
-        <v>2037</v>
-      </c>
-      <c r="AC3" s="14">
-        <f t="shared" ref="AC3" si="6">1+AB3</f>
-        <v>2038</v>
-      </c>
-      <c r="AD3" s="14">
-        <f t="shared" ref="AD3" si="7">1+AC3</f>
-        <v>2039</v>
-      </c>
-      <c r="AE3" s="14">
-        <f t="shared" ref="AE3" si="8">1+AD3</f>
-        <v>2040</v>
-      </c>
-      <c r="AF3" s="14">
-        <f t="shared" ref="AF3" si="9">1+AE3</f>
-        <v>2041</v>
-      </c>
-      <c r="AG3" s="14">
-        <f t="shared" ref="AG3" si="10">1+AF3</f>
-        <v>2042</v>
-      </c>
-      <c r="AH3" s="14">
-        <f t="shared" ref="AH3" si="11">1+AG3</f>
-        <v>2043</v>
-      </c>
-      <c r="AI3" s="14">
-        <f t="shared" ref="AI3" si="12">1+AH3</f>
-        <v>2044</v>
-      </c>
-      <c r="AJ3" s="14">
-        <f t="shared" ref="AJ3" si="13">1+AI3</f>
-        <v>2045</v>
-      </c>
-      <c r="AK3" s="14">
-        <f t="shared" ref="AK3" si="14">1+AJ3</f>
-        <v>2046</v>
-      </c>
-      <c r="AL3" s="14">
-        <f t="shared" ref="AL3" si="15">1+AK3</f>
-        <v>2047</v>
-      </c>
-      <c r="AM3" s="14">
-        <f t="shared" ref="AM3" si="16">1+AL3</f>
-        <v>2048</v>
-      </c>
-      <c r="AN3" s="14">
-        <f t="shared" ref="AN3" si="17">1+AM3</f>
-        <v>2049</v>
-      </c>
-      <c r="AO3" s="14">
-        <f t="shared" ref="AO3" si="18">1+AN3</f>
-        <v>2050</v>
-      </c>
-      <c r="AP3" s="14">
-        <f t="shared" ref="AP3" si="19">1+AO3</f>
-        <v>2051</v>
-      </c>
-      <c r="AQ3" s="14">
-        <f t="shared" ref="AQ3" si="20">1+AP3</f>
-        <v>2052</v>
-      </c>
-      <c r="AR3" s="14">
-        <f t="shared" ref="AR3" si="21">1+AQ3</f>
-        <v>2053</v>
-      </c>
-      <c r="AS3" s="14">
-        <f t="shared" ref="AS3" si="22">1+AR3</f>
-        <v>2054</v>
-      </c>
-      <c r="AT3" s="14">
-        <f t="shared" ref="AT3" si="23">1+AS3</f>
-        <v>2055</v>
-      </c>
-      <c r="AU3" s="14">
-        <f t="shared" ref="AU3" si="24">1+AT3</f>
-        <v>2056</v>
-      </c>
-      <c r="AV3" s="14">
-        <f t="shared" ref="AV3" si="25">1+AU3</f>
-        <v>2057</v>
-      </c>
-      <c r="AW3" s="14">
-        <f t="shared" ref="AW3" si="26">1+AV3</f>
-        <v>2058</v>
-      </c>
-      <c r="AX3" s="14">
-        <f t="shared" ref="AX3" si="27">1+AW3</f>
-        <v>2059</v>
-      </c>
-      <c r="AY3" s="14">
-        <f t="shared" ref="AY3" si="28">1+AX3</f>
-        <v>2060</v>
-      </c>
-      <c r="AZ3" s="14">
-        <f t="shared" ref="AZ3" si="29">1+AY3</f>
-        <v>2061</v>
-      </c>
-      <c r="BA3" s="14">
-        <f t="shared" ref="BA3" si="30">1+AZ3</f>
-        <v>2062</v>
-      </c>
-      <c r="BB3" s="14">
-        <f t="shared" ref="BB3" si="31">1+BA3</f>
-        <v>2063</v>
-      </c>
-      <c r="BC3" s="14">
-        <f t="shared" ref="BC3" si="32">1+BB3</f>
-        <v>2064</v>
-      </c>
-      <c r="BD3" s="14">
-        <f t="shared" ref="BD3" si="33">1+BC3</f>
-        <v>2065</v>
-      </c>
-      <c r="BE3" s="14">
-        <f t="shared" ref="BE3" si="34">1+BD3</f>
-        <v>2066</v>
-      </c>
-      <c r="BF3" s="14">
-        <f t="shared" ref="BF3" si="35">1+BE3</f>
-        <v>2067</v>
-      </c>
-      <c r="BG3" s="14">
-        <f t="shared" ref="BG3" si="36">1+BF3</f>
-        <v>2068</v>
-      </c>
-      <c r="BH3" s="14">
-        <f t="shared" ref="BH3" si="37">1+BG3</f>
-        <v>2069</v>
-      </c>
-      <c r="BI3" s="14">
-        <f t="shared" ref="BI3" si="38">1+BH3</f>
-        <v>2070</v>
-      </c>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="14"/>
+      <c r="Z3" s="14"/>
+      <c r="AA3" s="14"/>
+      <c r="AB3" s="14"/>
+      <c r="AC3" s="14"/>
+      <c r="AD3" s="14"/>
+      <c r="AE3" s="14"/>
+      <c r="AF3" s="14"/>
+      <c r="AG3" s="14"/>
+      <c r="AH3" s="14"/>
+      <c r="AI3" s="14"/>
+      <c r="AJ3" s="14"/>
+      <c r="AK3" s="14"/>
+      <c r="AL3" s="14"/>
+      <c r="AM3" s="14"/>
+      <c r="AN3" s="14"/>
+      <c r="AO3" s="14"/>
+      <c r="AP3" s="14"/>
+      <c r="AQ3" s="14"/>
+      <c r="AR3" s="14"/>
+      <c r="AS3" s="14"/>
+      <c r="AT3" s="14"/>
+      <c r="AU3" s="14"/>
+      <c r="AV3" s="14"/>
+      <c r="AW3" s="14"/>
+      <c r="AX3" s="14"/>
+      <c r="AY3" s="14"/>
+      <c r="AZ3" s="14"/>
+      <c r="BA3" s="14"/>
+      <c r="BB3" s="14"/>
+      <c r="BC3" s="14"/>
+      <c r="BD3" s="14"/>
+      <c r="BE3" s="14"/>
+      <c r="BF3" s="14"/>
+      <c r="BG3" s="14"/>
+      <c r="BH3" s="14"/>
+      <c r="BI3" s="14"/>
     </row>
     <row r="4" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A4" s="15" t="s">
@@ -5603,120 +5486,44 @@
       <c r="W4" s="15">
         <v>0</v>
       </c>
-      <c r="X4" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="15">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="15">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="15">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="15">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="15">
-        <v>0</v>
-      </c>
-      <c r="AH4" s="15">
-        <v>0</v>
-      </c>
-      <c r="AI4" s="15">
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="15">
-        <v>0</v>
-      </c>
-      <c r="AK4" s="15">
-        <v>0</v>
-      </c>
-      <c r="AL4" s="15">
-        <v>0</v>
-      </c>
-      <c r="AM4" s="15">
-        <v>0</v>
-      </c>
-      <c r="AN4" s="15">
-        <v>0</v>
-      </c>
-      <c r="AO4" s="15">
-        <v>0</v>
-      </c>
-      <c r="AP4" s="15">
-        <v>0</v>
-      </c>
-      <c r="AQ4" s="15">
-        <v>0</v>
-      </c>
-      <c r="AR4" s="15">
-        <v>0</v>
-      </c>
-      <c r="AS4" s="15">
-        <v>0</v>
-      </c>
-      <c r="AT4" s="15">
-        <v>0</v>
-      </c>
-      <c r="AU4" s="15">
-        <v>0</v>
-      </c>
-      <c r="AV4" s="15">
-        <v>0</v>
-      </c>
-      <c r="AW4" s="15">
-        <v>0</v>
-      </c>
-      <c r="AX4" s="15">
-        <v>0</v>
-      </c>
-      <c r="AY4" s="15">
-        <v>0</v>
-      </c>
-      <c r="AZ4" s="15">
-        <v>0</v>
-      </c>
-      <c r="BA4" s="15">
-        <v>0</v>
-      </c>
-      <c r="BB4" s="15">
-        <v>0</v>
-      </c>
-      <c r="BC4" s="15">
-        <v>0</v>
-      </c>
-      <c r="BD4" s="15">
-        <v>0</v>
-      </c>
-      <c r="BE4" s="15">
-        <v>0</v>
-      </c>
-      <c r="BF4" s="15">
-        <v>0</v>
-      </c>
-      <c r="BG4" s="15">
-        <v>0</v>
-      </c>
-      <c r="BH4" s="15">
-        <v>0</v>
-      </c>
-      <c r="BI4" s="15">
-        <v>0</v>
-      </c>
+      <c r="X4" s="15"/>
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="15"/>
+      <c r="AA4" s="15"/>
+      <c r="AB4" s="15"/>
+      <c r="AC4" s="15"/>
+      <c r="AD4" s="15"/>
+      <c r="AE4" s="15"/>
+      <c r="AF4" s="15"/>
+      <c r="AG4" s="15"/>
+      <c r="AH4" s="15"/>
+      <c r="AI4" s="15"/>
+      <c r="AJ4" s="15"/>
+      <c r="AK4" s="15"/>
+      <c r="AL4" s="15"/>
+      <c r="AM4" s="15"/>
+      <c r="AN4" s="15"/>
+      <c r="AO4" s="15"/>
+      <c r="AP4" s="15"/>
+      <c r="AQ4" s="15"/>
+      <c r="AR4" s="15"/>
+      <c r="AS4" s="15"/>
+      <c r="AT4" s="15"/>
+      <c r="AU4" s="15"/>
+      <c r="AV4" s="15"/>
+      <c r="AW4" s="15"/>
+      <c r="AX4" s="15"/>
+      <c r="AY4" s="15"/>
+      <c r="AZ4" s="15"/>
+      <c r="BA4" s="15"/>
+      <c r="BB4" s="15"/>
+      <c r="BC4" s="15"/>
+      <c r="BD4" s="15"/>
+      <c r="BE4" s="15"/>
+      <c r="BF4" s="15"/>
+      <c r="BG4" s="15"/>
+      <c r="BH4" s="15"/>
+      <c r="BI4" s="15"/>
     </row>
     <row r="5" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A5" s="17">
@@ -5765,39 +5572,36 @@
         <v>10530.4</v>
       </c>
       <c r="P5" s="15">
-        <f t="shared" ref="P5:W5" si="39">$N5</f>
+        <f t="shared" ref="P5:W5" si="1">$N5</f>
         <v>10530.4</v>
       </c>
       <c r="Q5" s="15">
-        <f t="shared" si="39"/>
+        <f t="shared" si="1"/>
         <v>10530.4</v>
       </c>
       <c r="R5" s="15">
-        <f t="shared" si="39"/>
+        <f t="shared" si="1"/>
         <v>10530.4</v>
       </c>
       <c r="S5" s="15">
-        <f t="shared" si="39"/>
+        <f t="shared" si="1"/>
         <v>10530.4</v>
       </c>
       <c r="T5" s="15">
-        <f t="shared" si="39"/>
+        <f t="shared" si="1"/>
         <v>10530.4</v>
       </c>
       <c r="U5" s="15">
-        <f t="shared" si="39"/>
+        <f t="shared" si="1"/>
         <v>10530.4</v>
       </c>
       <c r="V5" s="15">
-        <f t="shared" si="39"/>
+        <f t="shared" si="1"/>
         <v>10530.4</v>
       </c>
       <c r="W5" s="15">
-        <f t="shared" si="39"/>
+        <f t="shared" si="1"/>
         <v>10530.4</v>
-      </c>
-      <c r="BI5" s="9" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:61" x14ac:dyDescent="0.45">
@@ -5867,120 +5671,44 @@
       <c r="W6" s="15">
         <v>0</v>
       </c>
-      <c r="X6" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AM6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AN6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AO6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AP6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AQ6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AR6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AS6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AT6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AU6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AV6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AW6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AX6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AY6" s="15">
-        <v>0</v>
-      </c>
-      <c r="AZ6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BA6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BB6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BC6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BD6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BE6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BF6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BG6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BH6" s="15">
-        <v>0</v>
-      </c>
-      <c r="BI6" s="15">
-        <v>0</v>
-      </c>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="15"/>
+      <c r="AA6" s="15"/>
+      <c r="AB6" s="15"/>
+      <c r="AC6" s="15"/>
+      <c r="AD6" s="15"/>
+      <c r="AE6" s="15"/>
+      <c r="AF6" s="15"/>
+      <c r="AG6" s="15"/>
+      <c r="AH6" s="15"/>
+      <c r="AI6" s="15"/>
+      <c r="AJ6" s="15"/>
+      <c r="AK6" s="15"/>
+      <c r="AL6" s="15"/>
+      <c r="AM6" s="15"/>
+      <c r="AN6" s="15"/>
+      <c r="AO6" s="15"/>
+      <c r="AP6" s="15"/>
+      <c r="AQ6" s="15"/>
+      <c r="AR6" s="15"/>
+      <c r="AS6" s="15"/>
+      <c r="AT6" s="15"/>
+      <c r="AU6" s="15"/>
+      <c r="AV6" s="15"/>
+      <c r="AW6" s="15"/>
+      <c r="AX6" s="15"/>
+      <c r="AY6" s="15"/>
+      <c r="AZ6" s="15"/>
+      <c r="BA6" s="15"/>
+      <c r="BB6" s="15"/>
+      <c r="BC6" s="15"/>
+      <c r="BD6" s="15"/>
+      <c r="BE6" s="15"/>
+      <c r="BF6" s="15"/>
+      <c r="BG6" s="15"/>
+      <c r="BH6" s="15"/>
+      <c r="BI6" s="15"/>
     </row>
     <row r="8" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A8" s="15" t="s">
@@ -5993,43 +5721,43 @@
         <v>110</v>
       </c>
       <c r="D8" s="15">
-        <f t="shared" ref="D8:M8" si="40">D12+D11</f>
+        <f t="shared" ref="D8:M8" si="2">D12+D11</f>
         <v>22523</v>
       </c>
       <c r="E8" s="15">
-        <f t="shared" si="40"/>
+        <f t="shared" si="2"/>
         <v>23911</v>
       </c>
       <c r="F8" s="15">
-        <f t="shared" si="40"/>
+        <f t="shared" si="2"/>
         <v>24103</v>
       </c>
       <c r="G8" s="15">
-        <f t="shared" si="40"/>
+        <f t="shared" si="2"/>
         <v>25307</v>
       </c>
       <c r="H8" s="15">
-        <f t="shared" si="40"/>
+        <f t="shared" si="2"/>
         <v>28128</v>
       </c>
       <c r="I8" s="15">
-        <f t="shared" si="40"/>
+        <f t="shared" si="2"/>
         <v>26454</v>
       </c>
       <c r="J8" s="15">
-        <f t="shared" si="40"/>
+        <f t="shared" si="2"/>
         <v>26935</v>
       </c>
       <c r="K8" s="15">
-        <f t="shared" si="40"/>
+        <f t="shared" si="2"/>
         <v>24936</v>
       </c>
       <c r="L8" s="15">
-        <f t="shared" si="40"/>
+        <f t="shared" si="2"/>
         <v>25379</v>
       </c>
       <c r="M8" s="15">
-        <f t="shared" si="40"/>
+        <f t="shared" si="2"/>
         <v>24314</v>
       </c>
       <c r="N8" s="15">
@@ -6071,9 +5799,6 @@
       <c r="W8" s="15">
         <f>'PDE-O&amp;G'!O16</f>
         <v>48910</v>
-      </c>
-      <c r="BI8" s="9" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:61" x14ac:dyDescent="0.45">
@@ -6154,9 +5879,6 @@
         <f>'PDE-O&amp;G'!O18</f>
         <v>17520</v>
       </c>
-      <c r="BI9" s="9" t="s">
-        <v>157</v>
-      </c>
     </row>
     <row r="10" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A10" s="33" t="s">
@@ -6225,120 +5947,44 @@
       <c r="W10" s="15">
         <v>0</v>
       </c>
-      <c r="X10" s="15">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="15">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="15">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="15">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="15">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="15">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="15">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="15">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="15">
-        <v>0</v>
-      </c>
-      <c r="AG10" s="15">
-        <v>0</v>
-      </c>
-      <c r="AH10" s="15">
-        <v>0</v>
-      </c>
-      <c r="AI10" s="15">
-        <v>0</v>
-      </c>
-      <c r="AJ10" s="15">
-        <v>0</v>
-      </c>
-      <c r="AK10" s="15">
-        <v>0</v>
-      </c>
-      <c r="AL10" s="15">
-        <v>0</v>
-      </c>
-      <c r="AM10" s="15">
-        <v>0</v>
-      </c>
-      <c r="AN10" s="15">
-        <v>0</v>
-      </c>
-      <c r="AO10" s="15">
-        <v>0</v>
-      </c>
-      <c r="AP10" s="15">
-        <v>0</v>
-      </c>
-      <c r="AQ10" s="15">
-        <v>0</v>
-      </c>
-      <c r="AR10" s="15">
-        <v>0</v>
-      </c>
-      <c r="AS10" s="15">
-        <v>0</v>
-      </c>
-      <c r="AT10" s="15">
-        <v>0</v>
-      </c>
-      <c r="AU10" s="15">
-        <v>0</v>
-      </c>
-      <c r="AV10" s="15">
-        <v>0</v>
-      </c>
-      <c r="AW10" s="15">
-        <v>0</v>
-      </c>
-      <c r="AX10" s="15">
-        <v>0</v>
-      </c>
-      <c r="AY10" s="15">
-        <v>0</v>
-      </c>
-      <c r="AZ10" s="15">
-        <v>0</v>
-      </c>
-      <c r="BA10" s="15">
-        <v>0</v>
-      </c>
-      <c r="BB10" s="15">
-        <v>0</v>
-      </c>
-      <c r="BC10" s="15">
-        <v>0</v>
-      </c>
-      <c r="BD10" s="15">
-        <v>0</v>
-      </c>
-      <c r="BE10" s="15">
-        <v>0</v>
-      </c>
-      <c r="BF10" s="15">
-        <v>0</v>
-      </c>
-      <c r="BG10" s="15">
-        <v>0</v>
-      </c>
-      <c r="BH10" s="15">
-        <v>0</v>
-      </c>
-      <c r="BI10" s="15">
-        <v>0</v>
-      </c>
+      <c r="X10" s="15"/>
+      <c r="Y10" s="15"/>
+      <c r="Z10" s="15"/>
+      <c r="AA10" s="15"/>
+      <c r="AB10" s="15"/>
+      <c r="AC10" s="15"/>
+      <c r="AD10" s="15"/>
+      <c r="AE10" s="15"/>
+      <c r="AF10" s="15"/>
+      <c r="AG10" s="15"/>
+      <c r="AH10" s="15"/>
+      <c r="AI10" s="15"/>
+      <c r="AJ10" s="15"/>
+      <c r="AK10" s="15"/>
+      <c r="AL10" s="15"/>
+      <c r="AM10" s="15"/>
+      <c r="AN10" s="15"/>
+      <c r="AO10" s="15"/>
+      <c r="AP10" s="15"/>
+      <c r="AQ10" s="15"/>
+      <c r="AR10" s="15"/>
+      <c r="AS10" s="15"/>
+      <c r="AT10" s="15"/>
+      <c r="AU10" s="15"/>
+      <c r="AV10" s="15"/>
+      <c r="AW10" s="15"/>
+      <c r="AX10" s="15"/>
+      <c r="AY10" s="15"/>
+      <c r="AZ10" s="15"/>
+      <c r="BA10" s="15"/>
+      <c r="BB10" s="15"/>
+      <c r="BC10" s="15"/>
+      <c r="BD10" s="15"/>
+      <c r="BE10" s="15"/>
+      <c r="BF10" s="15"/>
+      <c r="BG10" s="15"/>
+      <c r="BH10" s="15"/>
+      <c r="BI10" s="15"/>
     </row>
     <row r="11" spans="1:61" x14ac:dyDescent="0.45">
       <c r="C11" s="11" t="s">
@@ -6459,189 +6105,75 @@
         <v>50.9</v>
       </c>
       <c r="P14" s="15">
-        <f t="shared" ref="P14:AE15" si="41">$N14</f>
+        <f t="shared" ref="P14:AE15" si="3">$N14</f>
         <v>50.9</v>
       </c>
       <c r="Q14" s="15">
-        <f t="shared" si="41"/>
+        <f t="shared" si="3"/>
         <v>50.9</v>
       </c>
       <c r="R14" s="15">
-        <f t="shared" si="41"/>
+        <f t="shared" si="3"/>
         <v>50.9</v>
       </c>
       <c r="S14" s="15">
-        <f t="shared" si="41"/>
+        <f t="shared" si="3"/>
         <v>50.9</v>
       </c>
       <c r="T14" s="15">
-        <f t="shared" si="41"/>
+        <f t="shared" si="3"/>
         <v>50.9</v>
       </c>
       <c r="U14" s="15">
-        <f t="shared" si="41"/>
+        <f t="shared" si="3"/>
         <v>50.9</v>
       </c>
       <c r="V14" s="15">
-        <f t="shared" si="41"/>
+        <f t="shared" si="3"/>
         <v>50.9</v>
       </c>
       <c r="W14" s="15">
-        <f t="shared" si="41"/>
+        <f t="shared" si="3"/>
         <v>50.9</v>
       </c>
-      <c r="X14" s="15">
-        <f t="shared" si="41"/>
-        <v>50.9</v>
-      </c>
-      <c r="Y14" s="15">
-        <f t="shared" si="41"/>
-        <v>50.9</v>
-      </c>
-      <c r="Z14" s="15">
-        <f t="shared" si="41"/>
-        <v>50.9</v>
-      </c>
-      <c r="AA14" s="15">
-        <f t="shared" si="41"/>
-        <v>50.9</v>
-      </c>
-      <c r="AB14" s="15">
-        <f t="shared" si="41"/>
-        <v>50.9</v>
-      </c>
-      <c r="AC14" s="15">
-        <f t="shared" si="41"/>
-        <v>50.9</v>
-      </c>
-      <c r="AD14" s="15">
-        <f t="shared" si="41"/>
-        <v>50.9</v>
-      </c>
-      <c r="AE14" s="15">
-        <f t="shared" si="41"/>
-        <v>50.9</v>
-      </c>
-      <c r="AF14" s="15">
-        <f t="shared" ref="AF14:BI15" si="42">$N14</f>
-        <v>50.9</v>
-      </c>
-      <c r="AG14" s="15">
-        <f t="shared" si="42"/>
-        <v>50.9</v>
-      </c>
-      <c r="AH14" s="15">
-        <f t="shared" si="42"/>
-        <v>50.9</v>
-      </c>
-      <c r="AI14" s="15">
-        <f t="shared" si="42"/>
-        <v>50.9</v>
-      </c>
-      <c r="AJ14" s="15">
-        <f t="shared" si="42"/>
-        <v>50.9</v>
-      </c>
-      <c r="AK14" s="15">
-        <f t="shared" si="42"/>
-        <v>50.9</v>
-      </c>
-      <c r="AL14" s="15">
-        <f t="shared" si="42"/>
-        <v>50.9</v>
-      </c>
-      <c r="AM14" s="15">
-        <f t="shared" si="42"/>
-        <v>50.9</v>
-      </c>
-      <c r="AN14" s="15">
-        <f t="shared" si="42"/>
-        <v>50.9</v>
-      </c>
-      <c r="AO14" s="15">
-        <f t="shared" si="42"/>
-        <v>50.9</v>
-      </c>
-      <c r="AP14" s="15">
-        <f t="shared" si="42"/>
-        <v>50.9</v>
-      </c>
-      <c r="AQ14" s="15">
-        <f t="shared" si="42"/>
-        <v>50.9</v>
-      </c>
-      <c r="AR14" s="15">
-        <f t="shared" si="42"/>
-        <v>50.9</v>
-      </c>
-      <c r="AS14" s="15">
-        <f t="shared" si="42"/>
-        <v>50.9</v>
-      </c>
-      <c r="AT14" s="15">
-        <f t="shared" si="42"/>
-        <v>50.9</v>
-      </c>
-      <c r="AU14" s="15">
-        <f t="shared" si="42"/>
-        <v>50.9</v>
-      </c>
-      <c r="AV14" s="15">
-        <f t="shared" si="42"/>
-        <v>50.9</v>
-      </c>
-      <c r="AW14" s="15">
-        <f t="shared" si="42"/>
-        <v>50.9</v>
-      </c>
-      <c r="AX14" s="15">
-        <f t="shared" si="42"/>
-        <v>50.9</v>
-      </c>
-      <c r="AY14" s="15">
-        <f t="shared" si="42"/>
-        <v>50.9</v>
-      </c>
-      <c r="AZ14" s="15">
-        <f t="shared" si="42"/>
-        <v>50.9</v>
-      </c>
-      <c r="BA14" s="15">
-        <f t="shared" si="42"/>
-        <v>50.9</v>
-      </c>
-      <c r="BB14" s="15">
-        <f t="shared" si="42"/>
-        <v>50.9</v>
-      </c>
-      <c r="BC14" s="15">
-        <f t="shared" si="42"/>
-        <v>50.9</v>
-      </c>
-      <c r="BD14" s="15">
-        <f t="shared" si="42"/>
-        <v>50.9</v>
-      </c>
-      <c r="BE14" s="15">
-        <f t="shared" si="42"/>
-        <v>50.9</v>
-      </c>
-      <c r="BF14" s="15">
-        <f t="shared" si="42"/>
-        <v>50.9</v>
-      </c>
-      <c r="BG14" s="15">
-        <f t="shared" si="42"/>
-        <v>50.9</v>
-      </c>
-      <c r="BH14" s="15">
-        <f t="shared" si="42"/>
-        <v>50.9</v>
-      </c>
-      <c r="BI14" s="15">
-        <f t="shared" si="42"/>
-        <v>50.9</v>
-      </c>
+      <c r="X14" s="15"/>
+      <c r="Y14" s="15"/>
+      <c r="Z14" s="15"/>
+      <c r="AA14" s="15"/>
+      <c r="AB14" s="15"/>
+      <c r="AC14" s="15"/>
+      <c r="AD14" s="15"/>
+      <c r="AE14" s="15"/>
+      <c r="AF14" s="15"/>
+      <c r="AG14" s="15"/>
+      <c r="AH14" s="15"/>
+      <c r="AI14" s="15"/>
+      <c r="AJ14" s="15"/>
+      <c r="AK14" s="15"/>
+      <c r="AL14" s="15"/>
+      <c r="AM14" s="15"/>
+      <c r="AN14" s="15"/>
+      <c r="AO14" s="15"/>
+      <c r="AP14" s="15"/>
+      <c r="AQ14" s="15"/>
+      <c r="AR14" s="15"/>
+      <c r="AS14" s="15"/>
+      <c r="AT14" s="15"/>
+      <c r="AU14" s="15"/>
+      <c r="AV14" s="15"/>
+      <c r="AW14" s="15"/>
+      <c r="AX14" s="15"/>
+      <c r="AY14" s="15"/>
+      <c r="AZ14" s="15"/>
+      <c r="BA14" s="15"/>
+      <c r="BB14" s="15"/>
+      <c r="BC14" s="15"/>
+      <c r="BD14" s="15"/>
+      <c r="BE14" s="15"/>
+      <c r="BF14" s="15"/>
+      <c r="BG14" s="15"/>
+      <c r="BH14" s="15"/>
+      <c r="BI14" s="15"/>
     </row>
     <row r="15" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A15" s="17">
@@ -6689,193 +6221,79 @@
         <v>311.60000000000002</v>
       </c>
       <c r="O15" s="15">
-        <f t="shared" ref="O15" si="43">$N15</f>
+        <f t="shared" ref="O15" si="4">$N15</f>
         <v>311.60000000000002</v>
       </c>
       <c r="P15" s="15">
-        <f t="shared" si="41"/>
+        <f t="shared" si="3"/>
         <v>311.60000000000002</v>
       </c>
       <c r="Q15" s="15">
-        <f t="shared" si="41"/>
+        <f t="shared" si="3"/>
         <v>311.60000000000002</v>
       </c>
       <c r="R15" s="15">
-        <f t="shared" si="41"/>
+        <f t="shared" si="3"/>
         <v>311.60000000000002</v>
       </c>
       <c r="S15" s="15">
-        <f t="shared" si="41"/>
+        <f t="shared" si="3"/>
         <v>311.60000000000002</v>
       </c>
       <c r="T15" s="15">
-        <f t="shared" si="41"/>
+        <f t="shared" si="3"/>
         <v>311.60000000000002</v>
       </c>
       <c r="U15" s="15">
-        <f t="shared" si="41"/>
+        <f t="shared" si="3"/>
         <v>311.60000000000002</v>
       </c>
       <c r="V15" s="15">
-        <f t="shared" si="41"/>
+        <f t="shared" si="3"/>
         <v>311.60000000000002</v>
       </c>
       <c r="W15" s="15">
-        <f t="shared" si="41"/>
+        <f t="shared" si="3"/>
         <v>311.60000000000002</v>
       </c>
-      <c r="X15" s="15">
-        <f t="shared" si="41"/>
-        <v>311.60000000000002</v>
-      </c>
-      <c r="Y15" s="15">
-        <f t="shared" si="41"/>
-        <v>311.60000000000002</v>
-      </c>
-      <c r="Z15" s="15">
-        <f t="shared" si="41"/>
-        <v>311.60000000000002</v>
-      </c>
-      <c r="AA15" s="15">
-        <f t="shared" si="41"/>
-        <v>311.60000000000002</v>
-      </c>
-      <c r="AB15" s="15">
-        <f t="shared" si="41"/>
-        <v>311.60000000000002</v>
-      </c>
-      <c r="AC15" s="15">
-        <f t="shared" si="41"/>
-        <v>311.60000000000002</v>
-      </c>
-      <c r="AD15" s="15">
-        <f t="shared" si="41"/>
-        <v>311.60000000000002</v>
-      </c>
-      <c r="AE15" s="15">
-        <f t="shared" si="41"/>
-        <v>311.60000000000002</v>
-      </c>
-      <c r="AF15" s="15">
-        <f t="shared" si="42"/>
-        <v>311.60000000000002</v>
-      </c>
-      <c r="AG15" s="15">
-        <f t="shared" si="42"/>
-        <v>311.60000000000002</v>
-      </c>
-      <c r="AH15" s="15">
-        <f t="shared" si="42"/>
-        <v>311.60000000000002</v>
-      </c>
-      <c r="AI15" s="15">
-        <f t="shared" si="42"/>
-        <v>311.60000000000002</v>
-      </c>
-      <c r="AJ15" s="15">
-        <f t="shared" si="42"/>
-        <v>311.60000000000002</v>
-      </c>
-      <c r="AK15" s="15">
-        <f t="shared" si="42"/>
-        <v>311.60000000000002</v>
-      </c>
-      <c r="AL15" s="15">
-        <f t="shared" si="42"/>
-        <v>311.60000000000002</v>
-      </c>
-      <c r="AM15" s="15">
-        <f t="shared" si="42"/>
-        <v>311.60000000000002</v>
-      </c>
-      <c r="AN15" s="15">
-        <f t="shared" si="42"/>
-        <v>311.60000000000002</v>
-      </c>
-      <c r="AO15" s="15">
-        <f t="shared" si="42"/>
-        <v>311.60000000000002</v>
-      </c>
-      <c r="AP15" s="15">
-        <f t="shared" si="42"/>
-        <v>311.60000000000002</v>
-      </c>
-      <c r="AQ15" s="15">
-        <f t="shared" si="42"/>
-        <v>311.60000000000002</v>
-      </c>
-      <c r="AR15" s="15">
-        <f t="shared" si="42"/>
-        <v>311.60000000000002</v>
-      </c>
-      <c r="AS15" s="15">
-        <f t="shared" si="42"/>
-        <v>311.60000000000002</v>
-      </c>
-      <c r="AT15" s="15">
-        <f t="shared" si="42"/>
-        <v>311.60000000000002</v>
-      </c>
-      <c r="AU15" s="15">
-        <f t="shared" si="42"/>
-        <v>311.60000000000002</v>
-      </c>
-      <c r="AV15" s="15">
-        <f t="shared" si="42"/>
-        <v>311.60000000000002</v>
-      </c>
-      <c r="AW15" s="15">
-        <f t="shared" si="42"/>
-        <v>311.60000000000002</v>
-      </c>
-      <c r="AX15" s="15">
-        <f t="shared" si="42"/>
-        <v>311.60000000000002</v>
-      </c>
-      <c r="AY15" s="15">
-        <f t="shared" si="42"/>
-        <v>311.60000000000002</v>
-      </c>
-      <c r="AZ15" s="15">
-        <f t="shared" si="42"/>
-        <v>311.60000000000002</v>
-      </c>
-      <c r="BA15" s="15">
-        <f t="shared" si="42"/>
-        <v>311.60000000000002</v>
-      </c>
-      <c r="BB15" s="15">
-        <f t="shared" si="42"/>
-        <v>311.60000000000002</v>
-      </c>
-      <c r="BC15" s="15">
-        <f t="shared" si="42"/>
-        <v>311.60000000000002</v>
-      </c>
-      <c r="BD15" s="15">
-        <f t="shared" si="42"/>
-        <v>311.60000000000002</v>
-      </c>
-      <c r="BE15" s="15">
-        <f t="shared" si="42"/>
-        <v>311.60000000000002</v>
-      </c>
-      <c r="BF15" s="15">
-        <f t="shared" si="42"/>
-        <v>311.60000000000002</v>
-      </c>
-      <c r="BG15" s="15">
-        <f t="shared" si="42"/>
-        <v>311.60000000000002</v>
-      </c>
-      <c r="BH15" s="15">
-        <f t="shared" si="42"/>
-        <v>311.60000000000002</v>
-      </c>
-      <c r="BI15" s="15">
-        <f t="shared" si="42"/>
-        <v>311.60000000000002</v>
-      </c>
+      <c r="X15" s="15"/>
+      <c r="Y15" s="15"/>
+      <c r="Z15" s="15"/>
+      <c r="AA15" s="15"/>
+      <c r="AB15" s="15"/>
+      <c r="AC15" s="15"/>
+      <c r="AD15" s="15"/>
+      <c r="AE15" s="15"/>
+      <c r="AF15" s="15"/>
+      <c r="AG15" s="15"/>
+      <c r="AH15" s="15"/>
+      <c r="AI15" s="15"/>
+      <c r="AJ15" s="15"/>
+      <c r="AK15" s="15"/>
+      <c r="AL15" s="15"/>
+      <c r="AM15" s="15"/>
+      <c r="AN15" s="15"/>
+      <c r="AO15" s="15"/>
+      <c r="AP15" s="15"/>
+      <c r="AQ15" s="15"/>
+      <c r="AR15" s="15"/>
+      <c r="AS15" s="15"/>
+      <c r="AT15" s="15"/>
+      <c r="AU15" s="15"/>
+      <c r="AV15" s="15"/>
+      <c r="AW15" s="15"/>
+      <c r="AX15" s="15"/>
+      <c r="AY15" s="15"/>
+      <c r="AZ15" s="15"/>
+      <c r="BA15" s="15"/>
+      <c r="BB15" s="15"/>
+      <c r="BC15" s="15"/>
+      <c r="BD15" s="15"/>
+      <c r="BE15" s="15"/>
+      <c r="BF15" s="15"/>
+      <c r="BG15" s="15"/>
+      <c r="BH15" s="15"/>
+      <c r="BI15" s="15"/>
     </row>
     <row r="16" spans="1:61" x14ac:dyDescent="0.45">
       <c r="A16" s="33" t="s">
@@ -6942,120 +6360,6 @@
         <v>0</v>
       </c>
       <c r="W16" s="15">
-        <v>0</v>
-      </c>
-      <c r="X16" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD16" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF16" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG16" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH16" s="9">
-        <v>0</v>
-      </c>
-      <c r="AI16" s="9">
-        <v>0</v>
-      </c>
-      <c r="AJ16" s="9">
-        <v>0</v>
-      </c>
-      <c r="AK16" s="9">
-        <v>0</v>
-      </c>
-      <c r="AL16" s="9">
-        <v>0</v>
-      </c>
-      <c r="AM16" s="9">
-        <v>0</v>
-      </c>
-      <c r="AN16" s="9">
-        <v>0</v>
-      </c>
-      <c r="AO16" s="9">
-        <v>0</v>
-      </c>
-      <c r="AP16" s="9">
-        <v>0</v>
-      </c>
-      <c r="AQ16" s="9">
-        <v>0</v>
-      </c>
-      <c r="AR16" s="9">
-        <v>0</v>
-      </c>
-      <c r="AS16" s="9">
-        <v>0</v>
-      </c>
-      <c r="AT16" s="9">
-        <v>0</v>
-      </c>
-      <c r="AU16" s="9">
-        <v>0</v>
-      </c>
-      <c r="AV16" s="9">
-        <v>0</v>
-      </c>
-      <c r="AW16" s="9">
-        <v>0</v>
-      </c>
-      <c r="AX16" s="9">
-        <v>0</v>
-      </c>
-      <c r="AY16" s="9">
-        <v>0</v>
-      </c>
-      <c r="AZ16" s="9">
-        <v>0</v>
-      </c>
-      <c r="BA16" s="9">
-        <v>0</v>
-      </c>
-      <c r="BB16" s="9">
-        <v>0</v>
-      </c>
-      <c r="BC16" s="9">
-        <v>0</v>
-      </c>
-      <c r="BD16" s="9">
-        <v>0</v>
-      </c>
-      <c r="BE16" s="9">
-        <v>0</v>
-      </c>
-      <c r="BF16" s="9">
-        <v>0</v>
-      </c>
-      <c r="BG16" s="9">
-        <v>0</v>
-      </c>
-      <c r="BH16" s="9">
-        <v>0</v>
-      </c>
-      <c r="BI16" s="9">
         <v>0</v>
       </c>
     </row>
@@ -7116,27 +6420,27 @@
         <v>110</v>
       </c>
       <c r="D19" s="15">
-        <f t="shared" ref="D19:I19" si="44">SUM(D22:D24)</f>
+        <f t="shared" ref="D19:I19" si="5">SUM(D22:D24)</f>
         <v>249890</v>
       </c>
       <c r="E19" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="5"/>
         <v>249326</v>
       </c>
       <c r="F19" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="5"/>
         <v>250149</v>
       </c>
       <c r="G19" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="5"/>
         <v>251168</v>
       </c>
       <c r="H19" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="5"/>
         <v>252605</v>
       </c>
       <c r="I19" s="15">
-        <f t="shared" si="44"/>
+        <f t="shared" si="5"/>
         <v>249228</v>
       </c>
       <c r="J19" s="15">
@@ -7144,55 +6448,55 @@
         <v>254208</v>
       </c>
       <c r="K19" s="15">
-        <f t="shared" ref="K19:W19" si="45">SUM(K22:K24)</f>
+        <f t="shared" ref="K19:W19" si="6">SUM(K22:K24)</f>
         <v>273754</v>
       </c>
       <c r="L19" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="6"/>
         <v>255119</v>
       </c>
       <c r="M19" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="6"/>
         <v>251852</v>
       </c>
       <c r="N19" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="6"/>
         <v>167104.39200000005</v>
       </c>
       <c r="O19" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="6"/>
         <v>177155.78399999999</v>
       </c>
       <c r="P19" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="6"/>
         <v>187207.17600000001</v>
       </c>
       <c r="Q19" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="6"/>
         <v>197258.56799999997</v>
       </c>
       <c r="R19" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="6"/>
         <v>207309.96</v>
       </c>
       <c r="S19" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="6"/>
         <v>217361.35199999998</v>
       </c>
       <c r="T19" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="6"/>
         <v>227412.74399999998</v>
       </c>
       <c r="U19" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="6"/>
         <v>237464.13599999994</v>
       </c>
       <c r="V19" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="6"/>
         <v>247515.52799999993</v>
       </c>
       <c r="W19" s="15">
-        <f t="shared" si="45"/>
+        <f t="shared" si="6"/>
         <v>257566.91999999998</v>
       </c>
     </row>
@@ -7909,7 +7213,7 @@
         <v>19433.292607499701</v>
       </c>
     </row>
-    <row r="33" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A33" s="33" t="s">
         <v>129</v>
       </c>
@@ -7977,7 +7281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.45">
       <c r="D34" s="15"/>
       <c r="E34" s="15"/>
       <c r="F34" s="15"/>
@@ -7999,7 +7303,7 @@
       <c r="V34" s="15"/>
       <c r="W34" s="15"/>
     </row>
-    <row r="35" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A35" s="15" t="s">
         <v>131</v>
       </c>
@@ -8080,7 +7384,7 @@
         <v>47146.999780717277</v>
       </c>
     </row>
-    <row r="36" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A36" s="17">
         <f>21552100/1000</f>
         <v>21552.1</v>
@@ -8159,7 +7463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A37" s="33" t="s">
         <v>129</v>
       </c>
@@ -8227,7 +7531,7 @@
         <v>-48550.104184696655</v>
       </c>
     </row>
-    <row r="38" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.45">
       <c r="D38" s="15"/>
       <c r="E38" s="15"/>
       <c r="F38" s="15"/>
@@ -8249,7 +7553,7 @@
       <c r="V38" s="15"/>
       <c r="W38" s="15"/>
     </row>
-    <row r="39" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A39" s="15" t="s">
         <v>132</v>
       </c>
@@ -8330,7 +7634,7 @@
         <v>14450.875000000004</v>
       </c>
     </row>
-    <row r="40" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A40" s="33">
         <f>29252892.5581395/1000</f>
         <v>29252.892558139498</v>
@@ -8399,7 +7703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A41" s="33" t="s">
         <v>129</v>
       </c>
@@ -8467,7 +7771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A43" s="15" t="s">
         <v>133</v>
       </c>
@@ -8558,7 +7862,7 @@
         <v>5622.0845070422547</v>
       </c>
     </row>
-    <row r="44" spans="1:61" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:24" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A44" s="15" t="s">
         <v>135</v>
       </c>
@@ -8574,39 +7878,39 @@
         <v>1424</v>
       </c>
       <c r="E44" s="15">
-        <f t="shared" ref="E44:M44" si="46">E46+E45-E43</f>
+        <f t="shared" ref="E44:M44" si="7">E46+E45-E43</f>
         <v>1159</v>
       </c>
       <c r="F44" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="7"/>
         <v>1398</v>
       </c>
       <c r="G44" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="7"/>
         <v>833</v>
       </c>
       <c r="H44" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="7"/>
         <v>557</v>
       </c>
       <c r="I44" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="7"/>
         <v>947</v>
       </c>
       <c r="J44" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="7"/>
         <v>790</v>
       </c>
       <c r="K44" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="7"/>
         <v>317</v>
       </c>
       <c r="L44" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="7"/>
         <v>249</v>
       </c>
       <c r="M44" s="15">
-        <f t="shared" si="46"/>
+        <f t="shared" si="7"/>
         <v>841</v>
       </c>
       <c r="N44" s="15">
@@ -8651,7 +7955,7 @@
       </c>
       <c r="X44" s="19"/>
     </row>
-    <row r="45" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A45" s="15" t="s">
         <v>136</v>
       </c>
@@ -8741,122 +8045,8 @@
         <f>'PDE-O&amp;G'!O48</f>
         <v>0</v>
       </c>
-      <c r="X45" s="9">
-        <v>0</v>
-      </c>
-      <c r="Y45" s="9">
-        <v>0</v>
-      </c>
-      <c r="Z45" s="9">
-        <v>0</v>
-      </c>
-      <c r="AA45" s="9">
-        <v>0</v>
-      </c>
-      <c r="AB45" s="9">
-        <v>0</v>
-      </c>
-      <c r="AC45" s="9">
-        <v>0</v>
-      </c>
-      <c r="AD45" s="9">
-        <v>0</v>
-      </c>
-      <c r="AE45" s="9">
-        <v>0</v>
-      </c>
-      <c r="AF45" s="9">
-        <v>0</v>
-      </c>
-      <c r="AG45" s="9">
-        <v>0</v>
-      </c>
-      <c r="AH45" s="9">
-        <v>0</v>
-      </c>
-      <c r="AI45" s="9">
-        <v>0</v>
-      </c>
-      <c r="AJ45" s="9">
-        <v>0</v>
-      </c>
-      <c r="AK45" s="9">
-        <v>0</v>
-      </c>
-      <c r="AL45" s="9">
-        <v>0</v>
-      </c>
-      <c r="AM45" s="9">
-        <v>0</v>
-      </c>
-      <c r="AN45" s="9">
-        <v>0</v>
-      </c>
-      <c r="AO45" s="9">
-        <v>0</v>
-      </c>
-      <c r="AP45" s="9">
-        <v>0</v>
-      </c>
-      <c r="AQ45" s="9">
-        <v>0</v>
-      </c>
-      <c r="AR45" s="9">
-        <v>0</v>
-      </c>
-      <c r="AS45" s="9">
-        <v>0</v>
-      </c>
-      <c r="AT45" s="9">
-        <v>0</v>
-      </c>
-      <c r="AU45" s="9">
-        <v>0</v>
-      </c>
-      <c r="AV45" s="9">
-        <v>0</v>
-      </c>
-      <c r="AW45" s="9">
-        <v>0</v>
-      </c>
-      <c r="AX45" s="9">
-        <v>0</v>
-      </c>
-      <c r="AY45" s="9">
-        <v>0</v>
-      </c>
-      <c r="AZ45" s="9">
-        <v>0</v>
-      </c>
-      <c r="BA45" s="9">
-        <v>0</v>
-      </c>
-      <c r="BB45" s="9">
-        <v>0</v>
-      </c>
-      <c r="BC45" s="9">
-        <v>0</v>
-      </c>
-      <c r="BD45" s="9">
-        <v>0</v>
-      </c>
-      <c r="BE45" s="9">
-        <v>0</v>
-      </c>
-      <c r="BF45" s="9">
-        <v>0</v>
-      </c>
-      <c r="BG45" s="9">
-        <v>0</v>
-      </c>
-      <c r="BH45" s="9">
-        <v>0</v>
-      </c>
-      <c r="BI45" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:61" x14ac:dyDescent="0.45">
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A46" s="15" t="s">
         <v>138</v>
       </c>
@@ -8934,7 +8124,7 @@
         <v>7500.7499999999991</v>
       </c>
     </row>
-    <row r="47" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.45">
       <c r="D47" s="15"/>
       <c r="E47" s="15"/>
       <c r="F47" s="15"/>
@@ -8946,7 +8136,7 @@
       <c r="L47" s="15"/>
       <c r="M47" s="15"/>
     </row>
-    <row r="48" spans="1:61" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:24" x14ac:dyDescent="0.45">
       <c r="A48" s="17"/>
       <c r="B48" s="16"/>
       <c r="D48" s="15"/>
@@ -9009,35 +8199,35 @@
         <v>5555.833333333333</v>
       </c>
       <c r="P49" s="15">
-        <f t="shared" ref="P49:W49" si="47">$N49</f>
+        <f t="shared" ref="P49:W49" si="8">$N49</f>
         <v>5555.833333333333</v>
       </c>
       <c r="Q49" s="15">
-        <f t="shared" si="47"/>
+        <f t="shared" si="8"/>
         <v>5555.833333333333</v>
       </c>
       <c r="R49" s="15">
-        <f t="shared" si="47"/>
+        <f t="shared" si="8"/>
         <v>5555.833333333333</v>
       </c>
       <c r="S49" s="15">
-        <f t="shared" si="47"/>
+        <f t="shared" si="8"/>
         <v>5555.833333333333</v>
       </c>
       <c r="T49" s="15">
-        <f t="shared" si="47"/>
+        <f t="shared" si="8"/>
         <v>5555.833333333333</v>
       </c>
       <c r="U49" s="15">
-        <f t="shared" si="47"/>
+        <f t="shared" si="8"/>
         <v>5555.833333333333</v>
       </c>
       <c r="V49" s="15">
-        <f t="shared" si="47"/>
+        <f t="shared" si="8"/>
         <v>5555.833333333333</v>
       </c>
       <c r="W49" s="15">
-        <f t="shared" si="47"/>
+        <f t="shared" si="8"/>
         <v>5555.833333333333</v>
       </c>
     </row>
@@ -9088,35 +8278,35 @@
         <v>8370.1666666666661</v>
       </c>
       <c r="P50" s="15">
-        <f t="shared" ref="P50:W50" si="48">$N50</f>
+        <f t="shared" ref="P50:W50" si="9">$N50</f>
         <v>8370.1666666666661</v>
       </c>
       <c r="Q50" s="15">
-        <f t="shared" si="48"/>
+        <f t="shared" si="9"/>
         <v>8370.1666666666661</v>
       </c>
       <c r="R50" s="15">
-        <f t="shared" si="48"/>
+        <f t="shared" si="9"/>
         <v>8370.1666666666661</v>
       </c>
       <c r="S50" s="15">
-        <f t="shared" si="48"/>
+        <f t="shared" si="9"/>
         <v>8370.1666666666661</v>
       </c>
       <c r="T50" s="15">
-        <f t="shared" si="48"/>
+        <f t="shared" si="9"/>
         <v>8370.1666666666661</v>
       </c>
       <c r="U50" s="15">
-        <f t="shared" si="48"/>
+        <f t="shared" si="9"/>
         <v>8370.1666666666661</v>
       </c>
       <c r="V50" s="15">
-        <f t="shared" si="48"/>
+        <f t="shared" si="9"/>
         <v>8370.1666666666661</v>
       </c>
       <c r="W50" s="15">
-        <f t="shared" si="48"/>
+        <f t="shared" si="9"/>
         <v>8370.1666666666661</v>
       </c>
     </row>
@@ -10074,8 +9264,8 @@
   </sheetPr>
   <dimension ref="A1:BA22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
-      <selection activeCell="AW24" sqref="AW24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -10133,115 +9323,115 @@
       <c r="P1" s="5">
         <v>2033</v>
       </c>
-      <c r="Q1">
+      <c r="Q1" s="5">
         <v>2034</v>
       </c>
       <c r="R1" s="5">
         <v>2035</v>
       </c>
-      <c r="S1">
+      <c r="S1" s="5">
         <v>2036</v>
       </c>
       <c r="T1" s="5">
         <v>2037</v>
       </c>
-      <c r="U1">
+      <c r="U1" s="5">
         <v>2038</v>
       </c>
       <c r="V1" s="5">
         <v>2039</v>
       </c>
-      <c r="W1">
+      <c r="W1" s="5">
         <v>2040</v>
       </c>
       <c r="X1" s="5">
         <v>2041</v>
       </c>
-      <c r="Y1">
+      <c r="Y1" s="5">
         <v>2042</v>
       </c>
       <c r="Z1" s="5">
         <v>2043</v>
       </c>
-      <c r="AA1">
+      <c r="AA1" s="5">
         <v>2044</v>
       </c>
       <c r="AB1" s="5">
         <v>2045</v>
       </c>
-      <c r="AC1">
+      <c r="AC1" s="5">
         <v>2046</v>
       </c>
       <c r="AD1" s="5">
         <v>2047</v>
       </c>
-      <c r="AE1">
+      <c r="AE1" s="5">
         <v>2048</v>
       </c>
       <c r="AF1" s="5">
         <v>2049</v>
       </c>
-      <c r="AG1">
+      <c r="AG1" s="5">
         <v>2050</v>
       </c>
       <c r="AH1" s="5">
         <v>2051</v>
       </c>
-      <c r="AI1">
+      <c r="AI1" s="5">
         <v>2052</v>
       </c>
       <c r="AJ1" s="5">
         <v>2053</v>
       </c>
-      <c r="AK1">
+      <c r="AK1" s="5">
         <v>2054</v>
       </c>
       <c r="AL1" s="5">
         <v>2055</v>
       </c>
-      <c r="AM1">
+      <c r="AM1" s="5">
         <v>2056</v>
       </c>
       <c r="AN1" s="5">
         <v>2057</v>
       </c>
-      <c r="AO1">
+      <c r="AO1" s="5">
         <v>2058</v>
       </c>
       <c r="AP1" s="5">
         <v>2059</v>
       </c>
-      <c r="AQ1">
+      <c r="AQ1" s="5">
         <v>2060</v>
       </c>
       <c r="AR1" s="5">
         <v>2061</v>
       </c>
-      <c r="AS1">
+      <c r="AS1" s="5">
         <v>2062</v>
       </c>
       <c r="AT1" s="5">
         <v>2063</v>
       </c>
-      <c r="AU1">
+      <c r="AU1" s="5">
         <v>2064</v>
       </c>
       <c r="AV1" s="5">
         <v>2065</v>
       </c>
-      <c r="AW1">
+      <c r="AW1" s="5">
         <v>2066</v>
       </c>
       <c r="AX1" s="5">
         <v>2067</v>
       </c>
-      <c r="AY1">
+      <c r="AY1" s="5">
         <v>2068</v>
       </c>
       <c r="AZ1" s="5">
         <v>2069</v>
       </c>
-      <c r="BA1">
+      <c r="BA1" s="5">
         <v>2070</v>
       </c>
     </row>
@@ -10467,155 +9657,117 @@
         <v>0</v>
       </c>
       <c r="P3" s="7">
-        <f>BEN!$A$5*BEN!X4</f>
         <v>0</v>
       </c>
       <c r="Q3" s="7">
-        <f>BEN!$A$5*BEN!Y4</f>
         <v>0</v>
       </c>
       <c r="R3" s="7">
-        <f>BEN!$A$5*BEN!Z4</f>
         <v>0</v>
       </c>
       <c r="S3" s="7">
-        <f>BEN!$A$5*BEN!AA4</f>
         <v>0</v>
       </c>
       <c r="T3" s="7">
-        <f>BEN!$A$5*BEN!AB4</f>
         <v>0</v>
       </c>
       <c r="U3" s="7">
-        <f>BEN!$A$5*BEN!AC4</f>
         <v>0</v>
       </c>
       <c r="V3" s="7">
-        <f>BEN!$A$5*BEN!AD4</f>
         <v>0</v>
       </c>
       <c r="W3" s="7">
-        <f>BEN!$A$5*BEN!AE4</f>
         <v>0</v>
       </c>
       <c r="X3" s="7">
-        <f>BEN!$A$5*BEN!AF4</f>
         <v>0</v>
       </c>
       <c r="Y3" s="7">
-        <f>BEN!$A$5*BEN!AG4</f>
         <v>0</v>
       </c>
       <c r="Z3" s="7">
-        <f>BEN!$A$5*BEN!AH4</f>
         <v>0</v>
       </c>
       <c r="AA3" s="7">
-        <f>BEN!$A$5*BEN!AI4</f>
         <v>0</v>
       </c>
       <c r="AB3" s="7">
-        <f>BEN!$A$5*BEN!AJ4</f>
         <v>0</v>
       </c>
       <c r="AC3" s="7">
-        <f>BEN!$A$5*BEN!AK4</f>
         <v>0</v>
       </c>
       <c r="AD3" s="7">
-        <f>BEN!$A$5*BEN!AL4</f>
         <v>0</v>
       </c>
       <c r="AE3" s="7">
-        <f>BEN!$A$5*BEN!AM4</f>
         <v>0</v>
       </c>
       <c r="AF3" s="7">
-        <f>BEN!$A$5*BEN!AN4</f>
         <v>0</v>
       </c>
       <c r="AG3" s="7">
-        <f>BEN!$A$5*BEN!AO4</f>
         <v>0</v>
       </c>
       <c r="AH3" s="7">
-        <f>BEN!$A$5*BEN!AP4</f>
         <v>0</v>
       </c>
       <c r="AI3" s="7">
-        <f>BEN!$A$5*BEN!AQ4</f>
         <v>0</v>
       </c>
       <c r="AJ3" s="7">
-        <f>BEN!$A$5*BEN!AR4</f>
         <v>0</v>
       </c>
       <c r="AK3" s="7">
-        <f>BEN!$A$5*BEN!AS4</f>
         <v>0</v>
       </c>
       <c r="AL3" s="7">
-        <f>BEN!$A$5*BEN!AT4</f>
         <v>0</v>
       </c>
       <c r="AM3" s="7">
-        <f>BEN!$A$5*BEN!AU4</f>
         <v>0</v>
       </c>
       <c r="AN3" s="7">
-        <f>BEN!$A$5*BEN!AV4</f>
         <v>0</v>
       </c>
       <c r="AO3" s="7">
-        <f>BEN!$A$5*BEN!AW4</f>
         <v>0</v>
       </c>
       <c r="AP3" s="7">
-        <f>BEN!$A$5*BEN!AX4</f>
         <v>0</v>
       </c>
       <c r="AQ3" s="7">
-        <f>BEN!$A$5*BEN!AY4</f>
         <v>0</v>
       </c>
       <c r="AR3" s="7">
-        <f>BEN!$A$5*BEN!AZ4</f>
         <v>0</v>
       </c>
       <c r="AS3" s="7">
-        <f>BEN!$A$5*BEN!BA4</f>
         <v>0</v>
       </c>
       <c r="AT3" s="7">
-        <f>BEN!$A$5*BEN!BB4</f>
         <v>0</v>
       </c>
       <c r="AU3" s="7">
-        <f>BEN!$A$5*BEN!BC4</f>
         <v>0</v>
       </c>
       <c r="AV3" s="7">
-        <f>BEN!$A$5*BEN!BD4</f>
         <v>0</v>
       </c>
       <c r="AW3" s="7">
-        <f>BEN!$A$5*BEN!BE4</f>
         <v>0</v>
       </c>
       <c r="AX3" s="7">
-        <f>BEN!$A$5*BEN!BF4</f>
         <v>0</v>
       </c>
       <c r="AY3" s="7">
-        <f>BEN!$A$5*BEN!BG4</f>
         <v>0</v>
       </c>
       <c r="AZ3" s="7">
-        <f>BEN!$A$5*BEN!BH4</f>
         <v>0</v>
       </c>
       <c r="BA3" s="7">
-        <f>BEN!$A$5*BEN!BI4</f>
         <v>0</v>
       </c>
     </row>
@@ -10680,75 +9832,117 @@
         <v>1927054</v>
       </c>
       <c r="P4" s="8">
-        <f>BEN!$A$9*BEN!X8</f>
         <v>0</v>
       </c>
       <c r="Q4" s="8">
-        <f>BEN!$A$9*BEN!Y8</f>
         <v>0</v>
       </c>
       <c r="R4" s="8">
-        <f>BEN!$A$9*BEN!Z8</f>
         <v>0</v>
       </c>
       <c r="S4" s="8">
-        <f>BEN!$A$9*BEN!AA8</f>
         <v>0</v>
       </c>
       <c r="T4" s="8">
-        <f>BEN!$A$9*BEN!AB8</f>
         <v>0</v>
       </c>
       <c r="U4" s="8">
-        <f>BEN!$A$9*BEN!AC8</f>
         <v>0</v>
       </c>
       <c r="V4" s="8">
-        <f>BEN!$A$9*BEN!AD8</f>
         <v>0</v>
       </c>
       <c r="W4" s="8">
-        <f>BEN!$A$9*BEN!AE8</f>
         <v>0</v>
       </c>
       <c r="X4" s="8">
-        <f>BEN!$A$9*BEN!AF8</f>
         <v>0</v>
       </c>
       <c r="Y4" s="8">
-        <f>BEN!$A$9*BEN!AG8</f>
         <v>0</v>
       </c>
       <c r="Z4" s="8">
-        <f>BEN!$A$9*BEN!AH8</f>
         <v>0</v>
       </c>
       <c r="AA4" s="8">
-        <f>BEN!$A$9*BEN!AI8</f>
         <v>0</v>
       </c>
       <c r="AB4" s="8">
-        <f>BEN!$A$9*BEN!AJ8</f>
         <v>0</v>
       </c>
       <c r="AC4" s="8">
-        <f>BEN!$A$9*BEN!AK8</f>
         <v>0</v>
       </c>
       <c r="AD4" s="8">
-        <f>BEN!$A$9*BEN!AL8</f>
         <v>0</v>
       </c>
       <c r="AE4" s="8">
-        <f>BEN!$A$9*BEN!AM8</f>
         <v>0</v>
       </c>
       <c r="AF4" s="8">
-        <f>BEN!$A$9*BEN!AN8</f>
         <v>0</v>
       </c>
       <c r="AG4" s="8">
-        <f>BEN!$A$9*BEN!AO8</f>
+        <v>0</v>
+      </c>
+      <c r="AH4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AP4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AR4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AS4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AT4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AU4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AV4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AW4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AX4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AY4" s="8">
+        <v>0</v>
+      </c>
+      <c r="AZ4" s="8">
+        <v>0</v>
+      </c>
+      <c r="BA4" s="8">
         <v>0</v>
       </c>
     </row>
@@ -10813,156 +10007,118 @@
         <v>7023457.1763804527</v>
       </c>
       <c r="P5" s="7">
-        <f>BEN!$A$15*BEN!X14</f>
-        <v>7023457.1763804527</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="7">
-        <f>BEN!$A$15*BEN!Y14</f>
-        <v>7023457.1763804527</v>
+        <v>0</v>
       </c>
       <c r="R5" s="7">
-        <f>BEN!$A$15*BEN!Z14</f>
-        <v>7023457.1763804527</v>
+        <v>0</v>
       </c>
       <c r="S5" s="7">
-        <f>BEN!$A$15*BEN!AA14</f>
-        <v>7023457.1763804527</v>
+        <v>0</v>
       </c>
       <c r="T5" s="7">
-        <f>BEN!$A$15*BEN!AB14</f>
-        <v>7023457.1763804527</v>
+        <v>0</v>
       </c>
       <c r="U5" s="7">
-        <f>BEN!$A$15*BEN!AC14</f>
-        <v>7023457.1763804527</v>
+        <v>0</v>
       </c>
       <c r="V5" s="7">
-        <f>BEN!$A$15*BEN!AD14</f>
-        <v>7023457.1763804527</v>
+        <v>0</v>
       </c>
       <c r="W5" s="7">
-        <f>BEN!$A$15*BEN!AE14</f>
-        <v>7023457.1763804527</v>
+        <v>0</v>
       </c>
       <c r="X5" s="7">
-        <f>BEN!$A$15*BEN!AF14</f>
-        <v>7023457.1763804527</v>
+        <v>0</v>
       </c>
       <c r="Y5" s="7">
-        <f>BEN!$A$15*BEN!AG14</f>
-        <v>7023457.1763804527</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="7">
-        <f>BEN!$A$15*BEN!AH14</f>
-        <v>7023457.1763804527</v>
+        <v>0</v>
       </c>
       <c r="AA5" s="7">
-        <f>BEN!$A$15*BEN!AI14</f>
-        <v>7023457.1763804527</v>
+        <v>0</v>
       </c>
       <c r="AB5" s="7">
-        <f>BEN!$A$15*BEN!AJ14</f>
-        <v>7023457.1763804527</v>
+        <v>0</v>
       </c>
       <c r="AC5" s="7">
-        <f>BEN!$A$15*BEN!AK14</f>
-        <v>7023457.1763804527</v>
+        <v>0</v>
       </c>
       <c r="AD5" s="7">
-        <f>BEN!$A$15*BEN!AL14</f>
-        <v>7023457.1763804527</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="7">
-        <f>BEN!$A$15*BEN!AM14</f>
-        <v>7023457.1763804527</v>
+        <v>0</v>
       </c>
       <c r="AF5" s="7">
-        <f>BEN!$A$15*BEN!AN14</f>
-        <v>7023457.1763804527</v>
+        <v>0</v>
       </c>
       <c r="AG5" s="7">
-        <f>BEN!$A$15*BEN!AO14</f>
-        <v>7023457.1763804527</v>
+        <v>0</v>
       </c>
       <c r="AH5" s="7">
-        <f>BEN!$A$15*BEN!AP14</f>
-        <v>7023457.1763804527</v>
+        <v>0</v>
       </c>
       <c r="AI5" s="7">
-        <f>BEN!$A$15*BEN!AQ14</f>
-        <v>7023457.1763804527</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="7">
-        <f>BEN!$A$15*BEN!AR14</f>
-        <v>7023457.1763804527</v>
+        <v>0</v>
       </c>
       <c r="AK5" s="7">
-        <f>BEN!$A$15*BEN!AS14</f>
-        <v>7023457.1763804527</v>
+        <v>0</v>
       </c>
       <c r="AL5" s="7">
-        <f>BEN!$A$15*BEN!AT14</f>
-        <v>7023457.1763804527</v>
+        <v>0</v>
       </c>
       <c r="AM5" s="7">
-        <f>BEN!$A$15*BEN!AU14</f>
-        <v>7023457.1763804527</v>
+        <v>0</v>
       </c>
       <c r="AN5" s="7">
-        <f>BEN!$A$15*BEN!AV14</f>
-        <v>7023457.1763804527</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="7">
-        <f>BEN!$A$15*BEN!AW14</f>
-        <v>7023457.1763804527</v>
+        <v>0</v>
       </c>
       <c r="AP5" s="7">
-        <f>BEN!$A$15*BEN!AX14</f>
-        <v>7023457.1763804527</v>
+        <v>0</v>
       </c>
       <c r="AQ5" s="7">
-        <f>BEN!$A$15*BEN!AY14</f>
-        <v>7023457.1763804527</v>
+        <v>0</v>
       </c>
       <c r="AR5" s="7">
-        <f>BEN!$A$15*BEN!AZ14</f>
-        <v>7023457.1763804527</v>
+        <v>0</v>
       </c>
       <c r="AS5" s="7">
-        <f>BEN!$A$15*BEN!BA14</f>
-        <v>7023457.1763804527</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="7">
-        <f>BEN!$A$15*BEN!BB14</f>
-        <v>7023457.1763804527</v>
+        <v>0</v>
       </c>
       <c r="AU5" s="7">
-        <f>BEN!$A$15*BEN!BC14</f>
-        <v>7023457.1763804527</v>
+        <v>0</v>
       </c>
       <c r="AV5" s="7">
-        <f>BEN!$A$15*BEN!BD14</f>
-        <v>7023457.1763804527</v>
+        <v>0</v>
       </c>
       <c r="AW5" s="7">
-        <f>BEN!$A$15*BEN!BE14</f>
-        <v>7023457.1763804527</v>
+        <v>0</v>
       </c>
       <c r="AX5" s="7">
-        <f>BEN!$A$15*BEN!BF14</f>
-        <v>7023457.1763804527</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="7">
-        <f>BEN!$A$15*BEN!BG14</f>
-        <v>7023457.1763804527</v>
+        <v>0</v>
       </c>
       <c r="AZ5" s="7">
-        <f>BEN!$A$15*BEN!BH14</f>
-        <v>7023457.1763804527</v>
+        <v>0</v>
       </c>
       <c r="BA5" s="7">
-        <f>BEN!$A$15*BEN!BI14</f>
-        <v>7023457.1763804527</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.45">
@@ -11509,75 +10665,117 @@
         <v>2176440474</v>
       </c>
       <c r="P9" s="7">
-        <f>BEN!$A$20*BEN!X19</f>
         <v>0</v>
       </c>
       <c r="Q9" s="7">
-        <f>BEN!$A$20*BEN!Y19</f>
         <v>0</v>
       </c>
       <c r="R9" s="7">
-        <f>BEN!$A$20*BEN!Z19</f>
         <v>0</v>
       </c>
       <c r="S9" s="7">
-        <f>BEN!$A$20*BEN!AA19</f>
         <v>0</v>
       </c>
       <c r="T9" s="7">
-        <f>BEN!$A$20*BEN!AB19</f>
         <v>0</v>
       </c>
       <c r="U9" s="7">
-        <f>BEN!$A$20*BEN!AC19</f>
         <v>0</v>
       </c>
       <c r="V9" s="7">
-        <f>BEN!$A$20*BEN!AD19</f>
         <v>0</v>
       </c>
       <c r="W9" s="7">
-        <f>BEN!$A$20*BEN!AE19</f>
         <v>0</v>
       </c>
       <c r="X9" s="7">
-        <f>BEN!$A$20*BEN!AF19</f>
         <v>0</v>
       </c>
       <c r="Y9" s="7">
-        <f>BEN!$A$20*BEN!AG19</f>
         <v>0</v>
       </c>
       <c r="Z9" s="7">
-        <f>BEN!$A$20*BEN!AH19</f>
         <v>0</v>
       </c>
       <c r="AA9" s="7">
-        <f>BEN!$A$20*BEN!AI19</f>
         <v>0</v>
       </c>
       <c r="AB9" s="7">
-        <f>BEN!$A$20*BEN!AJ19</f>
         <v>0</v>
       </c>
       <c r="AC9" s="7">
-        <f>BEN!$A$20*BEN!AK19</f>
         <v>0</v>
       </c>
       <c r="AD9" s="7">
-        <f>BEN!$A$20*BEN!AL19</f>
         <v>0</v>
       </c>
       <c r="AE9" s="7">
-        <f>BEN!$A$20*BEN!AM19</f>
         <v>0</v>
       </c>
       <c r="AF9" s="7">
-        <f>BEN!$A$20*BEN!AN19</f>
         <v>0</v>
       </c>
       <c r="AG9" s="7">
-        <f>BEN!$A$20*BEN!AO19</f>
+        <v>0</v>
+      </c>
+      <c r="AH9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AY9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AZ9" s="7">
+        <v>0</v>
+      </c>
+      <c r="BA9" s="7">
         <v>0</v>
       </c>
     </row>
@@ -11642,75 +10840,117 @@
         <v>811722387.34451604</v>
       </c>
       <c r="P10" s="7">
-        <f>BEN!$A$28*BEN!X27</f>
         <v>0</v>
       </c>
       <c r="Q10" s="7">
-        <f>BEN!$A$28*BEN!Y27</f>
         <v>0</v>
       </c>
       <c r="R10" s="7">
-        <f>BEN!$A$28*BEN!Z27</f>
         <v>0</v>
       </c>
       <c r="S10" s="7">
-        <f>BEN!$A$28*BEN!AA27</f>
         <v>0</v>
       </c>
       <c r="T10" s="7">
-        <f>BEN!$A$28*BEN!AB27</f>
         <v>0</v>
       </c>
       <c r="U10" s="7">
-        <f>BEN!$A$28*BEN!AC27</f>
         <v>0</v>
       </c>
       <c r="V10" s="7">
-        <f>BEN!$A$28*BEN!AD27</f>
         <v>0</v>
       </c>
       <c r="W10" s="7">
-        <f>BEN!$A$28*BEN!AE27</f>
         <v>0</v>
       </c>
       <c r="X10" s="7">
-        <f>BEN!$A$28*BEN!AF27</f>
         <v>0</v>
       </c>
       <c r="Y10" s="7">
-        <f>BEN!$A$28*BEN!AG27</f>
         <v>0</v>
       </c>
       <c r="Z10" s="7">
-        <f>BEN!$A$28*BEN!AH27</f>
         <v>0</v>
       </c>
       <c r="AA10" s="7">
-        <f>BEN!$A$28*BEN!AI27</f>
         <v>0</v>
       </c>
       <c r="AB10" s="7">
-        <f>BEN!$A$28*BEN!AJ27</f>
         <v>0</v>
       </c>
       <c r="AC10" s="7">
-        <f>BEN!$A$28*BEN!AK27</f>
         <v>0</v>
       </c>
       <c r="AD10" s="7">
-        <f>BEN!$A$28*BEN!AL27</f>
         <v>0</v>
       </c>
       <c r="AE10" s="7">
-        <f>BEN!$A$28*BEN!AM27</f>
         <v>0</v>
       </c>
       <c r="AF10" s="7">
-        <f>BEN!$A$28*BEN!AN27</f>
         <v>0</v>
       </c>
       <c r="AG10" s="7">
-        <f>BEN!$A$28*BEN!AO27</f>
+        <v>0</v>
+      </c>
+      <c r="AH10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AO10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AR10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AS10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AT10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AU10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AV10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AW10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AX10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AY10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AZ10" s="7">
+        <v>0</v>
+      </c>
+      <c r="BA10" s="7">
         <v>0</v>
       </c>
     </row>
@@ -11775,75 +11015,117 @@
         <v>1729397331.2000003</v>
       </c>
       <c r="P11" s="7">
-        <f>BEN!$A$32*BEN!X31</f>
         <v>0</v>
       </c>
       <c r="Q11" s="7">
-        <f>BEN!$A$32*BEN!Y31</f>
         <v>0</v>
       </c>
       <c r="R11" s="7">
-        <f>BEN!$A$32*BEN!Z31</f>
         <v>0</v>
       </c>
       <c r="S11" s="7">
-        <f>BEN!$A$32*BEN!AA31</f>
         <v>0</v>
       </c>
       <c r="T11" s="7">
-        <f>BEN!$A$32*BEN!AB31</f>
         <v>0</v>
       </c>
       <c r="U11" s="7">
-        <f>BEN!$A$32*BEN!AC31</f>
         <v>0</v>
       </c>
       <c r="V11" s="7">
-        <f>BEN!$A$32*BEN!AD31</f>
         <v>0</v>
       </c>
       <c r="W11" s="7">
-        <f>BEN!$A$32*BEN!AE31</f>
         <v>0</v>
       </c>
       <c r="X11" s="7">
-        <f>BEN!$A$32*BEN!AF31</f>
         <v>0</v>
       </c>
       <c r="Y11" s="7">
-        <f>BEN!$A$32*BEN!AG31</f>
         <v>0</v>
       </c>
       <c r="Z11" s="7">
-        <f>BEN!$A$32*BEN!AH31</f>
         <v>0</v>
       </c>
       <c r="AA11" s="7">
-        <f>BEN!$A$32*BEN!AI31</f>
         <v>0</v>
       </c>
       <c r="AB11" s="7">
-        <f>BEN!$A$32*BEN!AJ31</f>
         <v>0</v>
       </c>
       <c r="AC11" s="7">
-        <f>BEN!$A$32*BEN!AK31</f>
         <v>0</v>
       </c>
       <c r="AD11" s="7">
-        <f>BEN!$A$32*BEN!AL31</f>
         <v>0</v>
       </c>
       <c r="AE11" s="7">
-        <f>BEN!$A$32*BEN!AM31</f>
         <v>0</v>
       </c>
       <c r="AF11" s="7">
-        <f>BEN!$A$32*BEN!AN31</f>
         <v>0</v>
       </c>
       <c r="AG11" s="7">
-        <f>BEN!$A$32*BEN!AO31</f>
+        <v>0</v>
+      </c>
+      <c r="AH11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AO11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AS11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AT11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AU11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AV11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AW11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AX11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AY11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AZ11" s="7">
+        <v>0</v>
+      </c>
+      <c r="BA11" s="7">
         <v>0</v>
       </c>
     </row>
@@ -11908,75 +11190,117 @@
         <v>1016116853.9739968</v>
       </c>
       <c r="P12" s="7">
-        <f>BEN!$A$36*BEN!X35</f>
         <v>0</v>
       </c>
       <c r="Q12" s="7">
-        <f>BEN!$A$36*BEN!Y35</f>
         <v>0</v>
       </c>
       <c r="R12" s="7">
-        <f>BEN!$A$36*BEN!Z35</f>
         <v>0</v>
       </c>
       <c r="S12" s="7">
-        <f>BEN!$A$36*BEN!AA35</f>
         <v>0</v>
       </c>
       <c r="T12" s="7">
-        <f>BEN!$A$36*BEN!AB35</f>
         <v>0</v>
       </c>
       <c r="U12" s="7">
-        <f>BEN!$A$36*BEN!AC35</f>
         <v>0</v>
       </c>
       <c r="V12" s="7">
-        <f>BEN!$A$36*BEN!AD35</f>
         <v>0</v>
       </c>
       <c r="W12" s="7">
-        <f>BEN!$A$36*BEN!AE35</f>
         <v>0</v>
       </c>
       <c r="X12" s="7">
-        <f>BEN!$A$36*BEN!AF35</f>
         <v>0</v>
       </c>
       <c r="Y12" s="7">
-        <f>BEN!$A$36*BEN!AG35</f>
         <v>0</v>
       </c>
       <c r="Z12" s="7">
-        <f>BEN!$A$36*BEN!AH35</f>
         <v>0</v>
       </c>
       <c r="AA12" s="7">
-        <f>BEN!$A$36*BEN!AI35</f>
         <v>0</v>
       </c>
       <c r="AB12" s="7">
-        <f>BEN!$A$36*BEN!AJ35</f>
         <v>0</v>
       </c>
       <c r="AC12" s="7">
-        <f>BEN!$A$36*BEN!AK35</f>
         <v>0</v>
       </c>
       <c r="AD12" s="7">
-        <f>BEN!$A$36*BEN!AL35</f>
         <v>0</v>
       </c>
       <c r="AE12" s="7">
-        <f>BEN!$A$36*BEN!AM35</f>
         <v>0</v>
       </c>
       <c r="AF12" s="7">
-        <f>BEN!$A$36*BEN!AN35</f>
         <v>0</v>
       </c>
       <c r="AG12" s="7">
-        <f>BEN!$A$36*BEN!AO35</f>
+        <v>0</v>
+      </c>
+      <c r="AH12" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM12" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN12" s="7">
+        <v>0</v>
+      </c>
+      <c r="AO12" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP12" s="7">
+        <v>0</v>
+      </c>
+      <c r="AQ12" s="7">
+        <v>0</v>
+      </c>
+      <c r="AR12" s="7">
+        <v>0</v>
+      </c>
+      <c r="AS12" s="7">
+        <v>0</v>
+      </c>
+      <c r="AT12" s="7">
+        <v>0</v>
+      </c>
+      <c r="AU12" s="7">
+        <v>0</v>
+      </c>
+      <c r="AV12" s="7">
+        <v>0</v>
+      </c>
+      <c r="AW12" s="7">
+        <v>0</v>
+      </c>
+      <c r="AX12" s="7">
+        <v>0</v>
+      </c>
+      <c r="AY12" s="7">
+        <v>0</v>
+      </c>
+      <c r="AZ12" s="7">
+        <v>0</v>
+      </c>
+      <c r="BA12" s="7">
         <v>0</v>
       </c>
     </row>
@@ -12041,75 +11365,117 @@
         <v>422729893.74610424</v>
       </c>
       <c r="P13" s="7">
-        <f>BEN!$A$40*BEN!X39</f>
         <v>0</v>
       </c>
       <c r="Q13" s="7">
-        <f>BEN!$A$40*BEN!Y39</f>
         <v>0</v>
       </c>
       <c r="R13" s="7">
-        <f>BEN!$A$40*BEN!Z39</f>
         <v>0</v>
       </c>
       <c r="S13" s="7">
-        <f>BEN!$A$40*BEN!AA39</f>
         <v>0</v>
       </c>
       <c r="T13" s="7">
-        <f>BEN!$A$40*BEN!AB39</f>
         <v>0</v>
       </c>
       <c r="U13" s="7">
-        <f>BEN!$A$40*BEN!AC39</f>
         <v>0</v>
       </c>
       <c r="V13" s="7">
-        <f>BEN!$A$40*BEN!AD39</f>
         <v>0</v>
       </c>
       <c r="W13" s="7">
-        <f>BEN!$A$40*BEN!AE39</f>
         <v>0</v>
       </c>
       <c r="X13" s="7">
-        <f>BEN!$A$40*BEN!AF39</f>
         <v>0</v>
       </c>
       <c r="Y13" s="7">
-        <f>BEN!$A$40*BEN!AG39</f>
         <v>0</v>
       </c>
       <c r="Z13" s="7">
-        <f>BEN!$A$40*BEN!AH39</f>
         <v>0</v>
       </c>
       <c r="AA13" s="7">
-        <f>BEN!$A$40*BEN!AI39</f>
         <v>0</v>
       </c>
       <c r="AB13" s="7">
-        <f>BEN!$A$40*BEN!AJ39</f>
         <v>0</v>
       </c>
       <c r="AC13" s="7">
-        <f>BEN!$A$40*BEN!AK39</f>
         <v>0</v>
       </c>
       <c r="AD13" s="7">
-        <f>BEN!$A$40*BEN!AL39</f>
         <v>0</v>
       </c>
       <c r="AE13" s="7">
-        <f>BEN!$A$40*BEN!AM39</f>
         <v>0</v>
       </c>
       <c r="AF13" s="7">
-        <f>BEN!$A$40*BEN!AN39</f>
         <v>0</v>
       </c>
       <c r="AG13" s="7">
-        <f>BEN!$A$40*BEN!AO39</f>
+        <v>0</v>
+      </c>
+      <c r="AH13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AO13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AQ13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AR13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AS13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AT13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AU13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AV13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AW13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AX13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AY13" s="7">
+        <v>0</v>
+      </c>
+      <c r="AZ13" s="7">
+        <v>0</v>
+      </c>
+      <c r="BA13" s="7">
         <v>0</v>
       </c>
     </row>
@@ -12174,75 +11540,117 @@
         <v>223098265.8579213</v>
       </c>
       <c r="P14" s="7">
-        <f>BEN!$B$44*BEN!X43</f>
         <v>0</v>
       </c>
       <c r="Q14" s="7">
-        <f>BEN!$B$44*BEN!Y43</f>
         <v>0</v>
       </c>
       <c r="R14" s="7">
-        <f>BEN!$B$44*BEN!Z43</f>
         <v>0</v>
       </c>
       <c r="S14" s="7">
-        <f>BEN!$B$44*BEN!AA43</f>
         <v>0</v>
       </c>
       <c r="T14" s="7">
-        <f>BEN!$B$44*BEN!AB43</f>
         <v>0</v>
       </c>
       <c r="U14" s="7">
-        <f>BEN!$B$44*BEN!AC43</f>
         <v>0</v>
       </c>
       <c r="V14" s="7">
-        <f>BEN!$B$44*BEN!AD43</f>
         <v>0</v>
       </c>
       <c r="W14" s="7">
-        <f>BEN!$B$44*BEN!AE43</f>
         <v>0</v>
       </c>
       <c r="X14" s="7">
-        <f>BEN!$B$44*BEN!AF43</f>
         <v>0</v>
       </c>
       <c r="Y14" s="7">
-        <f>BEN!$B$44*BEN!AG43</f>
         <v>0</v>
       </c>
       <c r="Z14" s="7">
-        <f>BEN!$B$44*BEN!AH43</f>
         <v>0</v>
       </c>
       <c r="AA14" s="7">
-        <f>BEN!$B$44*BEN!AI43</f>
         <v>0</v>
       </c>
       <c r="AB14" s="7">
-        <f>BEN!$B$44*BEN!AJ43</f>
         <v>0</v>
       </c>
       <c r="AC14" s="7">
-        <f>BEN!$B$44*BEN!AK43</f>
         <v>0</v>
       </c>
       <c r="AD14" s="7">
-        <f>BEN!$B$44*BEN!AL43</f>
         <v>0</v>
       </c>
       <c r="AE14" s="7">
-        <f>BEN!$B$44*BEN!AM43</f>
         <v>0</v>
       </c>
       <c r="AF14" s="7">
-        <f>BEN!$B$44*BEN!AN43</f>
         <v>0</v>
       </c>
       <c r="AG14" s="7">
-        <f>BEN!$B$44*BEN!AO43</f>
+        <v>0</v>
+      </c>
+      <c r="AH14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AO14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AQ14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AR14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AS14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AT14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AU14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AV14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AW14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AX14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AY14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AZ14" s="7">
+        <v>0</v>
+      </c>
+      <c r="BA14" s="7">
         <v>0</v>
       </c>
     </row>
@@ -12629,75 +12037,117 @@
         <v>132562183.33333333</v>
       </c>
       <c r="P17" s="7">
-        <f>BEN!$A$50*BEN!X49</f>
         <v>0</v>
       </c>
       <c r="Q17" s="7">
-        <f>BEN!$A$50*BEN!Y49</f>
         <v>0</v>
       </c>
       <c r="R17" s="7">
-        <f>BEN!$A$50*BEN!Z49</f>
         <v>0</v>
       </c>
       <c r="S17" s="7">
-        <f>BEN!$A$50*BEN!AA49</f>
         <v>0</v>
       </c>
       <c r="T17" s="7">
-        <f>BEN!$A$50*BEN!AB49</f>
         <v>0</v>
       </c>
       <c r="U17" s="7">
-        <f>BEN!$A$50*BEN!AC49</f>
         <v>0</v>
       </c>
       <c r="V17" s="7">
-        <f>BEN!$A$50*BEN!AD49</f>
         <v>0</v>
       </c>
       <c r="W17" s="7">
-        <f>BEN!$A$50*BEN!AE49</f>
         <v>0</v>
       </c>
       <c r="X17" s="7">
-        <f>BEN!$A$50*BEN!AF49</f>
         <v>0</v>
       </c>
       <c r="Y17" s="7">
-        <f>BEN!$A$50*BEN!AG49</f>
         <v>0</v>
       </c>
       <c r="Z17" s="7">
-        <f>BEN!$A$50*BEN!AH49</f>
         <v>0</v>
       </c>
       <c r="AA17" s="7">
-        <f>BEN!$A$50*BEN!AI49</f>
         <v>0</v>
       </c>
       <c r="AB17" s="7">
-        <f>BEN!$A$50*BEN!AJ49</f>
         <v>0</v>
       </c>
       <c r="AC17" s="7">
-        <f>BEN!$A$50*BEN!AK49</f>
         <v>0</v>
       </c>
       <c r="AD17" s="7">
-        <f>BEN!$A$50*BEN!AL49</f>
         <v>0</v>
       </c>
       <c r="AE17" s="7">
-        <f>BEN!$A$50*BEN!AM49</f>
         <v>0</v>
       </c>
       <c r="AF17" s="7">
-        <f>BEN!$A$50*BEN!AN49</f>
         <v>0</v>
       </c>
       <c r="AG17" s="7">
-        <f>BEN!$A$50*BEN!AO49</f>
+        <v>0</v>
+      </c>
+      <c r="AH17" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK17" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL17" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM17" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN17" s="7">
+        <v>0</v>
+      </c>
+      <c r="AO17" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP17" s="7">
+        <v>0</v>
+      </c>
+      <c r="AQ17" s="7">
+        <v>0</v>
+      </c>
+      <c r="AR17" s="7">
+        <v>0</v>
+      </c>
+      <c r="AS17" s="7">
+        <v>0</v>
+      </c>
+      <c r="AT17" s="7">
+        <v>0</v>
+      </c>
+      <c r="AU17" s="7">
+        <v>0</v>
+      </c>
+      <c r="AV17" s="7">
+        <v>0</v>
+      </c>
+      <c r="AW17" s="7">
+        <v>0</v>
+      </c>
+      <c r="AX17" s="7">
+        <v>0</v>
+      </c>
+      <c r="AY17" s="7">
+        <v>0</v>
+      </c>
+      <c r="AZ17" s="7">
+        <v>0</v>
+      </c>
+      <c r="BA17" s="7">
         <v>0</v>
       </c>
     </row>
@@ -12762,75 +12212,117 @@
         <v>10125692968.066666</v>
       </c>
       <c r="P18" s="8">
-        <f>BEN!$A$54*BEN!X53</f>
         <v>0</v>
       </c>
       <c r="Q18" s="8">
-        <f>BEN!$A$54*BEN!Y53</f>
         <v>0</v>
       </c>
       <c r="R18" s="8">
-        <f>BEN!$A$54*BEN!Z53</f>
         <v>0</v>
       </c>
       <c r="S18" s="8">
-        <f>BEN!$A$54*BEN!AA53</f>
         <v>0</v>
       </c>
       <c r="T18" s="8">
-        <f>BEN!$A$54*BEN!AB53</f>
         <v>0</v>
       </c>
       <c r="U18" s="8">
-        <f>BEN!$A$54*BEN!AC53</f>
         <v>0</v>
       </c>
       <c r="V18" s="8">
-        <f>BEN!$A$54*BEN!AD53</f>
         <v>0</v>
       </c>
       <c r="W18" s="8">
-        <f>BEN!$A$54*BEN!AE53</f>
         <v>0</v>
       </c>
       <c r="X18" s="8">
-        <f>BEN!$A$54*BEN!AF53</f>
         <v>0</v>
       </c>
       <c r="Y18" s="8">
-        <f>BEN!$A$54*BEN!AG53</f>
         <v>0</v>
       </c>
       <c r="Z18" s="8">
-        <f>BEN!$A$54*BEN!AH53</f>
         <v>0</v>
       </c>
       <c r="AA18" s="8">
-        <f>BEN!$A$54*BEN!AI53</f>
         <v>0</v>
       </c>
       <c r="AB18" s="8">
-        <f>BEN!$A$54*BEN!AJ53</f>
         <v>0</v>
       </c>
       <c r="AC18" s="8">
-        <f>BEN!$A$54*BEN!AK53</f>
         <v>0</v>
       </c>
       <c r="AD18" s="8">
-        <f>BEN!$A$54*BEN!AL53</f>
         <v>0</v>
       </c>
       <c r="AE18" s="8">
-        <f>BEN!$A$54*BEN!AM53</f>
         <v>0</v>
       </c>
       <c r="AF18" s="8">
-        <f>BEN!$A$54*BEN!AN53</f>
         <v>0</v>
       </c>
       <c r="AG18" s="8">
-        <f>BEN!$A$54*BEN!AO53</f>
+        <v>0</v>
+      </c>
+      <c r="AH18" s="8">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="8">
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="8">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="8">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="8">
+        <v>0</v>
+      </c>
+      <c r="AM18" s="8">
+        <v>0</v>
+      </c>
+      <c r="AN18" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO18" s="8">
+        <v>0</v>
+      </c>
+      <c r="AP18" s="8">
+        <v>0</v>
+      </c>
+      <c r="AQ18" s="8">
+        <v>0</v>
+      </c>
+      <c r="AR18" s="8">
+        <v>0</v>
+      </c>
+      <c r="AS18" s="8">
+        <v>0</v>
+      </c>
+      <c r="AT18" s="8">
+        <v>0</v>
+      </c>
+      <c r="AU18" s="8">
+        <v>0</v>
+      </c>
+      <c r="AV18" s="8">
+        <v>0</v>
+      </c>
+      <c r="AW18" s="8">
+        <v>0</v>
+      </c>
+      <c r="AX18" s="8">
+        <v>0</v>
+      </c>
+      <c r="AY18" s="8">
+        <v>0</v>
+      </c>
+      <c r="AZ18" s="8">
+        <v>0</v>
+      </c>
+      <c r="BA18" s="8">
         <v>0</v>
       </c>
     </row>
@@ -12895,75 +12387,117 @@
         <v>613376021.25</v>
       </c>
       <c r="P19" s="7">
-        <f>BEN!$A$58*BEN!X57</f>
         <v>0</v>
       </c>
       <c r="Q19" s="7">
-        <f>BEN!$A$58*BEN!Y57</f>
         <v>0</v>
       </c>
       <c r="R19" s="7">
-        <f>BEN!$A$58*BEN!Z57</f>
         <v>0</v>
       </c>
       <c r="S19" s="7">
-        <f>BEN!$A$58*BEN!AA57</f>
         <v>0</v>
       </c>
       <c r="T19" s="7">
-        <f>BEN!$A$58*BEN!AB57</f>
         <v>0</v>
       </c>
       <c r="U19" s="7">
-        <f>BEN!$A$58*BEN!AC57</f>
         <v>0</v>
       </c>
       <c r="V19" s="7">
-        <f>BEN!$A$58*BEN!AD57</f>
         <v>0</v>
       </c>
       <c r="W19" s="7">
-        <f>BEN!$A$58*BEN!AE57</f>
         <v>0</v>
       </c>
       <c r="X19" s="7">
-        <f>BEN!$A$58*BEN!AF57</f>
         <v>0</v>
       </c>
       <c r="Y19" s="7">
-        <f>BEN!$A$58*BEN!AG57</f>
         <v>0</v>
       </c>
       <c r="Z19" s="7">
-        <f>BEN!$A$58*BEN!AH57</f>
         <v>0</v>
       </c>
       <c r="AA19" s="7">
-        <f>BEN!$A$58*BEN!AI57</f>
         <v>0</v>
       </c>
       <c r="AB19" s="7">
-        <f>BEN!$A$58*BEN!AJ57</f>
         <v>0</v>
       </c>
       <c r="AC19" s="7">
-        <f>BEN!$A$58*BEN!AK57</f>
         <v>0</v>
       </c>
       <c r="AD19" s="7">
-        <f>BEN!$A$58*BEN!AL57</f>
         <v>0</v>
       </c>
       <c r="AE19" s="7">
-        <f>BEN!$A$58*BEN!AM57</f>
         <v>0</v>
       </c>
       <c r="AF19" s="7">
-        <f>BEN!$A$58*BEN!AN57</f>
         <v>0</v>
       </c>
       <c r="AG19" s="7">
-        <f>BEN!$A$58*BEN!AO57</f>
+        <v>0</v>
+      </c>
+      <c r="AH19" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI19" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK19" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL19" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM19" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN19" s="7">
+        <v>0</v>
+      </c>
+      <c r="AO19" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP19" s="7">
+        <v>0</v>
+      </c>
+      <c r="AQ19" s="7">
+        <v>0</v>
+      </c>
+      <c r="AR19" s="7">
+        <v>0</v>
+      </c>
+      <c r="AS19" s="7">
+        <v>0</v>
+      </c>
+      <c r="AT19" s="7">
+        <v>0</v>
+      </c>
+      <c r="AU19" s="7">
+        <v>0</v>
+      </c>
+      <c r="AV19" s="7">
+        <v>0</v>
+      </c>
+      <c r="AW19" s="7">
+        <v>0</v>
+      </c>
+      <c r="AX19" s="7">
+        <v>0</v>
+      </c>
+      <c r="AY19" s="7">
+        <v>0</v>
+      </c>
+      <c r="AZ19" s="7">
+        <v>0</v>
+      </c>
+      <c r="BA19" s="7">
         <v>0</v>
       </c>
     </row>
@@ -13028,75 +12562,117 @@
         <v>400544430</v>
       </c>
       <c r="P20" s="7">
-        <f>BEN!$A$62*BEN!X61</f>
         <v>0</v>
       </c>
       <c r="Q20" s="7">
-        <f>BEN!$A$62*BEN!Y61</f>
         <v>0</v>
       </c>
       <c r="R20" s="7">
-        <f>BEN!$A$62*BEN!Z61</f>
         <v>0</v>
       </c>
       <c r="S20" s="7">
-        <f>BEN!$A$62*BEN!AA61</f>
         <v>0</v>
       </c>
       <c r="T20" s="7">
-        <f>BEN!$A$62*BEN!AB61</f>
         <v>0</v>
       </c>
       <c r="U20" s="7">
-        <f>BEN!$A$62*BEN!AC61</f>
         <v>0</v>
       </c>
       <c r="V20" s="7">
-        <f>BEN!$A$62*BEN!AD61</f>
         <v>0</v>
       </c>
       <c r="W20" s="7">
-        <f>BEN!$A$62*BEN!AE61</f>
         <v>0</v>
       </c>
       <c r="X20" s="7">
-        <f>BEN!$A$62*BEN!AF61</f>
         <v>0</v>
       </c>
       <c r="Y20" s="7">
-        <f>BEN!$A$62*BEN!AG61</f>
         <v>0</v>
       </c>
       <c r="Z20" s="7">
-        <f>BEN!$A$62*BEN!AH61</f>
         <v>0</v>
       </c>
       <c r="AA20" s="7">
-        <f>BEN!$A$62*BEN!AI61</f>
         <v>0</v>
       </c>
       <c r="AB20" s="7">
-        <f>BEN!$A$62*BEN!AJ61</f>
         <v>0</v>
       </c>
       <c r="AC20" s="7">
-        <f>BEN!$A$62*BEN!AK61</f>
         <v>0</v>
       </c>
       <c r="AD20" s="7">
-        <f>BEN!$A$62*BEN!AL61</f>
         <v>0</v>
       </c>
       <c r="AE20" s="7">
-        <f>BEN!$A$62*BEN!AM61</f>
         <v>0</v>
       </c>
       <c r="AF20" s="7">
-        <f>BEN!$A$62*BEN!AN61</f>
         <v>0</v>
       </c>
       <c r="AG20" s="7">
-        <f>BEN!$A$62*BEN!AO61</f>
+        <v>0</v>
+      </c>
+      <c r="AH20" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK20" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL20" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM20" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN20" s="7">
+        <v>0</v>
+      </c>
+      <c r="AO20" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP20" s="7">
+        <v>0</v>
+      </c>
+      <c r="AQ20" s="7">
+        <v>0</v>
+      </c>
+      <c r="AR20" s="7">
+        <v>0</v>
+      </c>
+      <c r="AS20" s="7">
+        <v>0</v>
+      </c>
+      <c r="AT20" s="7">
+        <v>0</v>
+      </c>
+      <c r="AU20" s="7">
+        <v>0</v>
+      </c>
+      <c r="AV20" s="7">
+        <v>0</v>
+      </c>
+      <c r="AW20" s="7">
+        <v>0</v>
+      </c>
+      <c r="AX20" s="7">
+        <v>0</v>
+      </c>
+      <c r="AY20" s="7">
+        <v>0</v>
+      </c>
+      <c r="AZ20" s="7">
+        <v>0</v>
+      </c>
+      <c r="BA20" s="7">
         <v>0</v>
       </c>
     </row>
@@ -13161,155 +12737,117 @@
         <v>0</v>
       </c>
       <c r="P21" s="7">
-        <f>BEN!X65</f>
         <v>0</v>
       </c>
       <c r="Q21" s="7">
-        <f>BEN!Y65</f>
         <v>0</v>
       </c>
       <c r="R21" s="7">
-        <f>BEN!Z65</f>
         <v>0</v>
       </c>
       <c r="S21" s="7">
-        <f>BEN!AA65</f>
         <v>0</v>
       </c>
       <c r="T21" s="7">
-        <f>BEN!AB65</f>
         <v>0</v>
       </c>
       <c r="U21" s="7">
-        <f>BEN!AC65</f>
         <v>0</v>
       </c>
       <c r="V21" s="7">
-        <f>BEN!AD65</f>
         <v>0</v>
       </c>
       <c r="W21" s="7">
-        <f>BEN!AE65</f>
         <v>0</v>
       </c>
       <c r="X21" s="7">
-        <f>BEN!AF65</f>
         <v>0</v>
       </c>
       <c r="Y21" s="7">
-        <f>BEN!AG65</f>
         <v>0</v>
       </c>
       <c r="Z21" s="7">
-        <f>BEN!AH65</f>
         <v>0</v>
       </c>
       <c r="AA21" s="7">
-        <f>BEN!AI65</f>
         <v>0</v>
       </c>
       <c r="AB21" s="7">
-        <f>BEN!AJ65</f>
         <v>0</v>
       </c>
       <c r="AC21" s="7">
-        <f>BEN!AK65</f>
         <v>0</v>
       </c>
       <c r="AD21" s="7">
-        <f>BEN!AL65</f>
         <v>0</v>
       </c>
       <c r="AE21" s="7">
-        <f>BEN!AM65</f>
         <v>0</v>
       </c>
       <c r="AF21" s="7">
-        <f>BEN!AN65</f>
         <v>0</v>
       </c>
       <c r="AG21" s="7">
-        <f>BEN!AO65</f>
         <v>0</v>
       </c>
       <c r="AH21" s="7">
-        <f>BEN!AP65</f>
         <v>0</v>
       </c>
       <c r="AI21" s="7">
-        <f>BEN!AQ65</f>
         <v>0</v>
       </c>
       <c r="AJ21" s="7">
-        <f>BEN!AR65</f>
         <v>0</v>
       </c>
       <c r="AK21" s="7">
-        <f>BEN!AS65</f>
         <v>0</v>
       </c>
       <c r="AL21" s="7">
-        <f>BEN!AT65</f>
         <v>0</v>
       </c>
       <c r="AM21" s="7">
-        <f>BEN!AU65</f>
         <v>0</v>
       </c>
       <c r="AN21" s="7">
-        <f>BEN!AV65</f>
         <v>0</v>
       </c>
       <c r="AO21" s="7">
-        <f>BEN!AW65</f>
         <v>0</v>
       </c>
       <c r="AP21" s="7">
-        <f>BEN!AX65</f>
         <v>0</v>
       </c>
       <c r="AQ21" s="7">
-        <f>BEN!AY65</f>
         <v>0</v>
       </c>
       <c r="AR21" s="7">
-        <f>BEN!AZ65</f>
         <v>0</v>
       </c>
       <c r="AS21" s="7">
-        <f>BEN!BA65</f>
         <v>0</v>
       </c>
       <c r="AT21" s="7">
-        <f>BEN!BB65</f>
         <v>0</v>
       </c>
       <c r="AU21" s="7">
-        <f>BEN!BC65</f>
         <v>0</v>
       </c>
       <c r="AV21" s="7">
-        <f>BEN!BD65</f>
         <v>0</v>
       </c>
       <c r="AW21" s="7">
-        <f>BEN!BE65</f>
         <v>0</v>
       </c>
       <c r="AX21" s="7">
-        <f>BEN!BF65</f>
         <v>0</v>
       </c>
       <c r="AY21" s="7">
-        <f>BEN!BG65</f>
         <v>0</v>
       </c>
       <c r="AZ21" s="7">
-        <f>BEN!BH65</f>
         <v>0</v>
       </c>
       <c r="BA21" s="7">
-        <f>BEN!BI65</f>
         <v>0</v>
       </c>
     </row>
@@ -13374,155 +12912,117 @@
         <v>0</v>
       </c>
       <c r="P22" s="7">
-        <f>BEN!X66</f>
         <v>0</v>
       </c>
       <c r="Q22" s="7">
-        <f>BEN!Y66</f>
         <v>0</v>
       </c>
       <c r="R22" s="7">
-        <f>BEN!Z66</f>
         <v>0</v>
       </c>
       <c r="S22" s="7">
-        <f>BEN!AA66</f>
         <v>0</v>
       </c>
       <c r="T22" s="7">
-        <f>BEN!AB66</f>
         <v>0</v>
       </c>
       <c r="U22" s="7">
-        <f>BEN!AC66</f>
         <v>0</v>
       </c>
       <c r="V22" s="7">
-        <f>BEN!AD66</f>
         <v>0</v>
       </c>
       <c r="W22" s="7">
-        <f>BEN!AE66</f>
         <v>0</v>
       </c>
       <c r="X22" s="7">
-        <f>BEN!AF66</f>
         <v>0</v>
       </c>
       <c r="Y22" s="7">
-        <f>BEN!AG66</f>
         <v>0</v>
       </c>
       <c r="Z22" s="7">
-        <f>BEN!AH66</f>
         <v>0</v>
       </c>
       <c r="AA22" s="7">
-        <f>BEN!AI66</f>
         <v>0</v>
       </c>
       <c r="AB22" s="7">
-        <f>BEN!AJ66</f>
         <v>0</v>
       </c>
       <c r="AC22" s="7">
-        <f>BEN!AK66</f>
         <v>0</v>
       </c>
       <c r="AD22" s="7">
-        <f>BEN!AL66</f>
         <v>0</v>
       </c>
       <c r="AE22" s="7">
-        <f>BEN!AM66</f>
         <v>0</v>
       </c>
       <c r="AF22" s="7">
-        <f>BEN!AN66</f>
         <v>0</v>
       </c>
       <c r="AG22" s="7">
-        <f>BEN!AO66</f>
         <v>0</v>
       </c>
       <c r="AH22" s="7">
-        <f>BEN!AP66</f>
         <v>0</v>
       </c>
       <c r="AI22" s="7">
-        <f>BEN!AQ66</f>
         <v>0</v>
       </c>
       <c r="AJ22" s="7">
-        <f>BEN!AR66</f>
         <v>0</v>
       </c>
       <c r="AK22" s="7">
-        <f>BEN!AS66</f>
         <v>0</v>
       </c>
       <c r="AL22" s="7">
-        <f>BEN!AT66</f>
         <v>0</v>
       </c>
       <c r="AM22" s="7">
-        <f>BEN!AU66</f>
         <v>0</v>
       </c>
       <c r="AN22" s="7">
-        <f>BEN!AV66</f>
         <v>0</v>
       </c>
       <c r="AO22" s="7">
-        <f>BEN!AW66</f>
         <v>0</v>
       </c>
       <c r="AP22" s="7">
-        <f>BEN!AX66</f>
         <v>0</v>
       </c>
       <c r="AQ22" s="7">
-        <f>BEN!AY66</f>
         <v>0</v>
       </c>
       <c r="AR22" s="7">
-        <f>BEN!AZ66</f>
         <v>0</v>
       </c>
       <c r="AS22" s="7">
-        <f>BEN!BA66</f>
         <v>0</v>
       </c>
       <c r="AT22" s="7">
-        <f>BEN!BB66</f>
         <v>0</v>
       </c>
       <c r="AU22" s="7">
-        <f>BEN!BC66</f>
         <v>0</v>
       </c>
       <c r="AV22" s="7">
-        <f>BEN!BD66</f>
         <v>0</v>
       </c>
       <c r="AW22" s="7">
-        <f>BEN!BE66</f>
         <v>0</v>
       </c>
       <c r="AX22" s="7">
-        <f>BEN!BF66</f>
         <v>0</v>
       </c>
       <c r="AY22" s="7">
-        <f>BEN!BG66</f>
         <v>0</v>
       </c>
       <c r="AZ22" s="7">
-        <f>BEN!BH66</f>
         <v>0</v>
       </c>
       <c r="BA22" s="7">
-        <f>BEN!BI66</f>
         <v>0</v>
       </c>
     </row>
@@ -13539,8 +13039,8 @@
   </sheetPr>
   <dimension ref="A1:BA22"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="AZ25" sqref="AZ25"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="BA3" sqref="BA3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -13723,7 +13223,7 @@
       <c r="AZ1" s="5">
         <v>2069</v>
       </c>
-      <c r="BA1" s="5">
+      <c r="BA1">
         <v>2070</v>
       </c>
     </row>
@@ -14020,6 +13520,86 @@
         <f>BEN!$A$5*BEN!AO5</f>
         <v>0</v>
       </c>
+      <c r="AH3" s="7">
+        <f>BEN!$A$5*BEN!AP5</f>
+        <v>0</v>
+      </c>
+      <c r="AI3" s="7">
+        <f>BEN!$A$5*BEN!AQ5</f>
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="7">
+        <f>BEN!$A$5*BEN!AR5</f>
+        <v>0</v>
+      </c>
+      <c r="AK3" s="7">
+        <f>BEN!$A$5*BEN!AS5</f>
+        <v>0</v>
+      </c>
+      <c r="AL3" s="7">
+        <f>BEN!$A$5*BEN!AT5</f>
+        <v>0</v>
+      </c>
+      <c r="AM3" s="7">
+        <f>BEN!$A$5*BEN!AU5</f>
+        <v>0</v>
+      </c>
+      <c r="AN3" s="7">
+        <f>BEN!$A$5*BEN!AV5</f>
+        <v>0</v>
+      </c>
+      <c r="AO3" s="7">
+        <f>BEN!$A$5*BEN!AW5</f>
+        <v>0</v>
+      </c>
+      <c r="AP3" s="7">
+        <f>BEN!$A$5*BEN!AX5</f>
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="7">
+        <f>BEN!$A$5*BEN!AY5</f>
+        <v>0</v>
+      </c>
+      <c r="AR3" s="7">
+        <f>BEN!$A$5*BEN!AZ5</f>
+        <v>0</v>
+      </c>
+      <c r="AS3" s="7">
+        <f>BEN!$A$5*BEN!BA5</f>
+        <v>0</v>
+      </c>
+      <c r="AT3" s="7">
+        <f>BEN!$A$5*BEN!BB5</f>
+        <v>0</v>
+      </c>
+      <c r="AU3" s="7">
+        <f>BEN!$A$5*BEN!BC5</f>
+        <v>0</v>
+      </c>
+      <c r="AV3" s="7">
+        <f>BEN!$A$5*BEN!BD5</f>
+        <v>0</v>
+      </c>
+      <c r="AW3" s="7">
+        <f>BEN!$A$5*BEN!BE5</f>
+        <v>0</v>
+      </c>
+      <c r="AX3" s="7">
+        <f>BEN!$A$5*BEN!BF5</f>
+        <v>0</v>
+      </c>
+      <c r="AY3" s="7">
+        <f>BEN!$A$5*BEN!BG5</f>
+        <v>0</v>
+      </c>
+      <c r="AZ3" s="7">
+        <f>BEN!$A$5*BEN!BH5</f>
+        <v>0</v>
+      </c>
+      <c r="BA3" s="7">
+        <f>BEN!$A$5*BEN!BI5</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
@@ -14153,6 +13733,86 @@
         <f>BEN!$A$9*BEN!AO9</f>
         <v>0</v>
       </c>
+      <c r="AH4" s="8">
+        <f>BEN!$A$9*BEN!AP9</f>
+        <v>0</v>
+      </c>
+      <c r="AI4" s="8">
+        <f>BEN!$A$9*BEN!AQ9</f>
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="8">
+        <f>BEN!$A$9*BEN!AR9</f>
+        <v>0</v>
+      </c>
+      <c r="AK4" s="8">
+        <f>BEN!$A$9*BEN!AS9</f>
+        <v>0</v>
+      </c>
+      <c r="AL4" s="8">
+        <f>BEN!$A$9*BEN!AT9</f>
+        <v>0</v>
+      </c>
+      <c r="AM4" s="8">
+        <f>BEN!$A$9*BEN!AU9</f>
+        <v>0</v>
+      </c>
+      <c r="AN4" s="8">
+        <f>BEN!$A$9*BEN!AV9</f>
+        <v>0</v>
+      </c>
+      <c r="AO4" s="8">
+        <f>BEN!$A$9*BEN!AW9</f>
+        <v>0</v>
+      </c>
+      <c r="AP4" s="8">
+        <f>BEN!$A$9*BEN!AX9</f>
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="8">
+        <f>BEN!$A$9*BEN!AY9</f>
+        <v>0</v>
+      </c>
+      <c r="AR4" s="8">
+        <f>BEN!$A$9*BEN!AZ9</f>
+        <v>0</v>
+      </c>
+      <c r="AS4" s="8">
+        <f>BEN!$A$9*BEN!BA9</f>
+        <v>0</v>
+      </c>
+      <c r="AT4" s="8">
+        <f>BEN!$A$9*BEN!BB9</f>
+        <v>0</v>
+      </c>
+      <c r="AU4" s="8">
+        <f>BEN!$A$9*BEN!BC9</f>
+        <v>0</v>
+      </c>
+      <c r="AV4" s="8">
+        <f>BEN!$A$9*BEN!BD9</f>
+        <v>0</v>
+      </c>
+      <c r="AW4" s="8">
+        <f>BEN!$A$9*BEN!BE9</f>
+        <v>0</v>
+      </c>
+      <c r="AX4" s="8">
+        <f>BEN!$A$9*BEN!BF9</f>
+        <v>0</v>
+      </c>
+      <c r="AY4" s="8">
+        <f>BEN!$A$9*BEN!BG9</f>
+        <v>0</v>
+      </c>
+      <c r="AZ4" s="8">
+        <f>BEN!$A$9*BEN!BH9</f>
+        <v>0</v>
+      </c>
+      <c r="BA4" s="8">
+        <f>BEN!$A$9*BEN!BI9</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
@@ -14215,156 +13875,118 @@
         <v>42996252.576820225</v>
       </c>
       <c r="P5" s="7">
-        <f>BEN!$A$15*BEN!X15</f>
-        <v>42996252.576820225</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="7">
-        <f>BEN!$A$15*BEN!Y15</f>
-        <v>42996252.576820225</v>
+        <v>0</v>
       </c>
       <c r="R5" s="7">
-        <f>BEN!$A$15*BEN!Z15</f>
-        <v>42996252.576820225</v>
+        <v>0</v>
       </c>
       <c r="S5" s="7">
-        <f>BEN!$A$15*BEN!AA15</f>
-        <v>42996252.576820225</v>
+        <v>0</v>
       </c>
       <c r="T5" s="7">
-        <f>BEN!$A$15*BEN!AB15</f>
-        <v>42996252.576820225</v>
+        <v>0</v>
       </c>
       <c r="U5" s="7">
-        <f>BEN!$A$15*BEN!AC15</f>
-        <v>42996252.576820225</v>
+        <v>0</v>
       </c>
       <c r="V5" s="7">
-        <f>BEN!$A$15*BEN!AD15</f>
-        <v>42996252.576820225</v>
+        <v>0</v>
       </c>
       <c r="W5" s="7">
-        <f>BEN!$A$15*BEN!AE15</f>
-        <v>42996252.576820225</v>
+        <v>0</v>
       </c>
       <c r="X5" s="7">
-        <f>BEN!$A$15*BEN!AF15</f>
-        <v>42996252.576820225</v>
+        <v>0</v>
       </c>
       <c r="Y5" s="7">
-        <f>BEN!$A$15*BEN!AG15</f>
-        <v>42996252.576820225</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="7">
-        <f>BEN!$A$15*BEN!AH15</f>
-        <v>42996252.576820225</v>
+        <v>0</v>
       </c>
       <c r="AA5" s="7">
-        <f>BEN!$A$15*BEN!AI15</f>
-        <v>42996252.576820225</v>
+        <v>0</v>
       </c>
       <c r="AB5" s="7">
-        <f>BEN!$A$15*BEN!AJ15</f>
-        <v>42996252.576820225</v>
+        <v>0</v>
       </c>
       <c r="AC5" s="7">
-        <f>BEN!$A$15*BEN!AK15</f>
-        <v>42996252.576820225</v>
+        <v>0</v>
       </c>
       <c r="AD5" s="7">
-        <f>BEN!$A$15*BEN!AL15</f>
-        <v>42996252.576820225</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="7">
-        <f>BEN!$A$15*BEN!AM15</f>
-        <v>42996252.576820225</v>
+        <v>0</v>
       </c>
       <c r="AF5" s="7">
-        <f>BEN!$A$15*BEN!AN15</f>
-        <v>42996252.576820225</v>
+        <v>0</v>
       </c>
       <c r="AG5" s="7">
-        <f>BEN!$A$15*BEN!AO15</f>
-        <v>42996252.576820225</v>
+        <v>0</v>
       </c>
       <c r="AH5" s="7">
-        <f>BEN!$A$15*BEN!AP15</f>
-        <v>42996252.576820225</v>
+        <v>0</v>
       </c>
       <c r="AI5" s="7">
-        <f>BEN!$A$15*BEN!AQ15</f>
-        <v>42996252.576820225</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="7">
-        <f>BEN!$A$15*BEN!AR15</f>
-        <v>42996252.576820225</v>
+        <v>0</v>
       </c>
       <c r="AK5" s="7">
-        <f>BEN!$A$15*BEN!AS15</f>
-        <v>42996252.576820225</v>
+        <v>0</v>
       </c>
       <c r="AL5" s="7">
-        <f>BEN!$A$15*BEN!AT15</f>
-        <v>42996252.576820225</v>
+        <v>0</v>
       </c>
       <c r="AM5" s="7">
-        <f>BEN!$A$15*BEN!AU15</f>
-        <v>42996252.576820225</v>
+        <v>0</v>
       </c>
       <c r="AN5" s="7">
-        <f t="shared" ref="AK5:BA5" si="0">$AI$5</f>
-        <v>42996252.576820225</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="7">
-        <f t="shared" si="0"/>
-        <v>42996252.576820225</v>
+        <v>0</v>
       </c>
       <c r="AP5" s="7">
-        <f t="shared" si="0"/>
-        <v>42996252.576820225</v>
+        <v>0</v>
       </c>
       <c r="AQ5" s="7">
-        <f t="shared" si="0"/>
-        <v>42996252.576820225</v>
+        <v>0</v>
       </c>
       <c r="AR5" s="7">
-        <f t="shared" si="0"/>
-        <v>42996252.576820225</v>
+        <v>0</v>
       </c>
       <c r="AS5" s="7">
-        <f t="shared" si="0"/>
-        <v>42996252.576820225</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="7">
-        <f t="shared" si="0"/>
-        <v>42996252.576820225</v>
+        <v>0</v>
       </c>
       <c r="AU5" s="7">
-        <f t="shared" si="0"/>
-        <v>42996252.576820225</v>
+        <v>0</v>
       </c>
       <c r="AV5" s="7">
-        <f t="shared" si="0"/>
-        <v>42996252.576820225</v>
+        <v>0</v>
       </c>
       <c r="AW5" s="7">
-        <f t="shared" si="0"/>
-        <v>42996252.576820225</v>
+        <v>0</v>
       </c>
       <c r="AX5" s="7">
-        <f t="shared" si="0"/>
-        <v>42996252.576820225</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="7">
-        <f t="shared" si="0"/>
-        <v>42996252.576820225</v>
+        <v>0</v>
       </c>
       <c r="AZ5" s="7">
-        <f t="shared" si="0"/>
-        <v>42996252.576820225</v>
+        <v>0</v>
       </c>
       <c r="BA5" s="7">
-        <f t="shared" si="0"/>
-        <v>42996252.576820225</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.45">
@@ -15195,6 +14817,86 @@
         <f>BEN!$A$28*BEN!AO28</f>
         <v>0</v>
       </c>
+      <c r="AH10" s="7">
+        <f>BEN!$A$28*BEN!AP28</f>
+        <v>0</v>
+      </c>
+      <c r="AI10" s="7">
+        <f>BEN!$A$28*BEN!AQ28</f>
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="7">
+        <f>BEN!$A$28*BEN!AR28</f>
+        <v>0</v>
+      </c>
+      <c r="AK10" s="7">
+        <f>BEN!$A$28*BEN!AS28</f>
+        <v>0</v>
+      </c>
+      <c r="AL10" s="7">
+        <f>BEN!$A$28*BEN!AT28</f>
+        <v>0</v>
+      </c>
+      <c r="AM10" s="7">
+        <f>BEN!$A$28*BEN!AU28</f>
+        <v>0</v>
+      </c>
+      <c r="AN10" s="7">
+        <f>BEN!$A$28*BEN!AV28</f>
+        <v>0</v>
+      </c>
+      <c r="AO10" s="7">
+        <f>BEN!$A$28*BEN!AW28</f>
+        <v>0</v>
+      </c>
+      <c r="AP10" s="7">
+        <f>BEN!$A$28*BEN!AX28</f>
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="7">
+        <f>BEN!$A$28*BEN!AY28</f>
+        <v>0</v>
+      </c>
+      <c r="AR10" s="7">
+        <f>BEN!$A$28*BEN!AZ28</f>
+        <v>0</v>
+      </c>
+      <c r="AS10" s="7">
+        <f>BEN!$A$28*BEN!BA28</f>
+        <v>0</v>
+      </c>
+      <c r="AT10" s="7">
+        <f>BEN!$A$28*BEN!BB28</f>
+        <v>0</v>
+      </c>
+      <c r="AU10" s="7">
+        <f>BEN!$A$28*BEN!BC28</f>
+        <v>0</v>
+      </c>
+      <c r="AV10" s="7">
+        <f>BEN!$A$28*BEN!BD28</f>
+        <v>0</v>
+      </c>
+      <c r="AW10" s="7">
+        <f>BEN!$A$28*BEN!BE28</f>
+        <v>0</v>
+      </c>
+      <c r="AX10" s="7">
+        <f>BEN!$A$28*BEN!BF28</f>
+        <v>0</v>
+      </c>
+      <c r="AY10" s="7">
+        <f>BEN!$A$28*BEN!BG28</f>
+        <v>0</v>
+      </c>
+      <c r="AZ10" s="7">
+        <f>BEN!$A$28*BEN!BH28</f>
+        <v>0</v>
+      </c>
+      <c r="BA10" s="7">
+        <f>BEN!$A$28*BEN!BI28</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
@@ -15328,6 +15030,86 @@
         <f>BEN!$A$32*BEN!AO32</f>
         <v>0</v>
       </c>
+      <c r="AH11" s="7">
+        <f>BEN!$A$32*BEN!AP32</f>
+        <v>0</v>
+      </c>
+      <c r="AI11" s="7">
+        <f>BEN!$A$32*BEN!AQ32</f>
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="7">
+        <f>BEN!$A$32*BEN!AR32</f>
+        <v>0</v>
+      </c>
+      <c r="AK11" s="7">
+        <f>BEN!$A$32*BEN!AS32</f>
+        <v>0</v>
+      </c>
+      <c r="AL11" s="7">
+        <f>BEN!$A$32*BEN!AT32</f>
+        <v>0</v>
+      </c>
+      <c r="AM11" s="7">
+        <f>BEN!$A$32*BEN!AU32</f>
+        <v>0</v>
+      </c>
+      <c r="AN11" s="7">
+        <f>BEN!$A$32*BEN!AV32</f>
+        <v>0</v>
+      </c>
+      <c r="AO11" s="7">
+        <f>BEN!$A$32*BEN!AW32</f>
+        <v>0</v>
+      </c>
+      <c r="AP11" s="7">
+        <f>BEN!$A$32*BEN!AX32</f>
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="7">
+        <f>BEN!$A$32*BEN!AY32</f>
+        <v>0</v>
+      </c>
+      <c r="AR11" s="7">
+        <f>BEN!$A$32*BEN!AZ32</f>
+        <v>0</v>
+      </c>
+      <c r="AS11" s="7">
+        <f>BEN!$A$32*BEN!BA32</f>
+        <v>0</v>
+      </c>
+      <c r="AT11" s="7">
+        <f>BEN!$A$32*BEN!BB32</f>
+        <v>0</v>
+      </c>
+      <c r="AU11" s="7">
+        <f>BEN!$A$32*BEN!BC32</f>
+        <v>0</v>
+      </c>
+      <c r="AV11" s="7">
+        <f>BEN!$A$32*BEN!BD32</f>
+        <v>0</v>
+      </c>
+      <c r="AW11" s="7">
+        <f>BEN!$A$32*BEN!BE32</f>
+        <v>0</v>
+      </c>
+      <c r="AX11" s="7">
+        <f>BEN!$A$32*BEN!BF32</f>
+        <v>0</v>
+      </c>
+      <c r="AY11" s="7">
+        <f>BEN!$A$32*BEN!BG32</f>
+        <v>0</v>
+      </c>
+      <c r="AZ11" s="7">
+        <f>BEN!$A$32*BEN!BH32</f>
+        <v>0</v>
+      </c>
+      <c r="BA11" s="7">
+        <f>BEN!$A$32*BEN!BI32</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
@@ -15461,6 +15243,86 @@
         <f>BEN!$A$36*BEN!AO36</f>
         <v>0</v>
       </c>
+      <c r="AH12" s="7">
+        <f>BEN!$A$36*BEN!AP36</f>
+        <v>0</v>
+      </c>
+      <c r="AI12" s="7">
+        <f>BEN!$A$36*BEN!AQ36</f>
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="7">
+        <f>BEN!$A$36*BEN!AR36</f>
+        <v>0</v>
+      </c>
+      <c r="AK12" s="7">
+        <f>BEN!$A$36*BEN!AS36</f>
+        <v>0</v>
+      </c>
+      <c r="AL12" s="7">
+        <f>BEN!$A$36*BEN!AT36</f>
+        <v>0</v>
+      </c>
+      <c r="AM12" s="7">
+        <f>BEN!$A$36*BEN!AU36</f>
+        <v>0</v>
+      </c>
+      <c r="AN12" s="7">
+        <f>BEN!$A$36*BEN!AV36</f>
+        <v>0</v>
+      </c>
+      <c r="AO12" s="7">
+        <f>BEN!$A$36*BEN!AW36</f>
+        <v>0</v>
+      </c>
+      <c r="AP12" s="7">
+        <f>BEN!$A$36*BEN!AX36</f>
+        <v>0</v>
+      </c>
+      <c r="AQ12" s="7">
+        <f>BEN!$A$36*BEN!AY36</f>
+        <v>0</v>
+      </c>
+      <c r="AR12" s="7">
+        <f>BEN!$A$36*BEN!AZ36</f>
+        <v>0</v>
+      </c>
+      <c r="AS12" s="7">
+        <f>BEN!$A$36*BEN!BA36</f>
+        <v>0</v>
+      </c>
+      <c r="AT12" s="7">
+        <f>BEN!$A$36*BEN!BB36</f>
+        <v>0</v>
+      </c>
+      <c r="AU12" s="7">
+        <f>BEN!$A$36*BEN!BC36</f>
+        <v>0</v>
+      </c>
+      <c r="AV12" s="7">
+        <f>BEN!$A$36*BEN!BD36</f>
+        <v>0</v>
+      </c>
+      <c r="AW12" s="7">
+        <f>BEN!$A$36*BEN!BE36</f>
+        <v>0</v>
+      </c>
+      <c r="AX12" s="7">
+        <f>BEN!$A$36*BEN!BF36</f>
+        <v>0</v>
+      </c>
+      <c r="AY12" s="7">
+        <f>BEN!$A$36*BEN!BG36</f>
+        <v>0</v>
+      </c>
+      <c r="AZ12" s="7">
+        <f>BEN!$A$36*BEN!BH36</f>
+        <v>0</v>
+      </c>
+      <c r="BA12" s="7">
+        <f>BEN!$A$36*BEN!BI36</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
@@ -15807,6 +15669,86 @@
         <f>BEN!$B$44*BEN!AO44</f>
         <v>0</v>
       </c>
+      <c r="AH14" s="7">
+        <f>BEN!$B$44*BEN!AP44</f>
+        <v>0</v>
+      </c>
+      <c r="AI14" s="7">
+        <f>BEN!$B$44*BEN!AQ44</f>
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="7">
+        <f>BEN!$B$44*BEN!AR44</f>
+        <v>0</v>
+      </c>
+      <c r="AK14" s="7">
+        <f>BEN!$B$44*BEN!AS44</f>
+        <v>0</v>
+      </c>
+      <c r="AL14" s="7">
+        <f>BEN!$B$44*BEN!AT44</f>
+        <v>0</v>
+      </c>
+      <c r="AM14" s="7">
+        <f>BEN!$B$44*BEN!AU44</f>
+        <v>0</v>
+      </c>
+      <c r="AN14" s="7">
+        <f>BEN!$B$44*BEN!AV44</f>
+        <v>0</v>
+      </c>
+      <c r="AO14" s="7">
+        <f>BEN!$B$44*BEN!AW44</f>
+        <v>0</v>
+      </c>
+      <c r="AP14" s="7">
+        <f>BEN!$B$44*BEN!AX44</f>
+        <v>0</v>
+      </c>
+      <c r="AQ14" s="7">
+        <f>BEN!$B$44*BEN!AY44</f>
+        <v>0</v>
+      </c>
+      <c r="AR14" s="7">
+        <f>BEN!$B$44*BEN!AZ44</f>
+        <v>0</v>
+      </c>
+      <c r="AS14" s="7">
+        <f>BEN!$B$44*BEN!BA44</f>
+        <v>0</v>
+      </c>
+      <c r="AT14" s="7">
+        <f>BEN!$B$44*BEN!BB44</f>
+        <v>0</v>
+      </c>
+      <c r="AU14" s="7">
+        <f>BEN!$B$44*BEN!BC44</f>
+        <v>0</v>
+      </c>
+      <c r="AV14" s="7">
+        <f>BEN!$B$44*BEN!BD44</f>
+        <v>0</v>
+      </c>
+      <c r="AW14" s="7">
+        <f>BEN!$B$44*BEN!BE44</f>
+        <v>0</v>
+      </c>
+      <c r="AX14" s="7">
+        <f>BEN!$B$44*BEN!BF44</f>
+        <v>0</v>
+      </c>
+      <c r="AY14" s="7">
+        <f>BEN!$B$44*BEN!BG44</f>
+        <v>0</v>
+      </c>
+      <c r="AZ14" s="7">
+        <f>BEN!$B$44*BEN!BH44</f>
+        <v>0</v>
+      </c>
+      <c r="BA14" s="7">
+        <f>BEN!$B$44*BEN!BI44</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
@@ -16262,6 +16204,86 @@
         <f>BEN!$A$50*BEN!AO50</f>
         <v>0</v>
       </c>
+      <c r="AH17" s="7">
+        <f>BEN!$A$50*BEN!AP50</f>
+        <v>0</v>
+      </c>
+      <c r="AI17" s="7">
+        <f>BEN!$A$50*BEN!AQ50</f>
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="7">
+        <f>BEN!$A$50*BEN!AR50</f>
+        <v>0</v>
+      </c>
+      <c r="AK17" s="7">
+        <f>BEN!$A$50*BEN!AS50</f>
+        <v>0</v>
+      </c>
+      <c r="AL17" s="7">
+        <f>BEN!$A$50*BEN!AT50</f>
+        <v>0</v>
+      </c>
+      <c r="AM17" s="7">
+        <f>BEN!$A$50*BEN!AU50</f>
+        <v>0</v>
+      </c>
+      <c r="AN17" s="7">
+        <f>BEN!$A$50*BEN!AV50</f>
+        <v>0</v>
+      </c>
+      <c r="AO17" s="7">
+        <f>BEN!$A$50*BEN!AW50</f>
+        <v>0</v>
+      </c>
+      <c r="AP17" s="7">
+        <f>BEN!$A$50*BEN!AX50</f>
+        <v>0</v>
+      </c>
+      <c r="AQ17" s="7">
+        <f>BEN!$A$50*BEN!AY50</f>
+        <v>0</v>
+      </c>
+      <c r="AR17" s="7">
+        <f>BEN!$A$50*BEN!AZ50</f>
+        <v>0</v>
+      </c>
+      <c r="AS17" s="7">
+        <f>BEN!$A$50*BEN!BA50</f>
+        <v>0</v>
+      </c>
+      <c r="AT17" s="7">
+        <f>BEN!$A$50*BEN!BB50</f>
+        <v>0</v>
+      </c>
+      <c r="AU17" s="7">
+        <f>BEN!$A$50*BEN!BC50</f>
+        <v>0</v>
+      </c>
+      <c r="AV17" s="7">
+        <f>BEN!$A$50*BEN!BD50</f>
+        <v>0</v>
+      </c>
+      <c r="AW17" s="7">
+        <f>BEN!$A$50*BEN!BE50</f>
+        <v>0</v>
+      </c>
+      <c r="AX17" s="7">
+        <f>BEN!$A$50*BEN!BF50</f>
+        <v>0</v>
+      </c>
+      <c r="AY17" s="7">
+        <f>BEN!$A$50*BEN!BG50</f>
+        <v>0</v>
+      </c>
+      <c r="AZ17" s="7">
+        <f>BEN!$A$50*BEN!BH50</f>
+        <v>0</v>
+      </c>
+      <c r="BA17" s="7">
+        <f>BEN!$A$50*BEN!BI50</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
@@ -16395,6 +16417,86 @@
         <f>BEN!$A$54*BEN!AO54</f>
         <v>0</v>
       </c>
+      <c r="AH18" s="8">
+        <f>BEN!$A$54*BEN!AP54</f>
+        <v>0</v>
+      </c>
+      <c r="AI18" s="8">
+        <f>BEN!$A$54*BEN!AQ54</f>
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="8">
+        <f>BEN!$A$54*BEN!AR54</f>
+        <v>0</v>
+      </c>
+      <c r="AK18" s="8">
+        <f>BEN!$A$54*BEN!AS54</f>
+        <v>0</v>
+      </c>
+      <c r="AL18" s="8">
+        <f>BEN!$A$54*BEN!AT54</f>
+        <v>0</v>
+      </c>
+      <c r="AM18" s="8">
+        <f>BEN!$A$54*BEN!AU54</f>
+        <v>0</v>
+      </c>
+      <c r="AN18" s="8">
+        <f>BEN!$A$54*BEN!AV54</f>
+        <v>0</v>
+      </c>
+      <c r="AO18" s="8">
+        <f>BEN!$A$54*BEN!AW54</f>
+        <v>0</v>
+      </c>
+      <c r="AP18" s="8">
+        <f>BEN!$A$54*BEN!AX54</f>
+        <v>0</v>
+      </c>
+      <c r="AQ18" s="8">
+        <f>BEN!$A$54*BEN!AY54</f>
+        <v>0</v>
+      </c>
+      <c r="AR18" s="8">
+        <f>BEN!$A$54*BEN!AZ54</f>
+        <v>0</v>
+      </c>
+      <c r="AS18" s="8">
+        <f>BEN!$A$54*BEN!BA54</f>
+        <v>0</v>
+      </c>
+      <c r="AT18" s="8">
+        <f>BEN!$A$54*BEN!BB54</f>
+        <v>0</v>
+      </c>
+      <c r="AU18" s="8">
+        <f>BEN!$A$54*BEN!BC54</f>
+        <v>0</v>
+      </c>
+      <c r="AV18" s="8">
+        <f>BEN!$A$54*BEN!BD54</f>
+        <v>0</v>
+      </c>
+      <c r="AW18" s="8">
+        <f>BEN!$A$54*BEN!BE54</f>
+        <v>0</v>
+      </c>
+      <c r="AX18" s="8">
+        <f>BEN!$A$54*BEN!BF54</f>
+        <v>0</v>
+      </c>
+      <c r="AY18" s="8">
+        <f>BEN!$A$54*BEN!BG54</f>
+        <v>0</v>
+      </c>
+      <c r="AZ18" s="8">
+        <f>BEN!$A$54*BEN!BH54</f>
+        <v>0</v>
+      </c>
+      <c r="BA18" s="8">
+        <f>BEN!$A$54*BEN!BI54</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
@@ -16528,6 +16630,86 @@
         <f>BEN!$A$58*BEN!AO58</f>
         <v>0</v>
       </c>
+      <c r="AH19" s="7">
+        <f>BEN!$A$58*BEN!AP58</f>
+        <v>0</v>
+      </c>
+      <c r="AI19" s="7">
+        <f>BEN!$A$58*BEN!AQ58</f>
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="7">
+        <f>BEN!$A$58*BEN!AR58</f>
+        <v>0</v>
+      </c>
+      <c r="AK19" s="7">
+        <f>BEN!$A$58*BEN!AS58</f>
+        <v>0</v>
+      </c>
+      <c r="AL19" s="7">
+        <f>BEN!$A$58*BEN!AT58</f>
+        <v>0</v>
+      </c>
+      <c r="AM19" s="7">
+        <f>BEN!$A$58*BEN!AU58</f>
+        <v>0</v>
+      </c>
+      <c r="AN19" s="7">
+        <f>BEN!$A$58*BEN!AV58</f>
+        <v>0</v>
+      </c>
+      <c r="AO19" s="7">
+        <f>BEN!$A$58*BEN!AW58</f>
+        <v>0</v>
+      </c>
+      <c r="AP19" s="7">
+        <f>BEN!$A$58*BEN!AX58</f>
+        <v>0</v>
+      </c>
+      <c r="AQ19" s="7">
+        <f>BEN!$A$58*BEN!AY58</f>
+        <v>0</v>
+      </c>
+      <c r="AR19" s="7">
+        <f>BEN!$A$58*BEN!AZ58</f>
+        <v>0</v>
+      </c>
+      <c r="AS19" s="7">
+        <f>BEN!$A$58*BEN!BA58</f>
+        <v>0</v>
+      </c>
+      <c r="AT19" s="7">
+        <f>BEN!$A$58*BEN!BB58</f>
+        <v>0</v>
+      </c>
+      <c r="AU19" s="7">
+        <f>BEN!$A$58*BEN!BC58</f>
+        <v>0</v>
+      </c>
+      <c r="AV19" s="7">
+        <f>BEN!$A$58*BEN!BD58</f>
+        <v>0</v>
+      </c>
+      <c r="AW19" s="7">
+        <f>BEN!$A$58*BEN!BE58</f>
+        <v>0</v>
+      </c>
+      <c r="AX19" s="7">
+        <f>BEN!$A$58*BEN!BF58</f>
+        <v>0</v>
+      </c>
+      <c r="AY19" s="7">
+        <f>BEN!$A$58*BEN!BG58</f>
+        <v>0</v>
+      </c>
+      <c r="AZ19" s="7">
+        <f>BEN!$A$58*BEN!BH58</f>
+        <v>0</v>
+      </c>
+      <c r="BA19" s="7">
+        <f>BEN!$A$58*BEN!BI58</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
@@ -16659,6 +16841,86 @@
       </c>
       <c r="AG20" s="7">
         <f>BEN!$A$62*BEN!AO62</f>
+        <v>0</v>
+      </c>
+      <c r="AH20" s="7">
+        <f>BEN!$A$62*BEN!AP62</f>
+        <v>0</v>
+      </c>
+      <c r="AI20" s="7">
+        <f>BEN!$A$62*BEN!AQ62</f>
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="7">
+        <f>BEN!$A$62*BEN!AR62</f>
+        <v>0</v>
+      </c>
+      <c r="AK20" s="7">
+        <f>BEN!$A$62*BEN!AS62</f>
+        <v>0</v>
+      </c>
+      <c r="AL20" s="7">
+        <f>BEN!$A$62*BEN!AT62</f>
+        <v>0</v>
+      </c>
+      <c r="AM20" s="7">
+        <f>BEN!$A$62*BEN!AU62</f>
+        <v>0</v>
+      </c>
+      <c r="AN20" s="7">
+        <f>BEN!$A$62*BEN!AV62</f>
+        <v>0</v>
+      </c>
+      <c r="AO20" s="7">
+        <f>BEN!$A$62*BEN!AW62</f>
+        <v>0</v>
+      </c>
+      <c r="AP20" s="7">
+        <f>BEN!$A$62*BEN!AX62</f>
+        <v>0</v>
+      </c>
+      <c r="AQ20" s="7">
+        <f>BEN!$A$62*BEN!AY62</f>
+        <v>0</v>
+      </c>
+      <c r="AR20" s="7">
+        <f>BEN!$A$62*BEN!AZ62</f>
+        <v>0</v>
+      </c>
+      <c r="AS20" s="7">
+        <f>BEN!$A$62*BEN!BA62</f>
+        <v>0</v>
+      </c>
+      <c r="AT20" s="7">
+        <f>BEN!$A$62*BEN!BB62</f>
+        <v>0</v>
+      </c>
+      <c r="AU20" s="7">
+        <f>BEN!$A$62*BEN!BC62</f>
+        <v>0</v>
+      </c>
+      <c r="AV20" s="7">
+        <f>BEN!$A$62*BEN!BD62</f>
+        <v>0</v>
+      </c>
+      <c r="AW20" s="7">
+        <f>BEN!$A$62*BEN!BE62</f>
+        <v>0</v>
+      </c>
+      <c r="AX20" s="7">
+        <f>BEN!$A$62*BEN!BF62</f>
+        <v>0</v>
+      </c>
+      <c r="AY20" s="7">
+        <f>BEN!$A$62*BEN!BG62</f>
+        <v>0</v>
+      </c>
+      <c r="AZ20" s="7">
+        <f>BEN!$A$62*BEN!BH62</f>
+        <v>0</v>
+      </c>
+      <c r="BA20" s="7">
+        <f>BEN!$A$62*BEN!BI62</f>
         <v>0</v>
       </c>
     </row>
@@ -17101,8 +17363,8 @@
   </sheetPr>
   <dimension ref="A1:BA22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="BC18" sqref="BC18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -17778,6 +18040,86 @@
         <f>BEN!$A$9*BEN!AO8</f>
         <v>0</v>
       </c>
+      <c r="AH4" s="8">
+        <f>BEN!$A$9*BEN!AP8</f>
+        <v>0</v>
+      </c>
+      <c r="AI4" s="8">
+        <f>BEN!$A$9*BEN!AQ8</f>
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="8">
+        <f>BEN!$A$9*BEN!AR8</f>
+        <v>0</v>
+      </c>
+      <c r="AK4" s="8">
+        <f>BEN!$A$9*BEN!AS8</f>
+        <v>0</v>
+      </c>
+      <c r="AL4" s="8">
+        <f>BEN!$A$9*BEN!AT8</f>
+        <v>0</v>
+      </c>
+      <c r="AM4" s="8">
+        <f>BEN!$A$9*BEN!AU8</f>
+        <v>0</v>
+      </c>
+      <c r="AN4" s="8">
+        <f>BEN!$A$9*BEN!AV8</f>
+        <v>0</v>
+      </c>
+      <c r="AO4" s="8">
+        <f>BEN!$A$9*BEN!AW8</f>
+        <v>0</v>
+      </c>
+      <c r="AP4" s="8">
+        <f>BEN!$A$9*BEN!AX8</f>
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="8">
+        <f>BEN!$A$9*BEN!AY8</f>
+        <v>0</v>
+      </c>
+      <c r="AR4" s="8">
+        <f>BEN!$A$9*BEN!AZ8</f>
+        <v>0</v>
+      </c>
+      <c r="AS4" s="8">
+        <f>BEN!$A$9*BEN!BA8</f>
+        <v>0</v>
+      </c>
+      <c r="AT4" s="8">
+        <f>BEN!$A$9*BEN!BB8</f>
+        <v>0</v>
+      </c>
+      <c r="AU4" s="8">
+        <f>BEN!$A$9*BEN!BC8</f>
+        <v>0</v>
+      </c>
+      <c r="AV4" s="8">
+        <f>BEN!$A$9*BEN!BD8</f>
+        <v>0</v>
+      </c>
+      <c r="AW4" s="8">
+        <f>BEN!$A$9*BEN!BE8</f>
+        <v>0</v>
+      </c>
+      <c r="AX4" s="8">
+        <f>BEN!$A$9*BEN!BF8</f>
+        <v>0</v>
+      </c>
+      <c r="AY4" s="8">
+        <f>BEN!$A$9*BEN!BG8</f>
+        <v>0</v>
+      </c>
+      <c r="AZ4" s="8">
+        <f>BEN!$A$9*BEN!BH8</f>
+        <v>0</v>
+      </c>
+      <c r="BA4" s="8">
+        <f>BEN!$A$9*BEN!BI8</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
@@ -17840,76 +18182,118 @@
         <v>7023457.1763804527</v>
       </c>
       <c r="P5" s="7">
-        <f>BEN!$A$15*BEN!X14</f>
-        <v>7023457.1763804527</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="7">
-        <f>BEN!$A$15*BEN!Y14</f>
-        <v>7023457.1763804527</v>
+        <v>0</v>
       </c>
       <c r="R5" s="7">
-        <f>BEN!$A$15*BEN!Z14</f>
-        <v>7023457.1763804527</v>
+        <v>0</v>
       </c>
       <c r="S5" s="7">
-        <f>BEN!$A$15*BEN!AA14</f>
-        <v>7023457.1763804527</v>
+        <v>0</v>
       </c>
       <c r="T5" s="7">
-        <f>BEN!$A$15*BEN!AB14</f>
-        <v>7023457.1763804527</v>
+        <v>0</v>
       </c>
       <c r="U5" s="7">
-        <f>BEN!$A$15*BEN!AC14</f>
-        <v>7023457.1763804527</v>
+        <v>0</v>
       </c>
       <c r="V5" s="7">
-        <f>BEN!$A$15*BEN!AD14</f>
-        <v>7023457.1763804527</v>
+        <v>0</v>
       </c>
       <c r="W5" s="7">
-        <f>BEN!$A$15*BEN!AE14</f>
-        <v>7023457.1763804527</v>
+        <v>0</v>
       </c>
       <c r="X5" s="7">
-        <f>BEN!$A$15*BEN!AF14</f>
-        <v>7023457.1763804527</v>
+        <v>0</v>
       </c>
       <c r="Y5" s="7">
-        <f>BEN!$A$15*BEN!AG14</f>
-        <v>7023457.1763804527</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="7">
-        <f>BEN!$A$15*BEN!AH14</f>
-        <v>7023457.1763804527</v>
+        <v>0</v>
       </c>
       <c r="AA5" s="7">
-        <f>BEN!$A$15*BEN!AI14</f>
-        <v>7023457.1763804527</v>
+        <v>0</v>
       </c>
       <c r="AB5" s="7">
-        <f>BEN!$A$15*BEN!AJ14</f>
-        <v>7023457.1763804527</v>
+        <v>0</v>
       </c>
       <c r="AC5" s="7">
-        <f>BEN!$A$15*BEN!AK14</f>
-        <v>7023457.1763804527</v>
+        <v>0</v>
       </c>
       <c r="AD5" s="7">
-        <f>BEN!$A$15*BEN!AL14</f>
-        <v>7023457.1763804527</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="7">
-        <f>BEN!$A$15*BEN!AM14</f>
-        <v>7023457.1763804527</v>
+        <v>0</v>
       </c>
       <c r="AF5" s="7">
-        <f>BEN!$A$15*BEN!AN14</f>
-        <v>7023457.1763804527</v>
+        <v>0</v>
       </c>
       <c r="AG5" s="7">
-        <f>BEN!$A$15*BEN!AO14</f>
-        <v>7023457.1763804527</v>
+        <v>0</v>
+      </c>
+      <c r="AH5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AS5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AT5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AU5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AV5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AW5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AX5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AY5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AZ5" s="7">
+        <v>0</v>
+      </c>
+      <c r="BA5" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:53" x14ac:dyDescent="0.45">
@@ -18527,6 +18911,86 @@
         <f>BEN!$A$20*BEN!AO19</f>
         <v>0</v>
       </c>
+      <c r="AH9" s="7">
+        <f>BEN!$A$20*BEN!AP19</f>
+        <v>0</v>
+      </c>
+      <c r="AI9" s="7">
+        <f>BEN!$A$20*BEN!AQ19</f>
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="7">
+        <f>BEN!$A$20*BEN!AR19</f>
+        <v>0</v>
+      </c>
+      <c r="AK9" s="7">
+        <f>BEN!$A$20*BEN!AS19</f>
+        <v>0</v>
+      </c>
+      <c r="AL9" s="7">
+        <f>BEN!$A$20*BEN!AT19</f>
+        <v>0</v>
+      </c>
+      <c r="AM9" s="7">
+        <f>BEN!$A$20*BEN!AU19</f>
+        <v>0</v>
+      </c>
+      <c r="AN9" s="7">
+        <f>BEN!$A$20*BEN!AV19</f>
+        <v>0</v>
+      </c>
+      <c r="AO9" s="7">
+        <f>BEN!$A$20*BEN!AW19</f>
+        <v>0</v>
+      </c>
+      <c r="AP9" s="7">
+        <f>BEN!$A$20*BEN!AX19</f>
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="7">
+        <f>BEN!$A$20*BEN!AY19</f>
+        <v>0</v>
+      </c>
+      <c r="AR9" s="7">
+        <f>BEN!$A$20*BEN!AZ19</f>
+        <v>0</v>
+      </c>
+      <c r="AS9" s="7">
+        <f>BEN!$A$20*BEN!BA19</f>
+        <v>0</v>
+      </c>
+      <c r="AT9" s="7">
+        <f>BEN!$A$20*BEN!BB19</f>
+        <v>0</v>
+      </c>
+      <c r="AU9" s="7">
+        <f>BEN!$A$20*BEN!BC19</f>
+        <v>0</v>
+      </c>
+      <c r="AV9" s="7">
+        <f>BEN!$A$20*BEN!BD19</f>
+        <v>0</v>
+      </c>
+      <c r="AW9" s="7">
+        <f>BEN!$A$20*BEN!BE19</f>
+        <v>0</v>
+      </c>
+      <c r="AX9" s="7">
+        <f>BEN!$A$20*BEN!BF19</f>
+        <v>0</v>
+      </c>
+      <c r="AY9" s="7">
+        <f>BEN!$A$20*BEN!BG19</f>
+        <v>0</v>
+      </c>
+      <c r="AZ9" s="7">
+        <f>BEN!$A$20*BEN!BH19</f>
+        <v>0</v>
+      </c>
+      <c r="BA9" s="7">
+        <f>BEN!$A$20*BEN!BI19</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
@@ -18660,6 +19124,86 @@
         <f>BEN!$A$28*BEN!AO27</f>
         <v>0</v>
       </c>
+      <c r="AH10" s="7">
+        <f>BEN!$A$28*BEN!AP27</f>
+        <v>0</v>
+      </c>
+      <c r="AI10" s="7">
+        <f>BEN!$A$28*BEN!AQ27</f>
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="7">
+        <f>BEN!$A$28*BEN!AR27</f>
+        <v>0</v>
+      </c>
+      <c r="AK10" s="7">
+        <f>BEN!$A$28*BEN!AS27</f>
+        <v>0</v>
+      </c>
+      <c r="AL10" s="7">
+        <f>BEN!$A$28*BEN!AT27</f>
+        <v>0</v>
+      </c>
+      <c r="AM10" s="7">
+        <f>BEN!$A$28*BEN!AU27</f>
+        <v>0</v>
+      </c>
+      <c r="AN10" s="7">
+        <f>BEN!$A$28*BEN!AV27</f>
+        <v>0</v>
+      </c>
+      <c r="AO10" s="7">
+        <f>BEN!$A$28*BEN!AW27</f>
+        <v>0</v>
+      </c>
+      <c r="AP10" s="7">
+        <f>BEN!$A$28*BEN!AX27</f>
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="7">
+        <f>BEN!$A$28*BEN!AY27</f>
+        <v>0</v>
+      </c>
+      <c r="AR10" s="7">
+        <f>BEN!$A$28*BEN!AZ27</f>
+        <v>0</v>
+      </c>
+      <c r="AS10" s="7">
+        <f>BEN!$A$28*BEN!BA27</f>
+        <v>0</v>
+      </c>
+      <c r="AT10" s="7">
+        <f>BEN!$A$28*BEN!BB27</f>
+        <v>0</v>
+      </c>
+      <c r="AU10" s="7">
+        <f>BEN!$A$28*BEN!BC27</f>
+        <v>0</v>
+      </c>
+      <c r="AV10" s="7">
+        <f>BEN!$A$28*BEN!BD27</f>
+        <v>0</v>
+      </c>
+      <c r="AW10" s="7">
+        <f>BEN!$A$28*BEN!BE27</f>
+        <v>0</v>
+      </c>
+      <c r="AX10" s="7">
+        <f>BEN!$A$28*BEN!BF27</f>
+        <v>0</v>
+      </c>
+      <c r="AY10" s="7">
+        <f>BEN!$A$28*BEN!BG27</f>
+        <v>0</v>
+      </c>
+      <c r="AZ10" s="7">
+        <f>BEN!$A$28*BEN!BH27</f>
+        <v>0</v>
+      </c>
+      <c r="BA10" s="7">
+        <f>BEN!$A$28*BEN!BI27</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
@@ -18793,6 +19337,86 @@
         <f>BEN!$A$32*BEN!AO31</f>
         <v>0</v>
       </c>
+      <c r="AH11" s="7">
+        <f>BEN!$A$32*BEN!AP31</f>
+        <v>0</v>
+      </c>
+      <c r="AI11" s="7">
+        <f>BEN!$A$32*BEN!AQ31</f>
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="7">
+        <f>BEN!$A$32*BEN!AR31</f>
+        <v>0</v>
+      </c>
+      <c r="AK11" s="7">
+        <f>BEN!$A$32*BEN!AS31</f>
+        <v>0</v>
+      </c>
+      <c r="AL11" s="7">
+        <f>BEN!$A$32*BEN!AT31</f>
+        <v>0</v>
+      </c>
+      <c r="AM11" s="7">
+        <f>BEN!$A$32*BEN!AU31</f>
+        <v>0</v>
+      </c>
+      <c r="AN11" s="7">
+        <f>BEN!$A$32*BEN!AV31</f>
+        <v>0</v>
+      </c>
+      <c r="AO11" s="7">
+        <f>BEN!$A$32*BEN!AW31</f>
+        <v>0</v>
+      </c>
+      <c r="AP11" s="7">
+        <f>BEN!$A$32*BEN!AX31</f>
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="7">
+        <f>BEN!$A$32*BEN!AY31</f>
+        <v>0</v>
+      </c>
+      <c r="AR11" s="7">
+        <f>BEN!$A$32*BEN!AZ31</f>
+        <v>0</v>
+      </c>
+      <c r="AS11" s="7">
+        <f>BEN!$A$32*BEN!BA31</f>
+        <v>0</v>
+      </c>
+      <c r="AT11" s="7">
+        <f>BEN!$A$32*BEN!BB31</f>
+        <v>0</v>
+      </c>
+      <c r="AU11" s="7">
+        <f>BEN!$A$32*BEN!BC31</f>
+        <v>0</v>
+      </c>
+      <c r="AV11" s="7">
+        <f>BEN!$A$32*BEN!BD31</f>
+        <v>0</v>
+      </c>
+      <c r="AW11" s="7">
+        <f>BEN!$A$32*BEN!BE31</f>
+        <v>0</v>
+      </c>
+      <c r="AX11" s="7">
+        <f>BEN!$A$32*BEN!BF31</f>
+        <v>0</v>
+      </c>
+      <c r="AY11" s="7">
+        <f>BEN!$A$32*BEN!BG31</f>
+        <v>0</v>
+      </c>
+      <c r="AZ11" s="7">
+        <f>BEN!$A$32*BEN!BH31</f>
+        <v>0</v>
+      </c>
+      <c r="BA11" s="7">
+        <f>BEN!$A$32*BEN!BI31</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
@@ -18926,6 +19550,86 @@
         <f>BEN!$A$36*BEN!AO35</f>
         <v>0</v>
       </c>
+      <c r="AH12" s="7">
+        <f>BEN!$A$36*BEN!AP35</f>
+        <v>0</v>
+      </c>
+      <c r="AI12" s="7">
+        <f>BEN!$A$36*BEN!AQ35</f>
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="7">
+        <f>BEN!$A$36*BEN!AR35</f>
+        <v>0</v>
+      </c>
+      <c r="AK12" s="7">
+        <f>BEN!$A$36*BEN!AS35</f>
+        <v>0</v>
+      </c>
+      <c r="AL12" s="7">
+        <f>BEN!$A$36*BEN!AT35</f>
+        <v>0</v>
+      </c>
+      <c r="AM12" s="7">
+        <f>BEN!$A$36*BEN!AU35</f>
+        <v>0</v>
+      </c>
+      <c r="AN12" s="7">
+        <f>BEN!$A$36*BEN!AV35</f>
+        <v>0</v>
+      </c>
+      <c r="AO12" s="7">
+        <f>BEN!$A$36*BEN!AW35</f>
+        <v>0</v>
+      </c>
+      <c r="AP12" s="7">
+        <f>BEN!$A$36*BEN!AX35</f>
+        <v>0</v>
+      </c>
+      <c r="AQ12" s="7">
+        <f>BEN!$A$36*BEN!AY35</f>
+        <v>0</v>
+      </c>
+      <c r="AR12" s="7">
+        <f>BEN!$A$36*BEN!AZ35</f>
+        <v>0</v>
+      </c>
+      <c r="AS12" s="7">
+        <f>BEN!$A$36*BEN!BA35</f>
+        <v>0</v>
+      </c>
+      <c r="AT12" s="7">
+        <f>BEN!$A$36*BEN!BB35</f>
+        <v>0</v>
+      </c>
+      <c r="AU12" s="7">
+        <f>BEN!$A$36*BEN!BC35</f>
+        <v>0</v>
+      </c>
+      <c r="AV12" s="7">
+        <f>BEN!$A$36*BEN!BD35</f>
+        <v>0</v>
+      </c>
+      <c r="AW12" s="7">
+        <f>BEN!$A$36*BEN!BE35</f>
+        <v>0</v>
+      </c>
+      <c r="AX12" s="7">
+        <f>BEN!$A$36*BEN!BF35</f>
+        <v>0</v>
+      </c>
+      <c r="AY12" s="7">
+        <f>BEN!$A$36*BEN!BG35</f>
+        <v>0</v>
+      </c>
+      <c r="AZ12" s="7">
+        <f>BEN!$A$36*BEN!BH35</f>
+        <v>0</v>
+      </c>
+      <c r="BA12" s="7">
+        <f>BEN!$A$36*BEN!BI35</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
@@ -19059,6 +19763,86 @@
         <f>BEN!$A$40*BEN!AO39</f>
         <v>0</v>
       </c>
+      <c r="AH13" s="7">
+        <f>BEN!$A$40*BEN!AP39</f>
+        <v>0</v>
+      </c>
+      <c r="AI13" s="7">
+        <f>BEN!$A$40*BEN!AQ39</f>
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="7">
+        <f>BEN!$A$40*BEN!AR39</f>
+        <v>0</v>
+      </c>
+      <c r="AK13" s="7">
+        <f>BEN!$A$40*BEN!AS39</f>
+        <v>0</v>
+      </c>
+      <c r="AL13" s="7">
+        <f>BEN!$A$40*BEN!AT39</f>
+        <v>0</v>
+      </c>
+      <c r="AM13" s="7">
+        <f>BEN!$A$40*BEN!AU39</f>
+        <v>0</v>
+      </c>
+      <c r="AN13" s="7">
+        <f>BEN!$A$40*BEN!AV39</f>
+        <v>0</v>
+      </c>
+      <c r="AO13" s="7">
+        <f>BEN!$A$40*BEN!AW39</f>
+        <v>0</v>
+      </c>
+      <c r="AP13" s="7">
+        <f>BEN!$A$40*BEN!AX39</f>
+        <v>0</v>
+      </c>
+      <c r="AQ13" s="7">
+        <f>BEN!$A$40*BEN!AY39</f>
+        <v>0</v>
+      </c>
+      <c r="AR13" s="7">
+        <f>BEN!$A$40*BEN!AZ39</f>
+        <v>0</v>
+      </c>
+      <c r="AS13" s="7">
+        <f>BEN!$A$40*BEN!BA39</f>
+        <v>0</v>
+      </c>
+      <c r="AT13" s="7">
+        <f>BEN!$A$40*BEN!BB39</f>
+        <v>0</v>
+      </c>
+      <c r="AU13" s="7">
+        <f>BEN!$A$40*BEN!BC39</f>
+        <v>0</v>
+      </c>
+      <c r="AV13" s="7">
+        <f>BEN!$A$40*BEN!BD39</f>
+        <v>0</v>
+      </c>
+      <c r="AW13" s="7">
+        <f>BEN!$A$40*BEN!BE39</f>
+        <v>0</v>
+      </c>
+      <c r="AX13" s="7">
+        <f>BEN!$A$40*BEN!BF39</f>
+        <v>0</v>
+      </c>
+      <c r="AY13" s="7">
+        <f>BEN!$A$40*BEN!BG39</f>
+        <v>0</v>
+      </c>
+      <c r="AZ13" s="7">
+        <f>BEN!$A$40*BEN!BH39</f>
+        <v>0</v>
+      </c>
+      <c r="BA13" s="7">
+        <f>BEN!$A$40*BEN!BI39</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
@@ -19268,6 +20052,10 @@
         <f>BEN!$B$44*BEN!BH45</f>
         <v>0</v>
       </c>
+      <c r="BA14" s="7">
+        <f>BEN!$B$44*BEN!BI45</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
@@ -19723,6 +20511,86 @@
         <f>BEN!$A$50*BEN!AO49</f>
         <v>0</v>
       </c>
+      <c r="AH17" s="7">
+        <f>BEN!$A$50*BEN!AP49</f>
+        <v>0</v>
+      </c>
+      <c r="AI17" s="7">
+        <f>BEN!$A$50*BEN!AQ49</f>
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="7">
+        <f>BEN!$A$50*BEN!AR49</f>
+        <v>0</v>
+      </c>
+      <c r="AK17" s="7">
+        <f>BEN!$A$50*BEN!AS49</f>
+        <v>0</v>
+      </c>
+      <c r="AL17" s="7">
+        <f>BEN!$A$50*BEN!AT49</f>
+        <v>0</v>
+      </c>
+      <c r="AM17" s="7">
+        <f>BEN!$A$50*BEN!AU49</f>
+        <v>0</v>
+      </c>
+      <c r="AN17" s="7">
+        <f>BEN!$A$50*BEN!AV49</f>
+        <v>0</v>
+      </c>
+      <c r="AO17" s="7">
+        <f>BEN!$A$50*BEN!AW49</f>
+        <v>0</v>
+      </c>
+      <c r="AP17" s="7">
+        <f>BEN!$A$50*BEN!AX49</f>
+        <v>0</v>
+      </c>
+      <c r="AQ17" s="7">
+        <f>BEN!$A$50*BEN!AY49</f>
+        <v>0</v>
+      </c>
+      <c r="AR17" s="7">
+        <f>BEN!$A$50*BEN!AZ49</f>
+        <v>0</v>
+      </c>
+      <c r="AS17" s="7">
+        <f>BEN!$A$50*BEN!BA49</f>
+        <v>0</v>
+      </c>
+      <c r="AT17" s="7">
+        <f>BEN!$A$50*BEN!BB49</f>
+        <v>0</v>
+      </c>
+      <c r="AU17" s="7">
+        <f>BEN!$A$50*BEN!BC49</f>
+        <v>0</v>
+      </c>
+      <c r="AV17" s="7">
+        <f>BEN!$A$50*BEN!BD49</f>
+        <v>0</v>
+      </c>
+      <c r="AW17" s="7">
+        <f>BEN!$A$50*BEN!BE49</f>
+        <v>0</v>
+      </c>
+      <c r="AX17" s="7">
+        <f>BEN!$A$50*BEN!BF49</f>
+        <v>0</v>
+      </c>
+      <c r="AY17" s="7">
+        <f>BEN!$A$50*BEN!BG49</f>
+        <v>0</v>
+      </c>
+      <c r="AZ17" s="7">
+        <f>BEN!$A$50*BEN!BH49</f>
+        <v>0</v>
+      </c>
+      <c r="BA17" s="7">
+        <f>BEN!$A$50*BEN!BI49</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
@@ -19856,6 +20724,86 @@
         <f>BEN!$A$54*BEN!AO53</f>
         <v>0</v>
       </c>
+      <c r="AH18" s="8">
+        <f>BEN!$A$54*BEN!AP53</f>
+        <v>0</v>
+      </c>
+      <c r="AI18" s="8">
+        <f>BEN!$A$54*BEN!AQ53</f>
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="8">
+        <f>BEN!$A$54*BEN!AR53</f>
+        <v>0</v>
+      </c>
+      <c r="AK18" s="8">
+        <f>BEN!$A$54*BEN!AS53</f>
+        <v>0</v>
+      </c>
+      <c r="AL18" s="8">
+        <f>BEN!$A$54*BEN!AT53</f>
+        <v>0</v>
+      </c>
+      <c r="AM18" s="8">
+        <f>BEN!$A$54*BEN!AU53</f>
+        <v>0</v>
+      </c>
+      <c r="AN18" s="8">
+        <f>BEN!$A$54*BEN!AV53</f>
+        <v>0</v>
+      </c>
+      <c r="AO18" s="8">
+        <f>BEN!$A$54*BEN!AW53</f>
+        <v>0</v>
+      </c>
+      <c r="AP18" s="8">
+        <f>BEN!$A$54*BEN!AX53</f>
+        <v>0</v>
+      </c>
+      <c r="AQ18" s="8">
+        <f>BEN!$A$54*BEN!AY53</f>
+        <v>0</v>
+      </c>
+      <c r="AR18" s="8">
+        <f>BEN!$A$54*BEN!AZ53</f>
+        <v>0</v>
+      </c>
+      <c r="AS18" s="8">
+        <f>BEN!$A$54*BEN!BA53</f>
+        <v>0</v>
+      </c>
+      <c r="AT18" s="8">
+        <f>BEN!$A$54*BEN!BB53</f>
+        <v>0</v>
+      </c>
+      <c r="AU18" s="8">
+        <f>BEN!$A$54*BEN!BC53</f>
+        <v>0</v>
+      </c>
+      <c r="AV18" s="8">
+        <f>BEN!$A$54*BEN!BD53</f>
+        <v>0</v>
+      </c>
+      <c r="AW18" s="8">
+        <f>BEN!$A$54*BEN!BE53</f>
+        <v>0</v>
+      </c>
+      <c r="AX18" s="8">
+        <f>BEN!$A$54*BEN!BF53</f>
+        <v>0</v>
+      </c>
+      <c r="AY18" s="8">
+        <f>BEN!$A$54*BEN!BG53</f>
+        <v>0</v>
+      </c>
+      <c r="AZ18" s="8">
+        <f>BEN!$A$54*BEN!BH53</f>
+        <v>0</v>
+      </c>
+      <c r="BA18" s="8">
+        <f>BEN!$A$54*BEN!BI53</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
@@ -19989,6 +20937,86 @@
         <f>BEN!$A$58*BEN!AO57</f>
         <v>0</v>
       </c>
+      <c r="AH19" s="7">
+        <f>BEN!$A$58*BEN!AP57</f>
+        <v>0</v>
+      </c>
+      <c r="AI19" s="7">
+        <f>BEN!$A$58*BEN!AQ57</f>
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="7">
+        <f>BEN!$A$58*BEN!AR57</f>
+        <v>0</v>
+      </c>
+      <c r="AK19" s="7">
+        <f>BEN!$A$58*BEN!AS57</f>
+        <v>0</v>
+      </c>
+      <c r="AL19" s="7">
+        <f>BEN!$A$58*BEN!AT57</f>
+        <v>0</v>
+      </c>
+      <c r="AM19" s="7">
+        <f>BEN!$A$58*BEN!AU57</f>
+        <v>0</v>
+      </c>
+      <c r="AN19" s="7">
+        <f>BEN!$A$58*BEN!AV57</f>
+        <v>0</v>
+      </c>
+      <c r="AO19" s="7">
+        <f>BEN!$A$58*BEN!AW57</f>
+        <v>0</v>
+      </c>
+      <c r="AP19" s="7">
+        <f>BEN!$A$58*BEN!AX57</f>
+        <v>0</v>
+      </c>
+      <c r="AQ19" s="7">
+        <f>BEN!$A$58*BEN!AY57</f>
+        <v>0</v>
+      </c>
+      <c r="AR19" s="7">
+        <f>BEN!$A$58*BEN!AZ57</f>
+        <v>0</v>
+      </c>
+      <c r="AS19" s="7">
+        <f>BEN!$A$58*BEN!BA57</f>
+        <v>0</v>
+      </c>
+      <c r="AT19" s="7">
+        <f>BEN!$A$58*BEN!BB57</f>
+        <v>0</v>
+      </c>
+      <c r="AU19" s="7">
+        <f>BEN!$A$58*BEN!BC57</f>
+        <v>0</v>
+      </c>
+      <c r="AV19" s="7">
+        <f>BEN!$A$58*BEN!BD57</f>
+        <v>0</v>
+      </c>
+      <c r="AW19" s="7">
+        <f>BEN!$A$58*BEN!BE57</f>
+        <v>0</v>
+      </c>
+      <c r="AX19" s="7">
+        <f>BEN!$A$58*BEN!BF57</f>
+        <v>0</v>
+      </c>
+      <c r="AY19" s="7">
+        <f>BEN!$A$58*BEN!BG57</f>
+        <v>0</v>
+      </c>
+      <c r="AZ19" s="7">
+        <f>BEN!$A$58*BEN!BH57</f>
+        <v>0</v>
+      </c>
+      <c r="BA19" s="7">
+        <f>BEN!$A$58*BEN!BI57</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:53" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
@@ -20120,6 +21148,86 @@
       </c>
       <c r="AG20" s="7">
         <f>BEN!$A$62*BEN!AO61</f>
+        <v>0</v>
+      </c>
+      <c r="AH20" s="7">
+        <f>BEN!$A$62*BEN!AP61</f>
+        <v>0</v>
+      </c>
+      <c r="AI20" s="7">
+        <f>BEN!$A$62*BEN!AQ61</f>
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="7">
+        <f>BEN!$A$62*BEN!AR61</f>
+        <v>0</v>
+      </c>
+      <c r="AK20" s="7">
+        <f>BEN!$A$62*BEN!AS61</f>
+        <v>0</v>
+      </c>
+      <c r="AL20" s="7">
+        <f>BEN!$A$62*BEN!AT61</f>
+        <v>0</v>
+      </c>
+      <c r="AM20" s="7">
+        <f>BEN!$A$62*BEN!AU61</f>
+        <v>0</v>
+      </c>
+      <c r="AN20" s="7">
+        <f>BEN!$A$62*BEN!AV61</f>
+        <v>0</v>
+      </c>
+      <c r="AO20" s="7">
+        <f>BEN!$A$62*BEN!AW61</f>
+        <v>0</v>
+      </c>
+      <c r="AP20" s="7">
+        <f>BEN!$A$62*BEN!AX61</f>
+        <v>0</v>
+      </c>
+      <c r="AQ20" s="7">
+        <f>BEN!$A$62*BEN!AY61</f>
+        <v>0</v>
+      </c>
+      <c r="AR20" s="7">
+        <f>BEN!$A$62*BEN!AZ61</f>
+        <v>0</v>
+      </c>
+      <c r="AS20" s="7">
+        <f>BEN!$A$62*BEN!BA61</f>
+        <v>0</v>
+      </c>
+      <c r="AT20" s="7">
+        <f>BEN!$A$62*BEN!BB61</f>
+        <v>0</v>
+      </c>
+      <c r="AU20" s="7">
+        <f>BEN!$A$62*BEN!BC61</f>
+        <v>0</v>
+      </c>
+      <c r="AV20" s="7">
+        <f>BEN!$A$62*BEN!BD61</f>
+        <v>0</v>
+      </c>
+      <c r="AW20" s="7">
+        <f>BEN!$A$62*BEN!BE61</f>
+        <v>0</v>
+      </c>
+      <c r="AX20" s="7">
+        <f>BEN!$A$62*BEN!BF61</f>
+        <v>0</v>
+      </c>
+      <c r="AY20" s="7">
+        <f>BEN!$A$62*BEN!BG61</f>
+        <v>0</v>
+      </c>
+      <c r="AZ20" s="7">
+        <f>BEN!$A$62*BEN!BH61</f>
+        <v>0</v>
+      </c>
+      <c r="BA20" s="7">
+        <f>BEN!$A$62*BEN!BI61</f>
         <v>0</v>
       </c>
     </row>
